--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Фильм</t>
   </si>
@@ -91,6 +91,60 @@
   </si>
   <si>
     <t>Светлана Ходченкова</t>
+  </si>
+  <si>
+    <t>Пророк. История Александра Пушкина</t>
+  </si>
+  <si>
+    <t>драма, мюзикл</t>
+  </si>
+  <si>
+    <t>Юра Борисов</t>
+  </si>
+  <si>
+    <t>Феликс Умаров</t>
+  </si>
+  <si>
+    <t>Большой куш</t>
+  </si>
+  <si>
+    <t>криминал, комедия, боевик</t>
+  </si>
+  <si>
+    <t>Великобритания, США</t>
+  </si>
+  <si>
+    <t>Гай Ричи</t>
+  </si>
+  <si>
+    <t>Джейсон Стэйтем</t>
+  </si>
+  <si>
+    <t>Операция «Фортуна»: Искусство побеждать</t>
+  </si>
+  <si>
+    <t>боевик, комедия</t>
+  </si>
+  <si>
+    <t>Мастер</t>
+  </si>
+  <si>
+    <t>боевик, криминал</t>
+  </si>
+  <si>
+    <t>Дэвид Эйр</t>
+  </si>
+  <si>
+    <t>Милош Бикович</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>сериал</t>
+  </si>
+  <si>
+    <t>фильм</t>
   </si>
 </sst>
 </file>
@@ -424,25 +478,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="29.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,124 +506,243 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
         <v>2025</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
         <v>2022</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
         <v>2025</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:F11">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Фильм</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Анна Курбатова</t>
   </si>
   <si>
-    <t>Актеры</t>
-  </si>
-  <si>
     <t>Светлана Ходченкова</t>
   </si>
   <si>
@@ -145,6 +142,45 @@
   </si>
   <si>
     <t>фильм</t>
+  </si>
+  <si>
+    <t>Санкционер</t>
+  </si>
+  <si>
+    <t>Артем Захарьян</t>
+  </si>
+  <si>
+    <t>Дмитрий Нагиев</t>
+  </si>
+  <si>
+    <t>Челюскин. Первые</t>
+  </si>
+  <si>
+    <t>драма, история</t>
+  </si>
+  <si>
+    <t>Степан Коршунов</t>
+  </si>
+  <si>
+    <t>Степан Коршунов, Стася Милославская</t>
+  </si>
+  <si>
+    <t>Чемпион мира</t>
+  </si>
+  <si>
+    <t>спорт, биография, драма</t>
+  </si>
+  <si>
+    <t>Алексей Сидоров</t>
+  </si>
+  <si>
+    <t>Константин Хабенский, Иван Янковски</t>
+  </si>
+  <si>
+    <t>Кинозвезды</t>
+  </si>
+  <si>
+    <t>Сергей Светлаков, Ян Цапник</t>
   </si>
 </sst>
 </file>
@@ -478,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -518,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>2022</v>
@@ -541,30 +577,30 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>2013</v>
@@ -585,6 +621,9 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,7 +634,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>2024</v>
@@ -607,30 +646,30 @@
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>2025</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>2025</v>
@@ -655,36 +694,36 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>2022</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>2025</v>
@@ -693,54 +732,123 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
         <v>2025</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F11">
+  <sortState ref="A2:G14">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>Фильм</t>
   </si>
@@ -96,9 +96,6 @@
     <t>драма, мюзикл</t>
   </si>
   <si>
-    <t>Юра Борисов</t>
-  </si>
-  <si>
     <t>Феликс Умаров</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Артем Захарьян</t>
   </si>
   <si>
-    <t>Дмитрий Нагиев</t>
-  </si>
-  <si>
     <t>Челюскин. Первые</t>
   </si>
   <si>
@@ -181,6 +175,60 @@
   </si>
   <si>
     <t>Сергей Светлаков, Ян Цапник</t>
+  </si>
+  <si>
+    <t>Иван Васильевич меняет всё</t>
+  </si>
+  <si>
+    <t>комедия, фантастика, приключения</t>
+  </si>
+  <si>
+    <t>Миша Семичев, Роман Ким</t>
+  </si>
+  <si>
+    <t>Тимур Батрутдинов, Максим Лагашкин, Марина Кравец</t>
+  </si>
+  <si>
+    <t>Небриллиантовая рука</t>
+  </si>
+  <si>
+    <t>Миша Семичев, Роман Ким</t>
+  </si>
+  <si>
+    <t>Тимур Батрутдинов,Максим Лагашкин, Никита Кологривый</t>
+  </si>
+  <si>
+    <t>Демис и Марина</t>
+  </si>
+  <si>
+    <t>Саша Абдуллаев</t>
+  </si>
+  <si>
+    <t>Демис Карибидис, Марина Кравец</t>
+  </si>
+  <si>
+    <t>Тимур Батрутдинов, Марина Кравец, Павел Воля</t>
+  </si>
+  <si>
+    <t>Иван Янковский, Никита Кологривый</t>
+  </si>
+  <si>
+    <t>Светлана Ходченкова, Максим Лагашкин</t>
+  </si>
+  <si>
+    <t>Юра Борисов, Аня Чиповская, Светлана Ходченкова</t>
+  </si>
+  <si>
+    <t>Дмитрий Нагиев, Аглая Тарасова</t>
+  </si>
+  <si>
+    <t>Огниво</t>
+  </si>
+  <si>
+    <t>фэнтези, приключения, семейный</t>
+  </si>
+  <si>
+    <t>Роман Евдокимов, Ирина Старшенбаум, Ян Цапник</t>
   </si>
 </sst>
 </file>
@@ -225,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +282,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,24 +565,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -542,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -554,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <v>2022</v>
@@ -577,30 +628,30 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1">
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>2013</v>
@@ -623,18 +674,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>2024</v>
@@ -643,104 +694,107 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -755,87 +809,90 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>2025</v>
@@ -844,11 +901,106 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G14">
+  <sortState ref="A2:G18">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD036AA1-0ED4-47F4-9190-262EF0B62905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="20010" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>Фильм</t>
   </si>
@@ -229,12 +230,42 @@
   </si>
   <si>
     <t>Роман Евдокимов, Ирина Старшенбаум, Ян Цапник</t>
+  </si>
+  <si>
+    <t>Бесстыдники</t>
+  </si>
+  <si>
+    <t>драма, комедия</t>
+  </si>
+  <si>
+    <t>Антон Маслов, Артур Виденмеер</t>
+  </si>
+  <si>
+    <t>Алексей Шевченков, Виктория Заболотная</t>
+  </si>
+  <si>
+    <t>Авиатор</t>
+  </si>
+  <si>
+    <t>Егор Кончаловский</t>
+  </si>
+  <si>
+    <t>Константин Хабенский</t>
+  </si>
+  <si>
+    <t>Майор Гром: Чумной Доктор</t>
+  </si>
+  <si>
+    <t>Олег Трофим</t>
+  </si>
+  <si>
+    <t>Тихон Жизневский, Любовь Аксёнова</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,14 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +612,7 @@
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
     <col min="7" max="7" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,105 +664,102 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1">
-        <v>2000</v>
+        <v>2025</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="1">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>54</v>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>2024</v>
@@ -740,133 +768,130 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -878,130 +903,199 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1">
         <v>2025</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G18">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD036AA1-0ED4-47F4-9190-262EF0B62905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF5880-DF48-49D3-A956-81E899A027EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="20010" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>Фильм</t>
   </si>
@@ -260,6 +260,81 @@
   </si>
   <si>
     <t>Тихон Жизневский, Любовь Аксёнова</t>
+  </si>
+  <si>
+    <t>Павел Пархоменко</t>
+  </si>
+  <si>
+    <t>Ярослав Жалнин</t>
+  </si>
+  <si>
+    <t>Повелитель ветра</t>
+  </si>
+  <si>
+    <t>Игорь Волошин</t>
+  </si>
+  <si>
+    <t>Фёдор Бондарчук, Евгений Ткачук</t>
+  </si>
+  <si>
+    <t>Гагарин. Первый в космосе</t>
+  </si>
+  <si>
+    <t>Хроники русской революции</t>
+  </si>
+  <si>
+    <t>Андрей Кончаловский</t>
+  </si>
+  <si>
+    <t>Юра Борисов, Евгений Ткачук</t>
+  </si>
+  <si>
+    <t>Звёздные войны: Пробуждение силы</t>
+  </si>
+  <si>
+    <t>США, Великобритания</t>
+  </si>
+  <si>
+    <t>Джей Джей Абрамс</t>
+  </si>
+  <si>
+    <t>Звёздные войны: Последние джедаи</t>
+  </si>
+  <si>
+    <t>фантастика, фэнтези, боевик, приключения</t>
+  </si>
+  <si>
+    <t>фантастика, боевик, приключения</t>
+  </si>
+  <si>
+    <t>драма, биография, история</t>
+  </si>
+  <si>
+    <t>драма, приключения, биография</t>
+  </si>
+  <si>
+    <t>история, драма</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Райан Джонсон</t>
+  </si>
+  <si>
+    <t>Адам Драйвер, Дейзи Ридли</t>
+  </si>
+  <si>
+    <t>Звёздные войны: Скайуокер. Восход</t>
+  </si>
+  <si>
+    <t>Харрисон Форд, Адам Драйвер, Дейзи Ридли</t>
+  </si>
+  <si>
+    <t>фантастика, драма</t>
+  </si>
+  <si>
+    <t>боевик, криминал, детектив, комедия</t>
   </si>
 </sst>
 </file>
@@ -596,19 +671,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -666,6 +741,9 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
@@ -730,10 +808,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -745,176 +823,179 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
+      <c r="F12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -926,30 +1007,30 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>30</v>
@@ -957,36 +1038,36 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1">
         <v>2025</v>
@@ -995,87 +1076,87 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -1087,15 +1168,153 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
-    <sortCondition ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+    <sortCondition ref="A1:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF5880-DF48-49D3-A956-81E899A027EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C84774-7121-47B7-8685-F933813F4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2580" windowWidth="21690" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>Фильм</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>боевик, криминал, детектив, комедия</t>
+  </si>
+  <si>
+    <t>Волчок</t>
+  </si>
+  <si>
+    <t>приключения, комедия</t>
+  </si>
+  <si>
+    <t>Константин Смирнов</t>
+  </si>
+  <si>
+    <t>Евгений Ткачук, Юлия Хлынина</t>
   </si>
 </sst>
 </file>
@@ -671,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,33 +820,33 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="1">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -846,93 +858,93 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>90</v>
@@ -941,127 +953,127 @@
         <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>78</v>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="1">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1070,119 +1082,119 @@
         <v>39</v>
       </c>
       <c r="D17" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1">
         <v>2025</v>
@@ -1191,130 +1203,153 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
         <v>2025</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
-    <sortCondition ref="A1:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C84774-7121-47B7-8685-F933813F4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2478748-9ACD-46CD-85F9-2B8E18255762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2580" windowWidth="21690" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="2880" windowWidth="23745" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>Фильм</t>
   </si>
@@ -347,6 +347,39 @@
   </si>
   <si>
     <t>Евгений Ткачук, Юлия Хлынина</t>
+  </si>
+  <si>
+    <t>Гуляй, Вася!</t>
+  </si>
+  <si>
+    <t>Роман Каримов</t>
+  </si>
+  <si>
+    <t>Ефим Петрунин, Ефим Петрунин, Роман Курцын</t>
+  </si>
+  <si>
+    <t>Сокровища гномов</t>
+  </si>
+  <si>
+    <t>семейный, фэнтези, комедия, приключения</t>
+  </si>
+  <si>
+    <t>Александр Бабаев</t>
+  </si>
+  <si>
+    <t>Никита Кологривый, Анастасия Уколова</t>
+  </si>
+  <si>
+    <t>Волшебный участок</t>
+  </si>
+  <si>
+    <t>боевик, фэнтези, комедия, детектив</t>
+  </si>
+  <si>
+    <t>Степан Гордеев</t>
+  </si>
+  <si>
+    <t>Николай Наумов, Гоша Куценко</t>
   </si>
 </sst>
 </file>
@@ -379,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -387,21 +420,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,673 +740,1057 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>2022</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7">
         <v>2025</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>2017</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7">
         <v>2000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
         <v>2025</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7">
         <v>2013</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7">
         <v>2013</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="7">
         <v>2024</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7">
         <v>2017</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7">
         <v>2015</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
         <v>2019</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
         <v>2023</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G15" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
         <v>2021</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
         <v>2024</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
         <v>2025</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7">
         <v>2024</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G19" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7">
         <v>2025</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7">
         <v>2024</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G21" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
         <v>2022</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7">
         <v>2023</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7">
         <v>2025</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G24" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="7">
         <v>2025</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D26" s="7">
         <v>2023</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D28" s="7">
         <v>2025</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D29" s="7">
         <v>2024</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7">
         <v>2021</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
         <v>2025</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G31" s="6" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
-    <sortCondition ref="A1:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2478748-9ACD-46CD-85F9-2B8E18255762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997F184-0FEF-420F-BD90-2708DFDF0F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="2880" windowWidth="23745" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997F184-0FEF-420F-BD90-2708DFDF0F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E3938-80B8-4324-8C61-DD73B1874F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="2880" windowWidth="23745" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>Фильм</t>
   </si>
@@ -380,6 +380,39 @@
   </si>
   <si>
     <t>Николай Наумов, Гоша Куценко</t>
+  </si>
+  <si>
+    <t>СуперБобровы</t>
+  </si>
+  <si>
+    <t>комедия, семейный, фантастика</t>
+  </si>
+  <si>
+    <t>Дмитрий Дьяченко</t>
+  </si>
+  <si>
+    <t>Павел Деревянко, Оксана Акиньшина, Роман Мадянов, Ирина Пегова</t>
+  </si>
+  <si>
+    <t>Модный синдикат</t>
+  </si>
+  <si>
+    <t>комедия, криминал</t>
+  </si>
+  <si>
+    <t>Александр Карпиловский</t>
+  </si>
+  <si>
+    <t>Ян Цапник, Мария Горбань, Ангелина Стречина</t>
+  </si>
+  <si>
+    <t>СуперБобровы. Народные мстители</t>
+  </si>
+  <si>
+    <t>комедия, семейный</t>
+  </si>
+  <si>
+    <t>Павел Деревянко, Оксана Акиньшина, Роман Мадянов, Ирина Пегова, Роман Курцын</t>
   </si>
 </sst>
 </file>
@@ -743,10 +776,10 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,30 +1209,30 @@
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
+      <c r="F19" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
@@ -1208,119 +1241,119 @@
         <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7">
         <v>2022</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7">
         <v>2023</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
         <v>2025</v>
@@ -1329,67 +1362,67 @@
         <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7">
         <v>2023</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="7">
         <v>2025</v>
@@ -1398,67 +1431,67 @@
         <v>7</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D31" s="7">
         <v>2025</v>
@@ -1467,38 +1500,80 @@
         <v>7</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -1789,8 +1864,8 @@
       <c r="G66" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="A1:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E3938-80B8-4324-8C61-DD73B1874F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C4D6E-9681-4466-8832-2C05695B483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2880" windowWidth="23745" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1380" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="144">
   <si>
     <t>Фильм</t>
   </si>
@@ -413,6 +416,45 @@
   </si>
   <si>
     <t>Павел Деревянко, Оксана Акиньшина, Роман Мадянов, Ирина Пегова, Роман Курцын</t>
+  </si>
+  <si>
+    <t>Неожиданные связи</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
+    <t>Жюльен Эрве</t>
+  </si>
+  <si>
+    <t>Кристиан Клавье</t>
+  </si>
+  <si>
+    <t>Неувольняемый</t>
+  </si>
+  <si>
+    <t>Жером Коммандёр</t>
+  </si>
+  <si>
+    <t>Поехавший</t>
+  </si>
+  <si>
+    <t>Франция, Бельгия</t>
+  </si>
+  <si>
+    <t>Филипп Мешлен</t>
+  </si>
+  <si>
+    <t>Хаким Джемили, Кристиан Клавье</t>
+  </si>
+  <si>
+    <t>Франция, Бельгия</t>
+  </si>
+  <si>
+    <t>Ибица</t>
+  </si>
+  <si>
+    <t>Арно Лемор</t>
   </si>
 </sst>
 </file>
@@ -779,7 +821,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,147 +1157,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
         <v>2023</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7">
         <v>2025</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
+      <c r="F20" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
@@ -1264,142 +1306,142 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7">
         <v>2024</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2022</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="7">
         <v>2023</v>
@@ -1408,18 +1450,18 @@
         <v>7</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>39</v>
@@ -1428,188 +1470,244 @@
         <v>2025</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="7">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="7">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7">
         <v>2025</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D36" s="7">
         <v>2024</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7">
         <v>2021</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="7">
         <v>2025</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -1864,8 +1962,8 @@
       <c r="G66" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
-    <sortCondition ref="A1:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="A1:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C4D6E-9681-4466-8832-2C05695B483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5CDA9-F586-43E0-84AA-2C0ADBD125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="1380" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
   <si>
     <t>Фильм</t>
   </si>
@@ -455,6 +455,55 @@
   </si>
   <si>
     <t>Арно Лемор</t>
+  </si>
+  <si>
+    <t>Полярный</t>
+  </si>
+  <si>
+    <t>комедия, криминал</t>
+  </si>
+  <si>
+    <t>2019-…</t>
+  </si>
+  <si>
+    <t>Михаил Старчак, Константин Статский, Илья Аксенов</t>
+  </si>
+  <si>
+    <t>Михаил Пореченков, Иван Охлобыстин, Катерина Шпица, Карина Зверева, 
+Ян Цапник</t>
+  </si>
+  <si>
+    <t>Беги</t>
+  </si>
+  <si>
+    <t>Роман Артемьев</t>
+  </si>
+  <si>
+    <t>Михаил Пореченков, Никита Кологривый</t>
+  </si>
+  <si>
+    <t>Интерны</t>
+  </si>
+  <si>
+    <t>2010-2016</t>
+  </si>
+  <si>
+    <t>Максим Пежемский, Заур Болотаев, Милан Килибарда</t>
+  </si>
+  <si>
+    <t>Иван Охлобыстин, Илья Глинников, Кристина Асмус, Александр Ильин мл. Вадим Демчог</t>
+  </si>
+  <si>
+    <t>Алдан</t>
+  </si>
+  <si>
+    <t>драма, военный</t>
+  </si>
+  <si>
+    <t>Дмитрий Кольцов</t>
+  </si>
+  <si>
+    <t>Иван Охлобыстин, Дмитрий Дюжев, Джефф Монсон</t>
   </si>
 </sst>
 </file>
@@ -818,7 +867,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -829,9 +878,9 @@
     <col min="1" max="1" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -851,7 +900,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -874,7 +923,7 @@
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -897,7 +946,7 @@
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -906,237 +955,237 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D6" s="7">
         <v>2017</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>2023</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>80</v>
+      <c r="F8" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
         <v>2013</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2016</v>
-      </c>
       <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>110</v>
+      <c r="F10" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>93</v>
@@ -1145,162 +1194,162 @@
         <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>143</v>
+        <v>90</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7">
         <v>2021</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>39</v>
@@ -1311,19 +1360,19 @@
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>39</v>
@@ -1332,41 +1381,41 @@
         <v>2025</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -1375,375 +1424,431 @@
         <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7">
         <v>2024</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2022</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>29</v>
+        <v>141</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="7">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="7">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>41</v>
+      <c r="F30" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="7">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7">
-        <v>2025</v>
+      <c r="D32" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>114</v>
+      <c r="F32" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="7">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>122</v>
+      <c r="F33" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="7">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>122</v>
+      <c r="F34" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="7">
         <v>2025</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D40" s="7">
         <v>2024</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7">
         <v>2021</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7">
         <v>2025</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
@@ -1751,7 +1856,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1760,7 +1865,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,7 +1874,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,7 +1883,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,7 +1892,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,7 +1901,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1910,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1814,7 +1919,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,7 +1928,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1832,7 +1937,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,7 +1946,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1955,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,7 +1964,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,7 +1973,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1877,7 +1982,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,7 +1991,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,7 +2000,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1904,7 +2009,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,7 +2018,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1922,7 +2027,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,7 +2036,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1940,7 +2045,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,7 +2054,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,12 +2063,12 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
-    <sortCondition ref="A1:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5CDA9-F586-43E0-84AA-2C0ADBD125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E6D07D-8840-4082-A303-9C1AE65D9E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1380" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1380" windowWidth="21195" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="169">
   <si>
     <t>Фильм</t>
   </si>
@@ -504,6 +504,33 @@
   </si>
   <si>
     <t>Иван Охлобыстин, Дмитрий Дюжев, Джефф Монсон</t>
+  </si>
+  <si>
+    <t>Оппенгеймер</t>
+  </si>
+  <si>
+    <t>биография, драма, история</t>
+  </si>
+  <si>
+    <t>Кристофер Нолан</t>
+  </si>
+  <si>
+    <t>Киллиан Мерфи, Мэтт Дэймон, Роберт Дауни мл.</t>
+  </si>
+  <si>
+    <t>Отступники</t>
+  </si>
+  <si>
+    <t>криминал, драма, триллер</t>
+  </si>
+  <si>
+    <t>США, Гонконг</t>
+  </si>
+  <si>
+    <t>Мартин Скорсезе</t>
+  </si>
+  <si>
+    <t>Леонардо ДиКаприо, Мэтт Дэймон, Джек Николсон, Марк Уолберг</t>
   </si>
 </sst>
 </file>
@@ -867,10 +894,10 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,12 +1578,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>39</v>
@@ -1565,67 +1592,67 @@
         <v>2023</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>39</v>
@@ -1634,70 +1661,70 @@
         <v>2025</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D36" s="7">
         <v>2025</v>
@@ -1706,167 +1733,195 @@
         <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="7">
         <v>2016</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="7">
         <v>2018</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7">
         <v>2021</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="7">
         <v>2025</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -2067,8 +2122,8 @@
       <c r="G66" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G42">
-    <sortCondition ref="A1:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G44">
+    <sortCondition ref="A1:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E6D07D-8840-4082-A303-9C1AE65D9E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1380" windowWidth="21195" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1380" windowWidth="21195" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
   <si>
     <t>Фильм</t>
   </si>
@@ -531,12 +530,33 @@
   </si>
   <si>
     <t>Леонардо ДиКаприо, Мэтт Дэймон, Джек Николсон, Марк Уолберг</t>
+  </si>
+  <si>
+    <t>Зять</t>
+  </si>
+  <si>
+    <t>комедия, мелодрама</t>
+  </si>
+  <si>
+    <t>Анарио Мамедов</t>
+  </si>
+  <si>
+    <t>Дмитрий Нагиев, Ян Цапник, Ирина Пегова</t>
+  </si>
+  <si>
+    <t>Мой папа — вождь</t>
+  </si>
+  <si>
+    <t>семейный, комедия, приключения</t>
+  </si>
+  <si>
+    <t>Дмитрий Нагиев, Максим Лагашкин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,14 +910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +928,7 @@
     <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1279,216 +1299,216 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
         <v>2019</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7">
         <v>2023</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7">
         <v>2025</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
@@ -1500,18 +1520,18 @@
         <v>2024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>6</v>
@@ -1520,24 +1540,24 @@
         <v>39</v>
       </c>
       <c r="D27" s="7">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>39</v>
@@ -1546,21 +1566,21 @@
         <v>2024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>39</v>
@@ -1569,67 +1589,67 @@
         <v>2022</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="7">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
@@ -1638,67 +1658,67 @@
         <v>2023</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>39</v>
@@ -1707,70 +1727,70 @@
         <v>2025</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D38" s="7">
         <v>2025</v>
@@ -1779,167 +1799,195 @@
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7">
         <v>2016</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7">
         <v>2018</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2025</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2024</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="7">
         <v>2021</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="7">
         <v>2025</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="E46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -2122,8 +2170,8 @@
       <c r="G66" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G44">
-    <sortCondition ref="A1:A44"/>
+  <sortState ref="A2:G46">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="229">
   <si>
     <t>Фильм</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Степан Гордеев</t>
   </si>
   <si>
-    <t>Николай Наумов, Гоша Куценко</t>
-  </si>
-  <si>
     <t>СуперБобровы</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
     <t>Отель Элеон</t>
   </si>
   <si>
-    <t>2016-2017 (3 сезона)</t>
-  </si>
-  <si>
     <t>Антон Федотов, Антон Маслов, Екатерина Забулонская</t>
   </si>
   <si>
@@ -537,9 +531,6 @@
     <t>Няня Оксана</t>
   </si>
   <si>
-    <t>2025 (1 сезон)</t>
-  </si>
-  <si>
     <t>Евгения Абдель-Фаттах</t>
   </si>
   <si>
@@ -549,9 +540,6 @@
     <t>Гранд</t>
   </si>
   <si>
-    <t>2018-2021 (5 сезонов)</t>
-  </si>
-  <si>
     <t>Дмитрий Грибанов</t>
   </si>
   <si>
@@ -561,9 +549,6 @@
     <t>Кухня</t>
   </si>
   <si>
-    <t>2012-2016 (6 сезонов)</t>
-  </si>
-  <si>
     <t>Дмитрий Дьяченко, Жора Крыжовников, Антон Федотов</t>
   </si>
   <si>
@@ -579,21 +564,9 @@
     <t>Агата Муцениеце, Марк Богатырев, Анна Банщикова</t>
   </si>
   <si>
-    <t>2022 (1 сезон)</t>
-  </si>
-  <si>
     <t>Милош Бикович, Паулина Андреева, Оксана Акиньшина, Алексей Кравченко, Любовь Аксёнова</t>
   </si>
   <si>
-    <t>2017 (1 сезон)</t>
-  </si>
-  <si>
-    <t>2024 (1 сезон)</t>
-  </si>
-  <si>
-    <t>2010-2016 (4 сезона)</t>
-  </si>
-  <si>
     <t>Баранкины и камни силы</t>
   </si>
   <si>
@@ -607,9 +580,6 @@
   </si>
   <si>
     <t>Телохранители</t>
-  </si>
-  <si>
-    <t>2023 (2 сезона)</t>
   </si>
   <si>
     <t>Константин Смирнов, Владимир Битоков</t>
@@ -631,9 +601,6 @@
 Марат Башаров, Анна Уколова</t>
   </si>
   <si>
-    <t>2023 (1 сезон)</t>
-  </si>
-  <si>
     <t>Юра Борисов, Евгений Ткачук, Юлия Высоцкая</t>
   </si>
   <si>
@@ -668,9 +635,6 @@
     <t>драма, комедия, спорт</t>
   </si>
   <si>
-    <t>2019 (5 сезонов)</t>
-  </si>
-  <si>
     <t>Рустам Ильясов, Александр Цой, Николай Рыбников</t>
   </si>
   <si>
@@ -695,16 +659,10 @@
     <t>Два холма</t>
   </si>
   <si>
-    <t>2022 (3 сезона)</t>
-  </si>
-  <si>
     <t>Ефим Петрунин, Роман Курцын, Любовь Аксёнова, Софья Райзман</t>
   </si>
   <si>
     <t>Физрук</t>
-  </si>
-  <si>
-    <t>2014-2017 (4 сезона)</t>
   </si>
   <si>
     <t>Сергей Сенцов, Фёдор Стуков, Дмитрий Губарев</t>
@@ -714,9 +672,6 @@
 Владимир Сычев, Карина Мишулина</t>
   </si>
   <si>
-    <t>2019 (4 сезона)</t>
-  </si>
-  <si>
     <t>Михаил Пореченков, Иван Охлобыстин, Катерина Шпица, Карина Зверева, 
 Ян Цапник, Владимир Епифанцев</t>
   </si>
@@ -728,6 +683,38 @@
   </si>
   <si>
     <t xml:space="preserve">Дмитрий Грибанов, Аскар Бисембин, Сергей Малюгов </t>
+  </si>
+  <si>
+    <t>Кол-во 
+сезонов</t>
+  </si>
+  <si>
+    <t>2018-2021</t>
+  </si>
+  <si>
+    <t>2010-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-2017 </t>
+  </si>
+  <si>
+    <t>2014-2017</t>
+  </si>
+  <si>
+    <t>Николай Наумов, Гоша Куценко, Филипп Янковский, 
+Татьяна Догилева</t>
+  </si>
+  <si>
+    <t>Наша Russia: Яйца судьбы</t>
+  </si>
+  <si>
+    <t>Глеб Орлов</t>
+  </si>
+  <si>
+    <t>Сергей Светлаков, Михаил Галустян, Роман Мадянов</t>
   </si>
 </sst>
 </file>
@@ -1097,27 +1084,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="56.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1130,17 +1118,20 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1150,20 +1141,23 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
+      <c r="D2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1176,22 +1170,23 @@
       <c r="D3" s="9">
         <v>2025</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>38</v>
@@ -1199,45 +1194,49 @@
       <c r="D4" s="9">
         <v>2025</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
+      <c r="D5" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>38</v>
@@ -1245,17 +1244,18 @@
       <c r="D6" s="9">
         <v>2025</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
@@ -1265,20 +1265,23 @@
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
+      <c r="D7" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1291,17 +1294,18 @@
       <c r="D8" s="9">
         <v>2000</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>99</v>
       </c>
@@ -1314,17 +1318,18 @@
       <c r="D9" s="9">
         <v>2025</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>109</v>
       </c>
@@ -1334,20 +1339,23 @@
       <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
+      <c r="D10" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
@@ -1360,17 +1368,18 @@
       <c r="D11" s="9">
         <v>2013</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1383,19 +1392,20 @@
       <c r="D12" s="9">
         <v>2013</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
@@ -1404,19 +1414,22 @@
         <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
+        <v>220</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -1429,19 +1442,20 @@
       <c r="D14" s="9">
         <v>2016</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
@@ -1449,20 +1463,23 @@
       <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>7</v>
+      <c r="D15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
@@ -1472,20 +1489,23 @@
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
+      <c r="D16" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>86</v>
       </c>
@@ -1498,17 +1518,18 @@
       <c r="D17" s="9">
         <v>2017</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -1521,17 +1542,18 @@
       <c r="D18" s="9">
         <v>2015</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>95</v>
       </c>
@@ -1544,22 +1566,23 @@
       <c r="D19" s="9">
         <v>2019</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>38</v>
@@ -1567,19 +1590,20 @@
       <c r="D20" s="9">
         <v>2024</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>6</v>
@@ -1590,17 +1614,18 @@
       <c r="D21" s="9">
         <v>2019</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -1613,19 +1638,20 @@
       <c r="D22" s="9">
         <v>2023</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
@@ -1634,44 +1660,50 @@
         <v>37</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>7</v>
+        <v>221</v>
+      </c>
+      <c r="E23" s="9">
+        <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>7</v>
+      <c r="D24" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
@@ -1680,19 +1712,22 @@
         <v>37</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>7</v>
+        <v>222</v>
+      </c>
+      <c r="E25" s="9">
+        <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>72</v>
       </c>
@@ -1705,17 +1740,18 @@
       <c r="D26" s="9">
         <v>2021</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
@@ -1728,17 +1764,18 @@
       <c r="D27" s="9">
         <v>2024</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -1751,45 +1788,49 @@
       <c r="D28" s="9">
         <v>2025</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>7</v>
+      <c r="D29" s="9">
+        <v>2022</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>38</v>
@@ -1797,19 +1838,20 @@
       <c r="D30" s="9">
         <v>2022</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -1818,21 +1860,22 @@
         <v>38</v>
       </c>
       <c r="D31" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>2010</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>6</v>
@@ -1841,21 +1884,22 @@
         <v>38</v>
       </c>
       <c r="D32" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>6</v>
@@ -1864,21 +1908,22 @@
         <v>38</v>
       </c>
       <c r="D33" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>2025</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="4" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>6</v>
@@ -1887,458 +1932,494 @@
         <v>38</v>
       </c>
       <c r="D34" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E34" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2022</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="D36" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="9">
         <v>2024</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="C38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="9">
         <v>2022</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="H39" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="9">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2006</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="9">
         <v>2023</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="9">
-        <v>2006</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D45" s="9">
         <v>2025</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>7</v>
+      <c r="E45" s="9">
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>7</v>
+      <c r="D47" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="9">
         <v>2025</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2016</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="9">
-        <v>2016</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="9">
-        <v>2018</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>7</v>
+      <c r="D52" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>7</v>
+      <c r="D53" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E53" s="9">
+        <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
@@ -2346,140 +2427,156 @@
       <c r="C54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>7</v>
+      <c r="D54" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>227</v>
+        <v>7</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>7</v>
+        <v>224</v>
+      </c>
+      <c r="E55" s="9">
+        <v>4</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>7</v>
+      <c r="D56" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>7</v>
+      <c r="D57" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="H58" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="9">
         <v>2021</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>38</v>
@@ -2487,207 +2584,243 @@
       <c r="D60" s="9">
         <v>2025</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="6"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="6"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="6"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="6"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="6"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="6"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="6"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="6"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="6"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="6"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="6"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="6"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="6"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="6"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="6"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="6"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="6"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="6"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G60">
+  <sortState ref="A2:H61">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="1665" yWindow="1380" windowWidth="21195" windowHeight="15345"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Фильмы и сериалы" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="268">
   <si>
     <t>Фильм</t>
   </si>
@@ -715,13 +715,194 @@
   </si>
   <si>
     <t>Сергей Светлаков, Михаил Галустян, Роман Мадянов</t>
+  </si>
+  <si>
+    <t>Комбинация</t>
+  </si>
+  <si>
+    <r>
+      <t>музыка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>биография</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>драма</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>комедия</t>
+    </r>
+  </si>
+  <si>
+    <t>Никита Власов</t>
+  </si>
+  <si>
+    <t>Никита Кологривый, Анастасия Уколова, 
+Павел Прилучный</t>
+  </si>
+  <si>
+    <t>Жизнь по вызову</t>
+  </si>
+  <si>
+    <t>драма</t>
+  </si>
+  <si>
+    <t>Сарик Андреасян</t>
+  </si>
+  <si>
+    <t>Павел Прилучный, Наталья Рудова, Владимир Сычев, Кирилл Жандаров, Никита Кологривый</t>
+  </si>
+  <si>
+    <t>Бес попутал</t>
+  </si>
+  <si>
+    <t>комедия, фэнтези</t>
+  </si>
+  <si>
+    <t>Дмитрий Фикс</t>
+  </si>
+  <si>
+    <t>Иван Злобин, Павел Деревянко, Соня Присс, Алина Колесникова</t>
+  </si>
+  <si>
+    <t>Открытый брак</t>
+  </si>
+  <si>
+    <t>комедия, мелодрама, драма</t>
+  </si>
+  <si>
+    <t>Иван Китаев, Анна Курбатова</t>
+  </si>
+  <si>
+    <t>Марина Александрова, Юлия Александрова, Павел Деревянко, Равшана Куркова, Артём Ткаченко, Владимир Яглыч</t>
+  </si>
+  <si>
+    <t>Беспринципные в Питере</t>
+  </si>
+  <si>
+    <t>Заур Засеев</t>
+  </si>
+  <si>
+    <t>Кристина Бабушкина, Николай Фоменко, Павел Деревянко, Анна Ковальчук, Владимир Яглыч, Стася Милославская, 
+Александра Ребенок</t>
+  </si>
+  <si>
+    <t>Беспринципные</t>
+  </si>
+  <si>
+    <t>Роман Прыгунов</t>
+  </si>
+  <si>
+    <t>Павел Деревянко, Оксана Акиньшина, Павел Табаков, Аглая Тарасова, Максим Виторган, Николай Фоменко, Кристина Бабушкина, Надежда Михалкова</t>
+  </si>
+  <si>
+    <t>Первый номер</t>
+  </si>
+  <si>
+    <t>Клим Козинский</t>
+  </si>
+  <si>
+    <t>Евгений Цыганов, Надежда Михалкова, Павел Деревянко, Равшана Куркова, Ида Галич, Александра Ребенок, Леонид Ярмольник</t>
+  </si>
+  <si>
+    <t>Неадекватные люди</t>
+  </si>
+  <si>
+    <t>драма, мелодрама, комедия</t>
+  </si>
+  <si>
+    <t>Илья Любимов, Ингрид Олеринская, Евгений Цыганов, Юлия Такшина, Анна Глаубэ</t>
+  </si>
+  <si>
+    <t>Престиж</t>
+  </si>
+  <si>
+    <t>детектив, драма, комедия</t>
+  </si>
+  <si>
+    <t>Сергей Сенцов</t>
+  </si>
+  <si>
+    <t>Ирина Розанова, Юлия Снигирь, Вера Кинчева, Любовь Толкалина, Анна Уколова, Илья Любимов, Настасья Самбурская, Ирина Дубцова</t>
+  </si>
+  <si>
+    <t>Молодой человек</t>
+  </si>
+  <si>
+    <t>Александр Фомин</t>
+  </si>
+  <si>
+    <t>Павел Табаков, Данила Козловский, Ингрид Олеринская, Валентина Ляпина</t>
+  </si>
+  <si>
+    <t>Надвое</t>
+  </si>
+  <si>
+    <t>мелодрама, комедия</t>
+  </si>
+  <si>
+    <t>Валерий Тодоровский</t>
+  </si>
+  <si>
+    <t>Данила Козловский, Александр Петров, Ирина Старшенбаум, Елизавета Базыкина</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +918,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1090,7 +1285,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,231 +1452,231 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9">
-        <v>2017</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="9">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>2020</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9">
         <v>2025</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="9">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="9">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>220</v>
+      <c r="D13" s="9">
+        <v>2023</v>
       </c>
       <c r="E13" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="9">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
@@ -1489,328 +1684,332 @@
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
-        <v>2024</v>
+      <c r="D16" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="E16" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="4" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
-        <v>2015</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>2022</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2022</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2019</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="4" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="9">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="4" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="4" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" s="9">
-        <v>6</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="9">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E27" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
       <c r="F27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>2023</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
       <c r="F28" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="9">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -1819,66 +2018,68 @@
         <v>7</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="9">
+        <v>6</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="9">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>38</v>
@@ -1891,18 +2092,18 @@
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>38</v>
@@ -1912,45 +2113,47 @@
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>2022</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
       <c r="F34" s="4" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>38</v>
@@ -1960,190 +2163,188 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="4" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>2022</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
       <c r="F37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="9">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="9">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="9">
-        <v>3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="9">
-        <v>2006</v>
+        <v>2025</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="4" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="4" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
@@ -2152,329 +2353,325 @@
         <v>38</v>
       </c>
       <c r="D43" s="9">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="9">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="E44" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E45" s="9">
-        <v>1</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="9">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="9">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="9">
         <v>2023</v>
       </c>
-      <c r="E48" s="9">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
       <c r="F49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="9">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="4" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="9">
-        <v>2018</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>2024</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
       <c r="F51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" s="9">
         <v>2023</v>
       </c>
-      <c r="E52" s="9">
-        <v>2</v>
-      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" s="9">
-        <v>2019</v>
-      </c>
-      <c r="E53" s="9">
-        <v>5</v>
-      </c>
+        <v>2025</v>
+      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" s="9">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E54" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>224</v>
+      <c r="D55" s="9">
+        <v>2024</v>
       </c>
       <c r="E55" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>37</v>
@@ -2489,50 +2686,48 @@
         <v>7</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" s="9">
         <v>2025</v>
       </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
@@ -2541,42 +2736,44 @@
         <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" s="9">
-        <v>2021</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>2023</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
       <c r="F59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>38</v>
@@ -2589,145 +2786,313 @@
         <v>7</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="9">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E63" s="9">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E64" s="9">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E65" s="9">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="9">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2021</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -2820,7 +3185,7 @@
       <c r="H81" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H61">
+  <sortState ref="A2:H72">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5158DDB-062A-48BF-801A-E8BB8D8C29EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDB145-9ED0-42F5-8BA5-92BC35D688B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="315">
   <si>
     <t>Фильм</t>
   </si>
@@ -987,6 +987,66 @@
   </si>
   <si>
     <t>Вертинский, Метод; Спящие; Лучше, чем люди; 13 клиническая</t>
+  </si>
+  <si>
+    <t>Оксана Акиньшина</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Акиньшина</t>
+  </si>
+  <si>
+    <t>Алексей Кравченко</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Кравченко</t>
+  </si>
+  <si>
+    <t>Илья Любимов</t>
+  </si>
+  <si>
+    <t>Любимов</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Ингрид</t>
+  </si>
+  <si>
+    <t>Олеринская</t>
+  </si>
+  <si>
+    <t>Ингрид Олеринская</t>
+  </si>
+  <si>
+    <t>Евгений Цыганов</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Цыганов</t>
+  </si>
+  <si>
+    <t>Любовь</t>
+  </si>
+  <si>
+    <t>Аксёнова</t>
+  </si>
+  <si>
+    <t>Любовь Аксёнова</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>Хабенский</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1468,10 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,18 +3465,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005EAB9A-4845-43BF-89A8-D78D5EF8755A}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
@@ -3473,87 +3533,215 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>270</v>
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="C2" s="13" t="str">
         <f>A2 &amp; " " &amp; B2</f>
-        <v>Милош Бикович</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19">
-        <v>45670</v>
-      </c>
-      <c r="H2" s="20">
-        <v>1988</v>
-      </c>
-      <c r="I2" s="13">
-        <f ca="1">YEAR(TODAY())-H2</f>
-        <v>37</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>281</v>
+        <v>Оксана Акиньшина</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="15"/>
+      <c r="I2"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="C3" s="13" t="str">
         <f>A3 &amp; " " &amp; B3</f>
+        <v>Любовь Аксёнова</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="15"/>
+      <c r="I3"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>A4 &amp; " " &amp; B4</f>
         <v>Паулина Андреева</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F4" s="20">
         <v>1.71</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G4" s="19">
         <v>45942</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H4" s="20">
         <v>1988</v>
       </c>
-      <c r="I3" s="13">
-        <f ca="1">YEAR(TODAY())-H3</f>
+      <c r="I4" s="13">
+        <f ca="1">YEAR(TODAY())-H4</f>
         <v>37</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M4" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>294</v>
       </c>
     </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>A5 &amp; " " &amp; B5</f>
+        <v>Милош Бикович</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19">
+        <v>45670</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1988</v>
+      </c>
+      <c r="I5" s="13">
+        <f ca="1">YEAR(TODAY())-H5</f>
+        <v>37</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>A6 &amp; " " &amp; B6</f>
+        <v>Алексей Кравченко</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>A7 &amp; " " &amp; B7</f>
+        <v>Илья Любимов</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f>A8 &amp; " " &amp; B8</f>
+        <v>Ингрид Олеринская</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>A9 &amp; " " &amp; B9</f>
+        <v>Константин Хабенский</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>A10 &amp; " " &amp; B10</f>
+        <v>Евгений Цыганов</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N10">
+    <sortCondition ref="B1:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDB145-9ED0-42F5-8BA5-92BC35D688B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы и сериалы" sheetId="1" r:id="rId1"/>
     <sheet name="Актеры" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="378">
   <si>
     <t>Фильм</t>
   </si>
@@ -1048,11 +1047,203 @@
   <si>
     <t>Хабенский</t>
   </si>
+  <si>
+    <t>Иван Охлобыстин</t>
+  </si>
+  <si>
+    <t>Дмитрий Дюжев</t>
+  </si>
+  <si>
+    <t>Джефф Монсон</t>
+  </si>
+  <si>
+    <t>Михаил Пореченков</t>
+  </si>
+  <si>
+    <t>Никита Кологривый</t>
+  </si>
+  <si>
+    <t>Актер</t>
+  </si>
+  <si>
+    <t>Москва, СССР</t>
+  </si>
+  <si>
+    <t>драма, боевик, детектив</t>
+  </si>
+  <si>
+    <t>115, 1974 — 2026</t>
+  </si>
+  <si>
+    <t>Иди и смотри; Хоккейные папы; Господа Головлевы; Лев Яшин. Вратарь моей мечты; Звезда</t>
+  </si>
+  <si>
+    <t>Отчий берег; Бригада; Спецназ; Петр Лещенко. Все, что было…; Наш спецназ</t>
+  </si>
+  <si>
+    <t>комедия, драма, мелодрама</t>
+  </si>
+  <si>
+    <t>124, 1993 — 2025</t>
+  </si>
+  <si>
+    <t>Время собирать камни; Чаклун и Румба; Культурная комедия; Здравствуйте, мы ваша крыша!; Брат</t>
+  </si>
+  <si>
+    <t>Баранкины и камни силы; Убойная сила; жЫЫЫзнь; Политех; Саня, газуй!</t>
+  </si>
+  <si>
+    <t>Олимпия, Вашингтон, США</t>
+  </si>
+  <si>
+    <t>драма, военный, история</t>
+  </si>
+  <si>
+    <t>12, 2007 — 2025</t>
+  </si>
+  <si>
+    <t>Актер, Режиссер, Актер дубляжа, Сценарист</t>
+  </si>
+  <si>
+    <t>Астрахань, СССР</t>
+  </si>
+  <si>
+    <t>драма, комедия, мелодрама</t>
+  </si>
+  <si>
+    <t>98, 2000 — 2025</t>
+  </si>
+  <si>
+    <t>Остров; Бременские музыканты; Жмурки; Мне не больно; Каникулы строгого режима</t>
+  </si>
+  <si>
+    <t>Бригада; Истребители: Последний бой; Истребители; Временно недоступен; Вербное воскресенье</t>
+  </si>
+  <si>
+    <t>Актер, Режиссер, Сценарист, Продюсер, Композитор, Актер дубляжа</t>
+  </si>
+  <si>
+    <t>118, 2001 — 2025</t>
+  </si>
+  <si>
+    <t>Брестская крепость; Битва за Севастополь; Прогулка; Неадекватные люди; Батя 2. Дед</t>
+  </si>
+  <si>
+    <t>Нежность; Красные горы; Батя 2. Дед; Оттепель;
+С чего начинается Родина</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Федорцов</t>
+  </si>
+  <si>
+    <t>Монсон</t>
+  </si>
+  <si>
+    <t>Дюжев</t>
+  </si>
+  <si>
+    <t>Охлобыстин</t>
+  </si>
+  <si>
+    <t>Пореченков</t>
+  </si>
+  <si>
+    <t>Джефф</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Супруг/Супруга</t>
+  </si>
+  <si>
+    <t>Юлия Снигирь один ребенок</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Кологривый</t>
+  </si>
+  <si>
+    <t>Алиса Кравченко (развод)двое детей
+Надежда Борисова</t>
+  </si>
+  <si>
+    <t>Иван Злобин</t>
+  </si>
+  <si>
+    <t>Павел Деревянко</t>
+  </si>
+  <si>
+    <t>Соня Присс</t>
+  </si>
+  <si>
+    <t>Алина Колесникова</t>
+  </si>
+  <si>
+    <t>Павел Табаков</t>
+  </si>
+  <si>
+    <t>Аглая Тарасова</t>
+  </si>
+  <si>
+    <t>Максим Виторган</t>
+  </si>
+  <si>
+    <t>Николай Фоменко</t>
+  </si>
+  <si>
+    <t>Анна Ковальчук</t>
+  </si>
+  <si>
+    <t>Кристина Бабушкина</t>
+  </si>
+  <si>
+    <t>Надежда Михалкова</t>
+  </si>
+  <si>
+    <t>Александра Ребенок</t>
+  </si>
+  <si>
+    <t>Владимир Яглыч</t>
+  </si>
+  <si>
+    <t>Стася Милославская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Татьяна Зайцева двое детей</t>
+  </si>
+  <si>
+    <t>Фёдор Бондарчук (развод) один ребенок</t>
+  </si>
+  <si>
+    <t>Алексей Шевченков</t>
+  </si>
+  <si>
+    <t>Виктория Заболотная</t>
+  </si>
+  <si>
+    <t>Андрей Чадов</t>
+  </si>
+  <si>
+    <t>Галина Петрова</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1120,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1173,17 +1364,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,14 +1679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,7 +3670,7 @@
       <c r="I81" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H72">
+  <sortState ref="A2:H72">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3464,285 +3679,1485 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005EAB9A-4845-43BF-89A8-D78D5EF8755A}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="12" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Алексей Кравченко</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="G4" s="23">
+        <v>45940</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1969</v>
+      </c>
+      <c r="I4" s="12">
+        <f ca="1">YEAR(TODAY())-H4</f>
+        <v>56</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>B7 &amp; " " &amp; C7</f>
+        <v>Андрей Федорцов</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="23">
+        <v>45882</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1968</v>
+      </c>
+      <c r="I7" s="12">
+        <f ca="1">YEAR(TODAY())-H7</f>
+        <v>57</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>B13 &amp; " " &amp; C13</f>
+        <v>Джефф Монсон</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="G13" s="23">
+        <v>45675</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1971</v>
+      </c>
+      <c r="I13" s="12">
+        <f ca="1">YEAR(TODAY())-H13</f>
+        <v>54</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>B14 &amp; " " &amp; C14</f>
+        <v>Дмитрий Дюжев</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="G14" s="23">
+        <v>45847</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1978</v>
+      </c>
+      <c r="I14" s="12">
+        <f ca="1">YEAR(TODAY())-H14</f>
+        <v>47</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>B15 &amp; " " &amp; C15</f>
+        <v>Евгений Цыганов</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="G15" s="23">
+        <v>45731</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1979</v>
+      </c>
+      <c r="I15" s="12">
+        <f ca="1">YEAR(TODAY())-H15</f>
+        <v>46</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f>B17 &amp; " " &amp; C17</f>
+        <v>Иван Охлобыстин</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>B18 &amp; " " &amp; C18</f>
+        <v>Илья Любимов</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>B19 &amp; " " &amp; C19</f>
+        <v>Ингрид Олеринская</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f>B20 &amp; " " &amp; C20</f>
+        <v>Константин Хабенский</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f>B22 &amp; " " &amp; C22</f>
+        <v>Любовь Аксёнова</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>B24 &amp; " " &amp; C24</f>
+        <v>Милош Бикович</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23">
+        <v>45670</v>
+      </c>
+      <c r="H24" s="22">
+        <v>1988</v>
+      </c>
+      <c r="I24" s="12">
+        <f ca="1">YEAR(TODAY())-H24</f>
+        <v>37</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="12" t="str">
+        <f>B25 &amp; " " &amp; C25</f>
+        <v>Михаил Пореченков</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="12" t="str">
+        <f>B27 &amp; " " &amp; C27</f>
+        <v>Никита Кологривый</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="13" t="str">
-        <f>A2 &amp; " " &amp; B2</f>
+      <c r="D29" s="12" t="str">
+        <f>B29 &amp; " " &amp; C29</f>
         <v>Оксана Акиньшина</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="15"/>
-      <c r="I2"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="13" t="str">
-        <f>A3 &amp; " " &amp; B3</f>
-        <v>Любовь Аксёнова</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="15"/>
-      <c r="I3"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="13" t="str">
-        <f>A4 &amp; " " &amp; B4</f>
+      <c r="D32" s="12" t="str">
+        <f>B32 &amp; " " &amp; C32</f>
         <v>Паулина Андреева</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="E32" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F32" s="22">
         <v>1.71</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G32" s="23">
         <v>45942</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H32" s="22">
         <v>1988</v>
       </c>
-      <c r="I4" s="13">
-        <f ca="1">YEAR(TODAY())-H4</f>
+      <c r="I32" s="12">
+        <f ca="1">YEAR(TODAY())-H32</f>
         <v>37</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J32" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K32" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L32" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="M32" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N32" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O32" s="22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="13" t="str">
-        <f>A5 &amp; " " &amp; B5</f>
-        <v>Милош Бикович</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19">
-        <v>45670</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1988</v>
-      </c>
-      <c r="I5" s="13">
-        <f ca="1">YEAR(TODAY())-H5</f>
-        <v>37</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="13" t="str">
-        <f>A6 &amp; " " &amp; B6</f>
-        <v>Алексей Кравченко</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="13" t="str">
-        <f>A7 &amp; " " &amp; B7</f>
-        <v>Илья Любимов</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="13" t="str">
-        <f>A8 &amp; " " &amp; B8</f>
-        <v>Ингрид Олеринская</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="13" t="str">
-        <f>A9 &amp; " " &amp; B9</f>
-        <v>Константин Хабенский</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="13" t="str">
-        <f>A10 &amp; " " &amp; B10</f>
-        <v>Евгений Цыганов</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>307</v>
-      </c>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N10">
-    <sortCondition ref="B1:B10"/>
+  <sortState ref="A2:O34">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530"/>
+    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы и сериалы" sheetId="1" r:id="rId1"/>
@@ -1682,11 +1682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,11 +3682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530" activeTab="1"/>
+    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы и сериалы" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="437">
   <si>
     <t>Фильм</t>
   </si>
@@ -1238,6 +1238,188 @@
   </si>
   <si>
     <t>Галина Петрова</t>
+  </si>
+  <si>
+    <t>Актриса</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, Россия</t>
+  </si>
+  <si>
+    <t>комедия, мелодрама, драма</t>
+  </si>
+  <si>
+    <t>59, 2010 — 2025</t>
+  </si>
+  <si>
+    <t>Лёд 2; Холоп 2; Лёд; Лёд 3; Казнь</t>
+  </si>
+  <si>
+    <t>Подкидыш; Операция «Мухаббат»; Саша и Питер; И снова здравствуйте!;
+Беспринципные</t>
+  </si>
+  <si>
+    <t>Аглая</t>
+  </si>
+  <si>
+    <t>Тарасова</t>
+  </si>
+  <si>
+    <t>Актриса, Актриса дубляжа, Сценарист</t>
+  </si>
+  <si>
+    <t>Москва, СССР</t>
+  </si>
+  <si>
+    <t>драма, комедия, детектив</t>
+  </si>
+  <si>
+    <t>Алексей Вертков
+двое детей</t>
+  </si>
+  <si>
+    <t>83, 2004 — 2025</t>
+  </si>
+  <si>
+    <t>Беспринципные в Питере; Я не могу без тебя; Против всех; Первый номер; Жить жизнь</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Ребенок</t>
+  </si>
+  <si>
+    <t>Шевченков</t>
+  </si>
+  <si>
+    <t>Колесникова</t>
+  </si>
+  <si>
+    <t>Чадов</t>
+  </si>
+  <si>
+    <t>Ковальчук</t>
+  </si>
+  <si>
+    <t>Черняховск, СССР</t>
+  </si>
+  <si>
+    <t>Ольга Шевченковадвое детей</t>
+  </si>
+  <si>
+    <t>153, 1993 — 2026</t>
+  </si>
+  <si>
+    <t>Излечить страх; Турист; 72 часа; Красный призрак; Мёртвое поле</t>
+  </si>
+  <si>
+    <t>Медное солнце; Русские горки; Операция «Карпаты»; Экспроприатор; Катя: Военная история</t>
+  </si>
+  <si>
+    <t>комедия, короткометражка, драма</t>
+  </si>
+  <si>
+    <t>11, 2020 — 2025</t>
+  </si>
+  <si>
+    <t>Телохранители; Бедные смеются, богатые плачут; Три плюс три; Дайте шоу; Естественный отбор</t>
+  </si>
+  <si>
+    <t>Актер, Продюсер</t>
+  </si>
+  <si>
+    <t>драма, мелодрама, детектив</t>
+  </si>
+  <si>
+    <t>42, 2001 — 2022</t>
+  </si>
+  <si>
+    <t>Живой; Прощаться не будем</t>
+  </si>
+  <si>
+    <t>Курсанты; Стажер; Дело чести; Мелодия любви; Игра на выживание</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Анатолий Ильченко (развод) один ребенок
+Олег Капустин один ребенок</t>
+  </si>
+  <si>
+    <t>Нойштрелитц, ГДР</t>
+  </si>
+  <si>
+    <t>драма, мелодрама, история</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+30, 1999 — 2025</t>
+  </si>
+  <si>
+    <t>Адмиралъ</t>
+  </si>
+  <si>
+    <t>Мастер и Маргарита; Екатерина. Фавориты; Беспринципные в Питере; Адмиралъ; Годунов. Продолжение</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Евгений Ткачук</t>
+  </si>
+  <si>
+    <t>Юлия Хлынина</t>
+  </si>
+  <si>
+    <t>Николай Наумов</t>
+  </si>
+  <si>
+    <t>Гоша Куценко</t>
+  </si>
+  <si>
+    <t>Филипп Янковский</t>
+  </si>
+  <si>
+    <t>Татьяна Догилева</t>
+  </si>
+  <si>
+    <t>Новосибирск, Россия</t>
+  </si>
+  <si>
+    <t>комедия, драма, триллер</t>
+  </si>
+  <si>
+    <t>26, 2016 — 2025</t>
+  </si>
+  <si>
+    <t>Пророк. История Александра Пушкина; Один настоящий день</t>
+  </si>
+  <si>
+    <t>Цирк!; Фантом; Фишер; Монастырь; Сама дура</t>
+  </si>
+  <si>
+    <t>Злобин</t>
+  </si>
+  <si>
+    <t>Актер, Сценарист, Режиссер, Актер дубляжа, Продюсер</t>
+  </si>
+  <si>
+    <t>Поленово, Тульская область, СССР</t>
+  </si>
+  <si>
+    <t>Оксана Арбузова шестеро детей</t>
+  </si>
+  <si>
+    <t>139, 1983 — 2026</t>
+  </si>
+  <si>
+    <t>ДМБ; Три истории; Даун Хаус; Холоп; Холоп 2</t>
+  </si>
+  <si>
+    <t>Ростов; Метод Фрейда; Грач
+Интерны; Полярный</t>
   </si>
 </sst>
 </file>
@@ -1682,11 +1864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,7 +3852,7 @@
       <c r="I81" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H72">
+  <sortState ref="A2:I72">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,25 +3864,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="15" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="19" customWidth="1"/>
     <col min="13" max="13" width="17.140625" style="15" customWidth="1"/>
@@ -3755,43 +3937,97 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="12" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Аглая Тарасова</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="G2" s="23">
+        <v>45765</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1994</v>
+      </c>
+      <c r="I2" s="12">
+        <f ca="1">YEAR(TODAY())-H2</f>
+        <v>31</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="B3" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="12" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Александра Ребенок</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23">
+        <v>45783</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1980</v>
+      </c>
+      <c r="I3" s="12">
+        <f ca="1">YEAR(TODAY())-H3</f>
+        <v>45</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -3842,43 +4078,97 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Алексей Шевченков</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1.82</v>
+      </c>
+      <c r="G5" s="23">
+        <v>45963</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1974</v>
+      </c>
+      <c r="I5" s="12">
+        <f ca="1">YEAR(TODAY())-H5</f>
+        <v>51</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="B6" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Алина Колесникова</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="G6" s="23">
+        <v>45669</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="12">
+        <f ca="1">YEAR(TODAY())-H6</f>
+        <v>25</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -3927,43 +4217,101 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="B8" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>B8 &amp; " " &amp; C8</f>
+        <v>Андрей Чадов</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1.76</v>
+      </c>
+      <c r="G8" s="23">
+        <v>45799</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1980</v>
+      </c>
+      <c r="I8" s="12">
+        <f ca="1">YEAR(TODAY())-H8</f>
+        <v>45</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
+      <c r="B9" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f>B9 &amp; " " &amp; C9</f>
+        <v>Анна Ковальчук</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="G9" s="23">
+        <v>45823</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1977</v>
+      </c>
+      <c r="I9" s="12">
+        <f ca="1">YEAR(TODAY())-H9</f>
+        <v>48</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -4022,150 +4370,120 @@
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="D13" s="12" t="str">
-        <f>B13 &amp; " " &amp; C13</f>
-        <v>Джефф Монсон</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1.75</v>
-      </c>
-      <c r="G13" s="23">
-        <v>45675</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1971</v>
-      </c>
-      <c r="I13" s="12">
-        <f ca="1">YEAR(TODAY())-H13</f>
-        <v>54</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>346</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>B14 &amp; " " &amp; C14</f>
-        <v>Дмитрий Дюжев</v>
+        <v>Джефф Монсон</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F14" s="22">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G14" s="23">
-        <v>45847</v>
+        <v>45675</v>
       </c>
       <c r="H14" s="22">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="I14" s="12">
         <f ca="1">YEAR(TODAY())-H14</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>372</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="L14" s="24"/>
       <c r="M14" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>B15 &amp; " " &amp; C15</f>
-        <v>Евгений Цыганов</v>
+        <v>Дмитрий Дюжев</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F15" s="22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G15" s="23">
-        <v>45731</v>
+        <v>45847</v>
       </c>
       <c r="H15" s="22">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I15" s="12">
         <f ca="1">YEAR(TODAY())-H15</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>335</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -4182,97 +4500,162 @@
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D17" s="12" t="str">
         <f>B17 &amp; " " &amp; C17</f>
-        <v>Иван Охлобыстин</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Евгений Цыганов</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="G17" s="23">
+        <v>45731</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1979</v>
+      </c>
+      <c r="I17" s="12">
+        <f ca="1">YEAR(TODAY())-H17</f>
+        <v>46</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="D18" s="12" t="str">
         <f>B18 &amp; " " &amp; C18</f>
-        <v>Илья Любимов</v>
-      </c>
-      <c r="E18" s="22"/>
+        <v>Иван Злобин</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>320</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="24"/>
+      <c r="G18" s="23">
+        <v>45928</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1998</v>
+      </c>
+      <c r="I18" s="12">
+        <f ca="1">YEAR(TODAY())-H18</f>
+        <v>27</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="L18" s="24"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>B19 &amp; " " &amp; C19</f>
-        <v>Ингрид Олеринская</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
+        <v>Иван Охлобыстин</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="G19" s="23">
+        <v>45860</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1966</v>
+      </c>
+      <c r="I19" s="12">
+        <f ca="1">YEAR(TODAY())-H19</f>
+        <v>59</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D20" s="12" t="str">
         <f>B20 &amp; " " &amp; C20</f>
-        <v>Константин Хабенский</v>
+        <v>Илья Любимов</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -4287,37 +4670,44 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <f>B21 &amp; " " &amp; C21</f>
+        <v>Ингрид Олеринская</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D22" s="12" t="str">
         <f>B22 &amp; " " &amp; C22</f>
-        <v>Любовь Аксёнова</v>
+        <v>Константин Хабенский</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -4333,7 +4723,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4350,35 +4740,26 @@
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>B24 &amp; " " &amp; C24</f>
-        <v>Милош Бикович</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>276</v>
-      </c>
+        <v>Любовь Аксёнова</v>
+      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="23">
-        <v>45670</v>
-      </c>
-      <c r="H24" s="22">
-        <v>1988</v>
-      </c>
-      <c r="I24" s="12">
-        <f ca="1">YEAR(TODAY())-H24</f>
-        <v>37</v>
-      </c>
-      <c r="J24" s="25"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="22"/>
@@ -4386,63 +4767,72 @@
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D25" s="12" t="str">
-        <f>B25 &amp; " " &amp; C25</f>
-        <v>Михаил Пореченков</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="12" t="str">
+        <f>B26 &amp; " " &amp; C26</f>
+        <v>Милош Бикович</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23">
+        <v>45670</v>
+      </c>
+      <c r="H26" s="22">
+        <v>1988</v>
+      </c>
+      <c r="I26" s="12">
+        <f ca="1">YEAR(TODAY())-H26</f>
+        <v>37</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>B27 &amp; " " &amp; C27</f>
-        <v>Никита Кологривый</v>
+        <v>Михаил Пореченков</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -4458,7 +4848,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -4477,17 +4867,17 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="D29" s="12" t="str">
         <f>B29 &amp; " " &amp; C29</f>
-        <v>Оксана Акиньшина</v>
+        <v>Никита Кологривый</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -4503,7 +4893,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -4522,7 +4912,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -4539,58 +4929,35 @@
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D32" s="12" t="str">
         <f>B32 &amp; " " &amp; C32</f>
-        <v>Паулина Андреева</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F32" s="22">
-        <v>1.71</v>
-      </c>
-      <c r="G32" s="23">
-        <v>45942</v>
-      </c>
-      <c r="H32" s="22">
-        <v>1988</v>
-      </c>
-      <c r="I32" s="12">
-        <f ca="1">YEAR(TODAY())-H32</f>
-        <v>37</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>294</v>
-      </c>
+        <v>Оксана Акиньшина</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -4609,7 +4976,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -4626,25 +4993,59 @@
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <f>B35 &amp; " " &amp; C35</f>
+        <v>Паулина Андреева</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1.71</v>
+      </c>
+      <c r="G35" s="23">
+        <v>45942</v>
+      </c>
+      <c r="H35" s="22">
+        <v>1988</v>
+      </c>
+      <c r="I35" s="12">
+        <f ca="1">YEAR(TODAY())-H35</f>
+        <v>37</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="26" t="s">
+        <v>360</v>
+      </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -4661,7 +5062,9 @@
       <c r="O36" s="27"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -4678,7 +5081,9 @@
       <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4695,7 +5100,9 @@
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="26" t="s">
+        <v>423</v>
+      </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -4712,7 +5119,9 @@
       <c r="O39" s="27"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="26" t="s">
+        <v>420</v>
+      </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -5154,7 +5563,7 @@
       <c r="O65" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O34">
+  <sortState ref="A2:O40">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530"/>
+    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="515">
   <si>
     <t>Фильм</t>
   </si>
@@ -1598,6 +1598,70 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Актер, Сценарист, Режиссер, Продюсер</t>
+  </si>
+  <si>
+    <t>Ашхабад, СССР</t>
+  </si>
+  <si>
+    <t>драма, комедия, криминал</t>
+  </si>
+  <si>
+    <t>Елена Махова (развод) один ребенок
+Марта Ткачук один ребенок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+89, 2004 — 2025</t>
+  </si>
+  <si>
+    <t>Роднина; Праведник; Повелитель ветра; Казнь; Рыжий</t>
+  </si>
+  <si>
+    <t>Жизнь и приключения Мишки Япончика; Тихий Дон; Король и Шут; Лихие; Хроники русской революции</t>
+  </si>
+  <si>
+    <t>Ткачук</t>
+  </si>
+  <si>
+    <t>Екатерина Вилкова двое детей</t>
+  </si>
+  <si>
+    <t>83, 2001 — 2025</t>
+  </si>
+  <si>
+    <t>Иваново счастье. Новые истории; Неадекватные люди; 
+Неадекватные люди 2; Мой любимый чемпион; Новогодний шеф</t>
+  </si>
+  <si>
+    <t>Город тайн; Граница миров; Охота на дьявола; Возвращение Синдбада; Престиж</t>
+  </si>
+  <si>
+    <t>Актриса, Актриса дубляжа</t>
+  </si>
+  <si>
+    <t>Рязань, Россия</t>
+  </si>
+  <si>
+    <t>49, 2010 — 2025</t>
+  </si>
+  <si>
+    <t>Неадекватные люди; На деревню дедушке; Неадекватные люди 2; Молодой человек; Туда</t>
+  </si>
+  <si>
+    <t>Мастер; Лондонград. Знай наших; Мафия — дело семейное; Ира; Нарушение правил</t>
+  </si>
+  <si>
+    <t>Лондонград. Знай наших</t>
+  </si>
+  <si>
+    <t>Дмитрий Киселёв, Виталий Шепелев, Владислав Николаев</t>
+  </si>
+  <si>
+    <t>Никита Ефремов, Ингрид Олеринская, Сергей Рост, Никита Панфилов, Максим Виторган, Гоша Куценко, 
+Алика Смехова</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1692,9 +1756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1728,28 +1789,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,11 +2085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2101,7 @@
     <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="56.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2100,7 +2152,7 @@
       <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2124,7 +2176,7 @@
       <c r="G3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2148,7 +2200,7 @@
       <c r="G4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2172,7 +2224,7 @@
       <c r="G5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2196,7 +2248,7 @@
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2220,7 +2272,7 @@
       <c r="G7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2244,7 +2296,7 @@
       <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2268,7 +2320,7 @@
       <c r="G9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2292,7 +2344,7 @@
       <c r="G10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2316,7 +2368,7 @@
       <c r="G11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2340,7 +2392,7 @@
       <c r="G12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2364,7 +2416,7 @@
       <c r="G13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2388,7 +2440,7 @@
       <c r="G14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2412,7 +2464,7 @@
       <c r="G15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2436,7 +2488,7 @@
       <c r="G16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -2460,7 +2512,7 @@
       <c r="G17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2484,7 +2536,7 @@
       <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2508,7 +2560,7 @@
       <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2532,7 +2584,7 @@
       <c r="G20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2556,7 +2608,7 @@
       <c r="G21" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2580,7 +2632,7 @@
       <c r="G22" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2604,7 +2656,7 @@
       <c r="G23" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -2628,7 +2680,7 @@
       <c r="G24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2652,7 +2704,7 @@
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2676,7 +2728,7 @@
       <c r="G26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2700,7 +2752,7 @@
       <c r="G27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2724,7 +2776,7 @@
       <c r="G28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2748,7 +2800,7 @@
       <c r="G29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2772,7 +2824,7 @@
       <c r="G30" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2796,7 +2848,7 @@
       <c r="G31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2820,7 +2872,7 @@
       <c r="G32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2844,7 +2896,7 @@
       <c r="G33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2868,7 +2920,7 @@
       <c r="G34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2892,7 +2944,7 @@
       <c r="G35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2916,7 +2968,7 @@
       <c r="G36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2940,7 +2992,7 @@
       <c r="G37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2964,7 +3016,7 @@
       <c r="G38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2988,7 +3040,7 @@
       <c r="G39" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -3012,7 +3064,7 @@
       <c r="G40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -3022,7 +3074,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -3032,7 +3084,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -3042,7 +3094,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -3052,7 +3104,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -3062,7 +3114,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -3072,7 +3124,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -3082,7 +3134,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -3092,7 +3144,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -3102,7 +3154,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -3112,7 +3164,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -3122,7 +3174,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -3132,7 +3184,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -3142,7 +3194,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -3152,7 +3204,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -3162,7 +3214,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -3172,7 +3224,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -3182,7 +3234,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -3192,7 +3244,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -3202,7 +3254,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -3212,7 +3264,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3222,7 +3274,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
@@ -3232,7 +3284,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -3242,7 +3294,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
@@ -3252,7 +3304,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -3262,7 +3314,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
@@ -3272,7 +3324,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
@@ -3282,7 +3334,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -3292,7 +3344,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -3302,7 +3354,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -3312,7 +3364,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -3322,7 +3374,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -3332,7 +3384,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -3342,7 +3394,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -3352,7 +3404,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -3362,7 +3414,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -3372,7 +3424,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -3382,7 +3434,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
@@ -3392,7 +3444,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
@@ -3402,7 +3454,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
@@ -3412,7 +3464,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A1:I1">
@@ -3427,11 +3479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3495,7 @@
     <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="56.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3494,7 +3546,7 @@
       <c r="G2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3518,7 +3570,7 @@
       <c r="G3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3542,7 +3594,7 @@
       <c r="G4" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3566,7 +3618,7 @@
       <c r="G5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3590,7 +3642,7 @@
       <c r="G6" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3614,7 +3666,7 @@
       <c r="G7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3638,7 +3690,7 @@
       <c r="G8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3662,7 +3714,7 @@
       <c r="G9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3686,7 +3738,7 @@
       <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3710,7 +3762,7 @@
       <c r="G11" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3734,7 +3786,7 @@
       <c r="G12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3758,7 +3810,7 @@
       <c r="G13" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3782,7 +3834,7 @@
       <c r="G14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3806,17 +3858,17 @@
       <c r="G15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>512</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="C16" s="3">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3825,19 +3877,19 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>513</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
@@ -3849,22 +3901,22 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="C18" s="3">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -3873,142 +3925,142 @@
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>219</v>
+      <c r="C19" s="3">
+        <v>2025</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="C21" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C24" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -4017,16 +4069,16 @@
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -4041,22 +4093,22 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -4065,139 +4117,139 @@
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>2023</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>220</v>
+      <c r="C30" s="3">
+        <v>2023</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C32" s="3">
         <v>2025</v>
@@ -4209,22 +4261,22 @@
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C33" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -4233,22 +4285,36 @@
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -4258,7 +4324,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -4268,7 +4334,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -4278,7 +4344,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -4288,7 +4354,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -4298,7 +4364,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -4308,7 +4374,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -4318,7 +4384,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -4328,7 +4394,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -4338,7 +4404,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -4348,7 +4414,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -4358,7 +4424,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -4368,7 +4434,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -4378,7 +4444,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -4388,7 +4454,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -4398,7 +4464,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -4408,7 +4474,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -4418,7 +4484,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -4428,7 +4494,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -4438,7 +4504,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -4448,7 +4514,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -4458,7 +4524,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -4468,7 +4534,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -4478,7 +4544,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -4488,7 +4554,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -4498,7 +4564,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -4508,7 +4574,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -4518,7 +4584,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
@@ -4528,7 +4594,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -4538,7 +4604,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
@@ -4548,7 +4614,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -4558,7 +4624,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
@@ -4568,7 +4634,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
@@ -4578,7 +4644,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -4588,7 +4654,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -4598,7 +4664,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -4608,7 +4674,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -4618,7 +4684,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -4628,7 +4694,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -4638,7 +4704,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -4648,7 +4714,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -4658,7 +4724,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -4668,7 +4734,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -4678,7 +4744,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
@@ -4688,7 +4754,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
@@ -4698,7 +4764,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
@@ -4708,7 +4774,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
@@ -4718,13 +4784,14 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H33">
+  <sortState ref="A2:H34">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4733,42 +4800,42 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>268</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -4783,16 +4850,16 @@
       <c r="H1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>276</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>350</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -4805,1744 +4872,1818 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="18" t="str">
         <f>B2 &amp; " " &amp; C2</f>
         <v>Аглая Тарасова</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="2">
         <v>1.71</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>45765</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="2">
         <v>1994</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="18">
         <f ca="1">YEAR(TODAY())-H2</f>
         <v>31</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="18" t="str">
         <f>B3 &amp; " " &amp; C3</f>
         <v>Александра Ребенок</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20">
+      <c r="F3" s="2"/>
+      <c r="G3" s="19">
         <v>45783</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="2">
         <v>1980</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="18">
         <f ca="1">YEAR(TODAY())-H3</f>
         <v>45</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="18" t="str">
         <f>B4 &amp; " " &amp; C4</f>
         <v>Алексей Кравченко</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="2">
         <v>1.8</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>45940</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="2">
         <v>1969</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <f ca="1">YEAR(TODAY())-H4</f>
         <v>56</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="18" t="str">
         <f>B5 &amp; " " &amp; C5</f>
         <v>Алексей Шевченков</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="2">
         <v>1.82</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>45963</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="2">
         <v>1974</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="18">
         <f ca="1">YEAR(TODAY())-H5</f>
         <v>51</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="18" t="str">
         <f>B6 &amp; " " &amp; C6</f>
         <v>Алина Колесникова</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="2">
         <v>1.75</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>45669</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="2">
         <v>2000</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="18">
         <f ca="1">YEAR(TODAY())-H6</f>
         <v>25</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="21" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="18" t="str">
         <f>B7 &amp; " " &amp; C7</f>
         <v>Андрей Федорцов</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="2">
         <v>1.6</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>45882</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="2">
         <v>1968</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="18">
         <f ca="1">YEAR(TODAY())-H7</f>
         <v>57</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="20"/>
+      <c r="M7" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="18" t="str">
         <f>B8 &amp; " " &amp; C8</f>
         <v>Андрей Чадов</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="2">
         <v>1.76</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>45799</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="2">
         <v>1980</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="18">
         <f ca="1">YEAR(TODAY())-H8</f>
         <v>45</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="19" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="18" t="str">
         <f>B9 &amp; " " &amp; C9</f>
         <v>Анна Ковальчук</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="2">
         <v>1.75</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>45823</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="2">
         <v>1977</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="18">
         <f ca="1">YEAR(TODAY())-H9</f>
         <v>48</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="18" t="str">
         <f>B10 &amp; " " &amp; C10</f>
         <v>Виктория Заболотная</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="2">
         <v>1.65</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>45875</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="2">
         <v>1990</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="18">
         <f ca="1">YEAR(TODAY())-H10</f>
         <v>35</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="19" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="18" t="str">
         <f>B11 &amp; " " &amp; C11</f>
         <v>Владимир Яглыч</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="2">
         <v>1.85</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>45671</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="2">
         <v>1983</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="18">
         <f ca="1">YEAR(TODAY())-H11</f>
         <v>42</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="18" t="str">
         <f>B12 &amp; " " &amp; C12</f>
         <v>Галина Петрова</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="2">
         <v>1.75</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>46013</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="2">
         <v>1956</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="18">
         <f ca="1">YEAR(TODAY())-H12</f>
         <v>69</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="19" t="s">
+      <c r="L12" s="20"/>
+      <c r="M12" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="18" t="str">
         <f>B13 &amp; " " &amp; C13</f>
         <v>Гоша Куценко</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="2">
         <v>1.84</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>45797</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="2">
         <v>1967</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="18">
         <f ca="1">YEAR(TODAY())-H13</f>
         <v>58</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="18" t="str">
         <f>B14 &amp; " " &amp; C14</f>
         <v>Джефф Монсон</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="2">
         <v>1.75</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>45675</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="2">
         <v>1971</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="18">
         <f ca="1">YEAR(TODAY())-H14</f>
         <v>54</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="20"/>
+      <c r="M14" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="18" t="str">
         <f>B15 &amp; " " &amp; C15</f>
         <v>Дмитрий Дюжев</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="2">
         <v>1.95</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>45847</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="2">
         <v>1978</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="18">
         <f ca="1">YEAR(TODAY())-H15</f>
         <v>47</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>B16 &amp; " " &amp; C16</f>
+        <v>Евгений Ткачук</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G16" s="19">
+        <v>45861</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1984</v>
+      </c>
+      <c r="I16" s="18">
+        <f ca="1">YEAR(TODAY())-H16</f>
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="18" t="str">
         <f>B17 &amp; " " &amp; C17</f>
         <v>Евгений Цыганов</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="2">
         <v>1.8</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>45731</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="2">
         <v>1979</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="18">
         <f ca="1">YEAR(TODAY())-H17</f>
         <v>46</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="18" t="str">
         <f>B18 &amp; " " &amp; C18</f>
         <v>Иван Злобин</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20">
+      <c r="F18" s="2"/>
+      <c r="G18" s="19">
         <v>45928</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="2">
         <v>1998</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="18">
         <f ca="1">YEAR(TODAY())-H18</f>
         <v>27</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="19" t="s">
+      <c r="L18" s="20"/>
+      <c r="M18" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="18" t="str">
         <f>B19 &amp; " " &amp; C19</f>
         <v>Иван Охлобыстин</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="2">
         <v>1.8</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>45860</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="2">
         <v>1966</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="18">
         <f ca="1">YEAR(TODAY())-H19</f>
         <v>59</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="18" t="str">
         <f>B20 &amp; " " &amp; C20</f>
         <v>Илья Любимов</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="E20" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="G20" s="19">
+        <v>45709</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1977</v>
+      </c>
+      <c r="I20" s="18">
+        <f ca="1">YEAR(TODAY())-H20</f>
+        <v>48</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="18" t="str">
         <f>B21 &amp; " " &amp; C21</f>
         <v>Ингрид Олеринская</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="E21" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G21" s="19">
+        <v>45730</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1992</v>
+      </c>
+      <c r="I21" s="18">
+        <f ca="1">YEAR(TODAY())-H21</f>
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="18" t="str">
         <f>B22 &amp; " " &amp; C22</f>
         <v>Константин Хабенский</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="18" t="str">
         <f>B24 &amp; " " &amp; C24</f>
         <v>Любовь Аксёнова</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="18" t="str">
         <f>B26 &amp; " " &amp; C26</f>
         <v>Милош Бикович</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20">
+      <c r="F26" s="2"/>
+      <c r="G26" s="19">
         <v>45670</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="2">
         <v>1988</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="18">
         <f ca="1">YEAR(TODAY())-H26</f>
         <v>37</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="9" t="str">
+      <c r="D27" s="18" t="str">
         <f>B27 &amp; " " &amp; C27</f>
         <v>Михаил Пореченков</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="D29" s="9" t="str">
+      <c r="D29" s="18" t="str">
         <f>B29 &amp; " " &amp; C29</f>
         <v>Никита Кологривый</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D32" s="18" t="str">
         <f>B32 &amp; " " &amp; C32</f>
         <v>Оксана Акиньшина</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-    </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="9" t="str">
+      <c r="D35" s="18" t="str">
         <f>B35 &amp; " " &amp; C35</f>
         <v>Паулина Андреева</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="2">
         <v>1.71</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <v>45942</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="2">
         <v>1988</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="18">
         <f ca="1">YEAR(TODAY())-H35</f>
         <v>37</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:O40">

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B34CE2-2F31-41A0-A568-AD3DE90FEAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2130" windowWidth="26580" windowHeight="16530" activeTab="1"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
     <sheet name="Сериалы" sheetId="3" r:id="rId2"/>
     <sheet name="Актеры" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="521">
   <si>
     <t>Фильм</t>
   </si>
@@ -1663,11 +1664,29 @@
     <t>Никита Ефремов, Ингрид Олеринская, Сергей Рост, Никита Панфилов, Максим Виторган, Гоша Куценко, 
 Алика Смехова</t>
   </si>
+  <si>
+    <t>Сергей Светлаков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ян Цапник</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ирина Пегова</t>
+  </si>
+  <si>
+    <t>Тимур Батрутдинов</t>
+  </si>
+  <si>
+    <t>Максим Лагашкин</t>
+  </si>
+  <si>
+    <t>Марина Кравец</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2082,14 +2101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,7 +3486,7 @@
       <c r="H80" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A1:I1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I1">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,14 +3495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,7 +4806,7 @@
       <c r="H81" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4796,14 +4815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,1010 +4891,1003 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="18" t="str">
-        <f>B2 &amp; " " &amp; C2</f>
-        <v>Аглая Тарасова</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="G2" s="19">
-        <v>45765</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1994</v>
-      </c>
-      <c r="I2" s="18">
-        <f ca="1">YEAR(TODAY())-H2</f>
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>377</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="18" t="str">
-        <f>B3 &amp; " " &amp; C3</f>
-        <v>Александра Ребенок</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>383</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="19">
-        <v>45783</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1980</v>
-      </c>
-      <c r="I3" s="18">
-        <f ca="1">YEAR(TODAY())-H3</f>
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>388</v>
-      </c>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="D4" s="18" t="str">
         <f>B4 &amp; " " &amp; C4</f>
-        <v>Алексей Кравченко</v>
+        <v>Аглая Тарасова</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="F4" s="2">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="G4" s="19">
-        <v>45940</v>
+        <v>45765</v>
       </c>
       <c r="H4" s="2">
-        <v>1969</v>
+        <v>1994</v>
       </c>
       <c r="I4" s="18">
         <f ca="1">YEAR(TODAY())-H4</f>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>354</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="L4" s="20"/>
       <c r="M4" s="2" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D5" s="18" t="str">
         <f>B5 &amp; " " &amp; C5</f>
-        <v>Алексей Шевченков</v>
+        <v>Александра Ребенок</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.82</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="19">
-        <v>45963</v>
+        <v>45783</v>
       </c>
       <c r="H5" s="2">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="I5" s="18">
         <f ca="1">YEAR(TODAY())-H5</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="D6" s="18" t="str">
         <f>B6 &amp; " " &amp; C6</f>
-        <v>Алина Колесникова</v>
+        <v>Алексей Кравченко</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="F6" s="2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G6" s="19">
-        <v>45669</v>
+        <v>45940</v>
       </c>
       <c r="H6" s="2">
-        <v>2000</v>
+        <v>1969</v>
       </c>
       <c r="I6" s="18">
         <f ca="1">YEAR(TODAY())-H6</f>
-        <v>25</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="K6" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="L6" s="20"/>
+        <v>319</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="O6" s="2" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="D7" s="18" t="str">
         <f>B7 &amp; " " &amp; C7</f>
-        <v>Андрей Федорцов</v>
+        <v>Алексей Шевченков</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>317</v>
       </c>
       <c r="F7" s="2">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="G7" s="19">
-        <v>45882</v>
+        <v>45963</v>
       </c>
       <c r="H7" s="2">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="I7" s="18">
         <f ca="1">YEAR(TODAY())-H7</f>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="L7" s="20"/>
+        <v>332</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>396</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" s="18" t="str">
         <f>B8 &amp; " " &amp; C8</f>
-        <v>Андрей Чадов</v>
+        <v>Алина Колесникова</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="F8" s="2">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G8" s="19">
-        <v>45799</v>
+        <v>45669</v>
       </c>
       <c r="H8" s="2">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="18">
         <f ca="1">YEAR(TODAY())-H8</f>
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="D9" s="18" t="str">
         <f>B9 &amp; " " &amp; C9</f>
-        <v>Анна Ковальчук</v>
+        <v>Андрей Федорцов</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="F9" s="2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="G9" s="19">
-        <v>45823</v>
+        <v>45882</v>
       </c>
       <c r="H9" s="2">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="I9" s="18">
         <f ca="1">YEAR(TODAY())-H9</f>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>409</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="L9" s="20"/>
       <c r="M9" s="2" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="D10" s="18" t="str">
         <f>B10 &amp; " " &amp; C10</f>
-        <v>Виктория Заболотная</v>
+        <v>Андрей Чадов</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="F10" s="2">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="G10" s="19">
-        <v>45875</v>
+        <v>45799</v>
       </c>
       <c r="H10" s="2">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="I10" s="18">
         <f ca="1">YEAR(TODAY())-H10</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="O10" s="2" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="D11" s="18" t="str">
         <f>B11 &amp; " " &amp; C11</f>
-        <v>Владимир Яглыч</v>
+        <v>Анна Ковальчук</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="F11" s="2">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G11" s="19">
-        <v>45671</v>
+        <v>45823</v>
       </c>
       <c r="H11" s="2">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="I11" s="18">
         <f ca="1">YEAR(TODAY())-H11</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D12" s="18" t="str">
         <f>B12 &amp; " " &amp; C12</f>
-        <v>Галина Петрова</v>
+        <v>Виктория Заболотная</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>375</v>
       </c>
       <c r="F12" s="2">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G12" s="19">
-        <v>46013</v>
+        <v>45875</v>
       </c>
       <c r="H12" s="2">
-        <v>1956</v>
+        <v>1990</v>
       </c>
       <c r="I12" s="18">
         <f ca="1">YEAR(TODAY())-H12</f>
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>452</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D13" s="18" t="str">
         <f>B13 &amp; " " &amp; C13</f>
-        <v>Гоша Куценко</v>
+        <v>Владимир Яглыч</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F13" s="2">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G13" s="19">
-        <v>45797</v>
+        <v>45671</v>
       </c>
       <c r="H13" s="2">
-        <v>1967</v>
+        <v>1983</v>
       </c>
       <c r="I13" s="18">
         <f ca="1">YEAR(TODAY())-H13</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>456</v>
+        <v>384</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>439</v>
+        <v>323</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
       <c r="D14" s="18" t="str">
         <f>B14 &amp; " " &amp; C14</f>
-        <v>Джефф Монсон</v>
+        <v>Галина Петрова</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="F14" s="2">
         <v>1.75</v>
       </c>
       <c r="G14" s="19">
-        <v>45675</v>
+        <v>46013</v>
       </c>
       <c r="H14" s="2">
-        <v>1971</v>
+        <v>1956</v>
       </c>
       <c r="I14" s="18">
         <f ca="1">YEAR(TODAY())-H14</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>347</v>
+        <v>461</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="D15" s="18" t="str">
         <f>B15 &amp; " " &amp; C15</f>
-        <v>Дмитрий Дюжев</v>
+        <v>Гоша Куценко</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
       <c r="F15" s="2">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="G15" s="19">
-        <v>45847</v>
+        <v>45797</v>
       </c>
       <c r="H15" s="2">
-        <v>1978</v>
+        <v>1967</v>
       </c>
       <c r="I15" s="18">
         <f ca="1">YEAR(TODAY())-H15</f>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>331</v>
+        <v>456</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>332</v>
+        <v>439</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>369</v>
+        <v>457</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>334</v>
+        <v>459</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>502</v>
+        <v>342</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>B16 &amp; " " &amp; C16</f>
-        <v>Евгений Ткачук</v>
+        <v>Джефф Монсон</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>495</v>
+        <v>317</v>
       </c>
       <c r="F16" s="2">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G16" s="19">
-        <v>45861</v>
+        <v>45675</v>
       </c>
       <c r="H16" s="2">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="I16" s="18">
         <f ca="1">YEAR(TODAY())-H16</f>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>496</v>
+        <v>327</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>498</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="L16" s="20"/>
       <c r="M16" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="D17" s="18" t="str">
         <f>B17 &amp; " " &amp; C17</f>
-        <v>Евгений Цыганов</v>
+        <v>Дмитрий Дюжев</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F17" s="2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G17" s="19">
-        <v>45731</v>
+        <v>45847</v>
       </c>
       <c r="H17" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I17" s="18">
         <f ca="1">YEAR(TODAY())-H17</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>332</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="D18" s="18" t="str">
         <f>B18 &amp; " " &amp; C18</f>
-        <v>Иван Злобин</v>
+        <v>Евгений Ткачук</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.7</v>
+      </c>
       <c r="G18" s="19">
-        <v>45928</v>
+        <v>45861</v>
       </c>
       <c r="H18" s="2">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="I18" s="18">
         <f ca="1">YEAR(TODAY())-H18</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="L18" s="20"/>
+        <v>497</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>498</v>
+      </c>
       <c r="M18" s="2" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D19" s="18" t="str">
         <f>B19 &amp; " " &amp; C19</f>
-        <v>Иван Охлобыстин</v>
+        <v>Евгений Цыганов</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="F19" s="2">
         <v>1.8</v>
       </c>
       <c r="G19" s="19">
-        <v>45860</v>
+        <v>45731</v>
       </c>
       <c r="H19" s="2">
-        <v>1966</v>
+        <v>1979</v>
       </c>
       <c r="I19" s="18">
         <f ca="1">YEAR(TODAY())-H19</f>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>429</v>
+        <v>318</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="D20" s="18" t="str">
         <f>B20 &amp; " " &amp; C20</f>
-        <v>Илья Любимов</v>
+        <v>Иван Злобин</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.85</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="19">
-        <v>45709</v>
+        <v>45928</v>
       </c>
       <c r="H20" s="2">
-        <v>1977</v>
+        <v>1998</v>
       </c>
       <c r="I20" s="18">
         <f ca="1">YEAR(TODAY())-H20</f>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>503</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="L20" s="20"/>
       <c r="M20" s="2" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D21" s="18" t="str">
         <f>B21 &amp; " " &amp; C21</f>
-        <v>Ингрид Олеринская</v>
+        <v>Иван Охлобыстин</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="F21" s="2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G21" s="19">
-        <v>45730</v>
+        <v>45860</v>
       </c>
       <c r="H21" s="2">
-        <v>1992</v>
+        <v>1966</v>
       </c>
       <c r="I21" s="18">
         <f ca="1">YEAR(TODAY())-H21</f>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>510</v>
+        <v>432</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D22" s="18" t="str">
         <f>B22 &amp; " " &amp; C22</f>
-        <v>Константин Хабенский</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Илья Любимов</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="G22" s="19">
+        <v>45709</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1977</v>
+      </c>
+      <c r="I22" s="18">
+        <f ca="1">YEAR(TODAY())-H22</f>
+        <v>48</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="20"/>
+        <v>303</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f>B23 &amp; " " &amp; C23</f>
+        <v>Ингрид Олеринская</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G23" s="19">
+        <v>45730</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1992</v>
+      </c>
+      <c r="I23" s="18">
+        <f ca="1">YEAR(TODAY())-H23</f>
+        <v>33</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>323</v>
+      </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>309</v>
+        <v>68</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D24" s="18" t="str">
         <f>B24 &amp; " " &amp; C24</f>
-        <v>Любовь Аксёнова</v>
+        <v>Константин Хабенский</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -5891,7 +5903,7 @@
     </row>
     <row r="25" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -5908,35 +5920,26 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="D26" s="18" t="str">
         <f>B26 &amp; " " &amp; C26</f>
-        <v>Милош Бикович</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>Любовь Аксёнова</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="19">
-        <v>45670</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1988</v>
-      </c>
-      <c r="I26" s="18">
-        <f ca="1">YEAR(TODAY())-H26</f>
-        <v>37</v>
-      </c>
-      <c r="J26" s="22"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="2"/>
@@ -5945,18 +5948,11 @@
     </row>
     <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D27" s="18" t="str">
-        <f>B27 &amp; " " &amp; C27</f>
-        <v>Михаил Пореченков</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5971,7 +5967,7 @@
     </row>
     <row r="28" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>365</v>
+        <v>519</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -5990,18 +5986,11 @@
     </row>
     <row r="29" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" s="18" t="str">
-        <f>B29 &amp; " " &amp; C29</f>
-        <v>Никита Кологривый</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -6014,19 +6003,35 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f>B30 &amp; " " &amp; C30</f>
+        <v>Милош Бикович</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="2"/>
+      <c r="G30" s="19">
+        <v>45670</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1988</v>
+      </c>
+      <c r="I30" s="18">
+        <f ca="1">YEAR(TODAY())-H30</f>
+        <v>37</v>
+      </c>
+      <c r="J30" s="22"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="2"/>
@@ -6035,11 +6040,18 @@
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+        <v>315</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f>B31 &amp; " " &amp; C31</f>
+        <v>Михаил Пореченков</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -6054,18 +6066,11 @@
     </row>
     <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="18" t="str">
-        <f>B32 &amp; " " &amp; C32</f>
-        <v>Оксана Акиньшина</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -6080,11 +6085,18 @@
     </row>
     <row r="33" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+        <v>316</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f>B33 &amp; " " &amp; C33</f>
+        <v>Никита Кологривый</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -6099,7 +6111,7 @@
     </row>
     <row r="34" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -6116,62 +6128,39 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="18" t="str">
-        <f>B35 &amp; " " &amp; C35</f>
-        <v>Паулина Андреева</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="G35" s="19">
-        <v>45942</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1988</v>
-      </c>
-      <c r="I35" s="18">
-        <f ca="1">YEAR(TODAY())-H35</f>
-        <v>37</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+        <v>292</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f>B36 &amp; " " &amp; C36</f>
+        <v>Оксана Акиньшина</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -6186,7 +6175,7 @@
     </row>
     <row r="37" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -6205,7 +6194,7 @@
     </row>
     <row r="38" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -6222,28 +6211,58 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f>B39 &amp; " " &amp; C39</f>
+        <v>Паулина Андреева</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="G39" s="19">
+        <v>45942</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1988</v>
+      </c>
+      <c r="I39" s="18">
+        <f ca="1">YEAR(TODAY())-H39</f>
+        <v>37</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="40" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>417</v>
+        <v>515</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -6261,7 +6280,9 @@
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="18" t="s">
+        <v>357</v>
+      </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -6278,7 +6299,9 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="18" t="s">
+        <v>368</v>
+      </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -6295,7 +6318,9 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="18" t="s">
+        <v>421</v>
+      </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -6312,7 +6337,9 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="18" t="s">
+        <v>518</v>
+      </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -6329,7 +6356,9 @@
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="18" t="s">
+        <v>420</v>
+      </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -6346,7 +6375,9 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="18" t="s">
+        <v>417</v>
+      </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -6686,8 +6717,8 @@
       <c r="O65" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O40">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
+    <sortCondition ref="A1:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B34CE2-2F31-41A0-A568-AD3DE90FEAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
     <sheet name="Сериалы" sheetId="3" r:id="rId2"/>
     <sheet name="Актеры" sheetId="2" r:id="rId3"/>
+    <sheet name="Режиссеры" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="613">
   <si>
     <t>Фильм</t>
   </si>
@@ -906,21 +906,9 @@
     <t>Милош Бикович</t>
   </si>
   <si>
-    <t>Бикович</t>
-  </si>
-  <si>
     <t>Полное имя</t>
   </si>
   <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Милош</t>
-  </si>
-  <si>
     <t>Карьера</t>
   </si>
   <si>
@@ -939,12 +927,6 @@
     <t>Паулина Андреева</t>
   </si>
   <si>
-    <t>Андреева</t>
-  </si>
-  <si>
-    <t>Паулина</t>
-  </si>
-  <si>
     <t>Актриса, Сценарист, Режиссер, Продюсер</t>
   </si>
   <si>
@@ -984,61 +966,19 @@
     <t>Оксана Акиньшина</t>
   </si>
   <si>
-    <t>Оксана</t>
-  </si>
-  <si>
-    <t>Акиньшина</t>
-  </si>
-  <si>
     <t>Алексей Кравченко</t>
   </si>
   <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Кравченко</t>
-  </si>
-  <si>
     <t>Илья Любимов</t>
   </si>
   <si>
-    <t>Любимов</t>
-  </si>
-  <si>
-    <t>Илья</t>
-  </si>
-  <si>
-    <t>Ингрид</t>
-  </si>
-  <si>
-    <t>Олеринская</t>
-  </si>
-  <si>
     <t>Ингрид Олеринская</t>
   </si>
   <si>
     <t>Евгений Цыганов</t>
   </si>
   <si>
-    <t>Евгений</t>
-  </si>
-  <si>
-    <t>Цыганов</t>
-  </si>
-  <si>
-    <t>Любовь</t>
-  </si>
-  <si>
-    <t>Аксёнова</t>
-  </si>
-  <si>
     <t>Любовь Аксёнова</t>
-  </si>
-  <si>
-    <t>Константин</t>
-  </si>
-  <si>
-    <t>Хабенский</t>
   </si>
   <si>
     <t>Иван Охлобыстин</t>
@@ -1126,46 +1066,10 @@
 С чего начинается Родина</t>
   </si>
   <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Федорцов</t>
-  </si>
-  <si>
-    <t>Монсон</t>
-  </si>
-  <si>
-    <t>Дюжев</t>
-  </si>
-  <si>
-    <t>Охлобыстин</t>
-  </si>
-  <si>
-    <t>Пореченков</t>
-  </si>
-  <si>
-    <t>Джефф</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
     <t>Супруг/Супруга</t>
   </si>
   <si>
     <t>Юлия Снигирь один ребенок</t>
-  </si>
-  <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>Кологривый</t>
   </si>
   <si>
     <t>Алиса Кравченко (развод)двое детей
@@ -1252,12 +1156,6 @@
 Беспринципные</t>
   </si>
   <si>
-    <t>Аглая</t>
-  </si>
-  <si>
-    <t>Тарасова</t>
-  </si>
-  <si>
     <t>Актриса, Актриса дубляжа, Сценарист</t>
   </si>
   <si>
@@ -1277,24 +1175,6 @@
     <t>Беспринципные в Питере; Я не могу без тебя; Против всех; Первый номер; Жить жизнь</t>
   </si>
   <si>
-    <t>Александра</t>
-  </si>
-  <si>
-    <t>Ребенок</t>
-  </si>
-  <si>
-    <t>Шевченков</t>
-  </si>
-  <si>
-    <t>Колесникова</t>
-  </si>
-  <si>
-    <t>Чадов</t>
-  </si>
-  <si>
-    <t>Ковальчук</t>
-  </si>
-  <si>
     <t>Черняховск, СССР</t>
   </si>
   <si>
@@ -1332,9 +1212,6 @@
   </si>
   <si>
     <t>Курсанты; Стажер; Дело чести; Мелодия любви; Игра на выживание</t>
-  </si>
-  <si>
-    <t>Алина</t>
   </si>
   <si>
     <t>Анатолий Ильченко (развод) один ребенок
@@ -1347,19 +1224,12 @@
     <t>драма, мелодрама, история</t>
   </si>
   <si>
-    <t xml:space="preserve">
-30, 1999 — 2025</t>
-  </si>
-  <si>
     <t>Адмиралъ</t>
   </si>
   <si>
     <t>Мастер и Маргарита; Екатерина. Фавориты; Беспринципные в Питере; Адмиралъ; Годунов. Продолжение</t>
   </si>
   <si>
-    <t>Анна</t>
-  </si>
-  <si>
     <t>Евгений Ткачук</t>
   </si>
   <si>
@@ -1391,9 +1261,6 @@
   </si>
   <si>
     <t>Цирк!; Фантом; Фишер; Монастырь; Сама дура</t>
-  </si>
-  <si>
-    <t>Злобин</t>
   </si>
   <si>
     <t>Актер, Сценарист, Режиссер, Актер дубляжа, Продюсер</t>
@@ -1446,24 +1313,6 @@
     <t>Екатерина. Взлет; Екатерина. Самозванцы; Екатерина.Фавориты; Беспринципные в Питере; Мы из будущего</t>
   </si>
   <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>Заболотная</t>
-  </si>
-  <si>
-    <t>Яглыч</t>
-  </si>
-  <si>
-    <t>Петрова</t>
-  </si>
-  <si>
-    <t>Куценко</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
     <t>Тамбов, СССР</t>
   </si>
   <si>
@@ -1477,9 +1326,6 @@
     <t>Между нами, девочками; Однолюбы; Братья по обмену; Брак по завещанию; Исчезнувшая</t>
   </si>
   <si>
-    <t>Галина</t>
-  </si>
-  <si>
     <t>Актер, Продюсер, Актер дубляжа, Сценарист, Режиссер, Оператор, Композитор</t>
   </si>
   <si>
@@ -1499,9 +1345,6 @@
     <t>Инсомния; Без правил; Есенин; Турецкий гамбит; Лондонград. Знай наших</t>
   </si>
   <si>
-    <t>Гоша</t>
-  </si>
-  <si>
     <t>Время</t>
   </si>
   <si>
@@ -1624,9 +1467,6 @@
     <t>Жизнь и приключения Мишки Япончика; Тихий Дон; Король и Шут; Лихие; Хроники русской революции</t>
   </si>
   <si>
-    <t>Ткачук</t>
-  </si>
-  <si>
     <t>Екатерина Вилкова двое детей</t>
   </si>
   <si>
@@ -1668,12 +1508,6 @@
     <t>Сергей Светлаков</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ян Цапник</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ирина Пегова</t>
-  </si>
-  <si>
     <t>Тимур Батрутдинов</t>
   </si>
   <si>
@@ -1681,12 +1515,469 @@
   </si>
   <si>
     <t>Марина Кравец</t>
+  </si>
+  <si>
+    <t>Мила Сивацкая</t>
+  </si>
+  <si>
+    <t>Ольга Смирнова</t>
+  </si>
+  <si>
+    <t>Пелагея Невзорова</t>
+  </si>
+  <si>
+    <t>Светлана Камынина</t>
+  </si>
+  <si>
+    <t>Владимир Епифанцев</t>
+  </si>
+  <si>
+    <t>Анфиса Вистингаузен</t>
+  </si>
+  <si>
+    <t>Демис Карибидис</t>
+  </si>
+  <si>
+    <t>Павел Прилучный</t>
+  </si>
+  <si>
+    <t>Наталья Рудова</t>
+  </si>
+  <si>
+    <t>Владимир Сычев</t>
+  </si>
+  <si>
+    <t>Кирилл Жандаров</t>
+  </si>
+  <si>
+    <t>Ирина Пегова</t>
+  </si>
+  <si>
+    <t>Ян Цапник</t>
+  </si>
+  <si>
+    <t>Выкса, Горьковская область, СССР</t>
+  </si>
+  <si>
+    <t>Дмитрий Орлов (развод) один ребенок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+142, 2002 — 2025</t>
+  </si>
+  <si>
+    <t>Иваново счастье. Новые истории; Моё собачье дело; Прогулка; Я на перемотке!;
+Родные</t>
+  </si>
+  <si>
+    <t>Казанова; Старое ружьё; Я не могу без тебя; Цыпленок жареный; Комиссарша</t>
+  </si>
+  <si>
+    <t>Актер, Режиссер, Сценарист, Продюсер, Оператор, Монтажер</t>
+  </si>
+  <si>
+    <t>Ломоносов, Ленинградская область, СССР</t>
+  </si>
+  <si>
+    <t>мелодрама, детектив, драма</t>
+  </si>
+  <si>
+    <t>Надежда Толубеева (развод)
+Мария Валешная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+115, 2003 — 2024</t>
+  </si>
+  <si>
+    <t>Женская версия. Ловцы душ; Осторожно, дети!; Женская версия. Ваше время и стекло;
+Подсадной</t>
+  </si>
+  <si>
+    <t>Вызов; Женская версия. Мышеловка; И снова здравствуйте!;
+Личность не установлена; Краткий курс счастливой жизни</t>
+  </si>
+  <si>
+    <t>Артур Виденмеер</t>
+  </si>
+  <si>
+    <t>Аскар Бисембин</t>
+  </si>
+  <si>
+    <t>Сергей Малюгов</t>
+  </si>
+  <si>
+    <t>Максим Пежемский</t>
+  </si>
+  <si>
+    <t>Заур Болотаев</t>
+  </si>
+  <si>
+    <t>Милан Килибарда</t>
+  </si>
+  <si>
+    <t>Антон Федотов</t>
+  </si>
+  <si>
+    <t>Дмитрий Киселёв</t>
+  </si>
+  <si>
+    <t>Виталий Шепелев</t>
+  </si>
+  <si>
+    <t>Владислав Николаев</t>
+  </si>
+  <si>
+    <t>Антон Маслов</t>
+  </si>
+  <si>
+    <t>Екатерина Забулонская</t>
+  </si>
+  <si>
+    <t>Иван Китаев</t>
+  </si>
+  <si>
+    <t>Михаил Старчак</t>
+  </si>
+  <si>
+    <t>Константин Статский</t>
+  </si>
+  <si>
+    <t>Илья Аксенов</t>
+  </si>
+  <si>
+    <t>Владимир Битоков</t>
+  </si>
+  <si>
+    <t>Рустам Ильясов</t>
+  </si>
+  <si>
+    <t>Александр Цой</t>
+  </si>
+  <si>
+    <t>Николай Рыбников</t>
+  </si>
+  <si>
+    <t>Илья Куликов</t>
+  </si>
+  <si>
+    <t>Алексей Петрашевич</t>
+  </si>
+  <si>
+    <t>Владимир Боровой</t>
+  </si>
+  <si>
+    <t>Фёдор Стуков</t>
+  </si>
+  <si>
+    <t>Дмитрий Губарев</t>
+  </si>
+  <si>
+    <t>Илья Глинников</t>
+  </si>
+  <si>
+    <t>Кристина Асмус</t>
+  </si>
+  <si>
+    <t>Александр Ильин мл.</t>
+  </si>
+  <si>
+    <t>Вадим Демчог</t>
+  </si>
+  <si>
+    <t>Сергей Чихачёв</t>
+  </si>
+  <si>
+    <t>Сергей Бурунов</t>
+  </si>
+  <si>
+    <t>Анастасия Уколова</t>
+  </si>
+  <si>
+    <t>Дмитрий Назаров</t>
+  </si>
+  <si>
+    <t>Елена Подкаминская</t>
+  </si>
+  <si>
+    <t>Виктор Хориняк</t>
+  </si>
+  <si>
+    <t>Дмитрий Нагиев</t>
+  </si>
+  <si>
+    <t>Сергей Лавыгин</t>
+  </si>
+  <si>
+    <t>Никита Ефремов</t>
+  </si>
+  <si>
+    <t>Сергей Рост</t>
+  </si>
+  <si>
+    <t>Никита Панфилов</t>
+  </si>
+  <si>
+    <t>Алика Смехова</t>
+  </si>
+  <si>
+    <t>Мария Горбань</t>
+  </si>
+  <si>
+    <t>Ангелина Стречина</t>
+  </si>
+  <si>
+    <t>Данила Козловский</t>
+  </si>
+  <si>
+    <t>Александр Петров</t>
+  </si>
+  <si>
+    <t>Ирина Старшенбаум</t>
+  </si>
+  <si>
+    <t>Елизавета Базыкина</t>
+  </si>
+  <si>
+    <t>Олеся Иванченко</t>
+  </si>
+  <si>
+    <t>Диана Пожарская</t>
+  </si>
+  <si>
+    <t>Марина Александрова</t>
+  </si>
+  <si>
+    <t>Юлия Александрова</t>
+  </si>
+  <si>
+    <t>Равшана Куркова</t>
+  </si>
+  <si>
+    <t>Артём Ткаченко</t>
+  </si>
+  <si>
+    <t>Ида Галич</t>
+  </si>
+  <si>
+    <t>Леонид Ярмольник</t>
+  </si>
+  <si>
+    <t>Катерина Шпица</t>
+  </si>
+  <si>
+    <t>Карина Зверева</t>
+  </si>
+  <si>
+    <t>Ирина Розанова</t>
+  </si>
+  <si>
+    <t>Юлия Снигирь</t>
+  </si>
+  <si>
+    <t>Вера Кинчева</t>
+  </si>
+  <si>
+    <t>Любовь Толкалина</t>
+  </si>
+  <si>
+    <t>Анна Уколова</t>
+  </si>
+  <si>
+    <t>Настасья Самбурская</t>
+  </si>
+  <si>
+    <t>Ирина Дубцова</t>
+  </si>
+  <si>
+    <t>Денис Власенко</t>
+  </si>
+  <si>
+    <t>Валерия Репина</t>
+  </si>
+  <si>
+    <t>Инга Оболдина</t>
+  </si>
+  <si>
+    <t>Борис Дергачев</t>
+  </si>
+  <si>
+    <t>Марат Башаров</t>
+  </si>
+  <si>
+    <t>Иван Янковский</t>
+  </si>
+  <si>
+    <t>Дмитрий Лысенков</t>
+  </si>
+  <si>
+    <t>Сергей Маковецкий</t>
+  </si>
+  <si>
+    <t>Яна Кошкина</t>
+  </si>
+  <si>
+    <t>Кристина Кучеренко</t>
+  </si>
+  <si>
+    <t>Ольга Павловец</t>
+  </si>
+  <si>
+    <t>Никита Волков</t>
+  </si>
+  <si>
+    <t>Виталий Андреев</t>
+  </si>
+  <si>
+    <t>Артем Сучков</t>
+  </si>
+  <si>
+    <t>Ольга Медынич</t>
+  </si>
+  <si>
+    <t>Александра Власова</t>
+  </si>
+  <si>
+    <t>Анастасия Панина,</t>
+  </si>
+  <si>
+    <t>Карина Мишулина</t>
+  </si>
+  <si>
+    <t>Агата Муцениеце</t>
+  </si>
+  <si>
+    <t>Марк Богатырев</t>
+  </si>
+  <si>
+    <t>Анна Банщикова</t>
+  </si>
+  <si>
+    <t>Юра Борисов</t>
+  </si>
+  <si>
+    <t>Юлия Высоцкая</t>
+  </si>
+  <si>
+    <t>Кирилл Кяро</t>
+  </si>
+  <si>
+    <t>Актер, Режиссер, Сценарист</t>
+  </si>
+  <si>
+    <t>62, 1999 — 2025</t>
+  </si>
+  <si>
+    <t>Мой папа не подарок; Частное пионерское. Ура, каникулы!!!; Частное пионерское; Частное пионерское 3. Привет, взрослая жизнь!; Время первых</t>
+  </si>
+  <si>
+    <t>Ландыши; Проект «Анна Николаевна»; Курорт цвета хаки; Модный синдикат; Мой капитан</t>
+  </si>
+  <si>
+    <t>Пахтакор, СССР</t>
+  </si>
+  <si>
+    <t>Даниэлла Селицка (развод)один ребенок
+Катерина Беккер</t>
+  </si>
+  <si>
+    <t>31, 2011 — 2025</t>
+  </si>
+  <si>
+    <t>Легенда о Коловрате
+Мажор. Фильм</t>
+  </si>
+  <si>
+    <t>Трудные подростки; Фишер
+Смычок; Серебряный волк;
+Беловодье. Тайна затерянной страны</t>
+  </si>
+  <si>
+    <t>Режиссер, Сценарист, Продюсер</t>
+  </si>
+  <si>
+    <t>Одинцово, Россия</t>
+  </si>
+  <si>
+    <t>7, 2020 — 2025</t>
+  </si>
+  <si>
+    <t>Митрич</t>
+  </si>
+  <si>
+    <t>Москва, Россия</t>
+  </si>
+  <si>
+    <t>30, 1999 — 2025</t>
+  </si>
+  <si>
+    <t>Частное пионерское. Ура, каникулы!!!; Частное пионерское; Метро;
+Частное пионерское 3. Привет, взрослая жизнь!; Два холма. Фильм</t>
+  </si>
+  <si>
+    <t>Два холма; Беспокойный участок; Самара; Ералаш; 
+Музыкальный патруль.; Сказочные песни</t>
+  </si>
+  <si>
+    <t>Актер, Режиссер, Композитор</t>
+  </si>
+  <si>
+    <t>драма, комедия, триллер</t>
+  </si>
+  <si>
+    <t>Юлия Ильинаодин ребенок</t>
+  </si>
+  <si>
+    <t>60, 1992 — 2025</t>
+  </si>
+  <si>
+    <t>Знакомство родителей; Изображая жертву; Легенда о Коловрате; Дикое поле;
+Время первых</t>
+  </si>
+  <si>
+    <t>Собор; Трасса;
+Бар «Один звонок»; Я знаю, кто тебя убил; Закрыть гештальт</t>
+  </si>
+  <si>
+    <t>Нижний Новгород, Россия</t>
+  </si>
+  <si>
+    <t>комедия, детектив, мелодрама</t>
+  </si>
+  <si>
+    <t>Лидия Сучкова 
+один ребенок</t>
+  </si>
+  <si>
+    <t>Водоворот; Рейс 314; Между нами, девочками; Ищейка;
+Проект «Анна Николаевна»</t>
+  </si>
+  <si>
+    <t>46, 2005 — 2024</t>
+  </si>
+  <si>
+    <t>45, 2006 — 2025</t>
+  </si>
+  <si>
+    <t>Сваты</t>
+  </si>
+  <si>
+    <t>2008-2021</t>
+  </si>
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t>Юрий Морозов</t>
+  </si>
+  <si>
+    <t>Людмила Артемьева, Фёдор Добронравов, Татьяна Кравченко, Анатолий Васильев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1754,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1821,6 +2112,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2101,14 +2413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -2160,7 +2472,7 @@
         <v>2025</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -2184,7 +2496,7 @@
         <v>2025</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -2208,7 +2520,7 @@
         <v>2025</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -2232,7 +2544,7 @@
         <v>2025</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -2256,7 +2568,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -2280,7 +2592,7 @@
         <v>2025</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -2304,7 +2616,7 @@
         <v>2013</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -2328,7 +2640,7 @@
         <v>2013</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -2352,7 +2664,7 @@
         <v>2016</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -2376,7 +2688,7 @@
         <v>2017</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>89</v>
@@ -2400,7 +2712,7 @@
         <v>2015</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>81</v>
@@ -2424,7 +2736,7 @@
         <v>2019</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>81</v>
@@ -2448,7 +2760,7 @@
         <v>2024</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -2472,7 +2784,7 @@
         <v>2019</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>127</v>
@@ -2496,7 +2808,7 @@
         <v>2023</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -2520,7 +2832,7 @@
         <v>2021</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -2544,7 +2856,7 @@
         <v>2024</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -2568,7 +2880,7 @@
         <v>2025</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>28</v>
@@ -2592,7 +2904,7 @@
         <v>2022</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2616,7 +2928,7 @@
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -2640,7 +2952,7 @@
         <v>2010</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -2664,7 +2976,7 @@
         <v>2010</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
@@ -2688,7 +3000,7 @@
         <v>2024</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -2712,7 +3024,7 @@
         <v>2025</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>482</v>
+        <v>430</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -2736,7 +3048,7 @@
         <v>2024</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>130</v>
@@ -2760,7 +3072,7 @@
         <v>2022</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>121</v>
@@ -2784,7 +3096,7 @@
         <v>2024</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -2808,7 +3120,7 @@
         <v>2022</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>28</v>
@@ -2832,7 +3144,7 @@
         <v>2023</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>81</v>
@@ -2856,7 +3168,7 @@
         <v>2006</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>152</v>
@@ -2880,7 +3192,7 @@
         <v>2023</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -2904,7 +3216,7 @@
         <v>2025</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>127</v>
@@ -2928,7 +3240,7 @@
         <v>2025</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -2952,7 +3264,7 @@
         <v>2025</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -2976,7 +3288,7 @@
         <v>2016</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3000,7 +3312,7 @@
         <v>2018</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
@@ -3024,7 +3336,7 @@
         <v>2021</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -3048,7 +3360,7 @@
         <v>2025</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
@@ -3072,7 +3384,7 @@
         <v>2025</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>493</v>
+        <v>441</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -3486,7 +3798,7 @@
       <c r="H80" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I1">
+  <sortState ref="A1:I1">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3495,14 +3807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3823,7 @@
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="56.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
@@ -3881,7 +4193,7 @@
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>230</v>
@@ -3896,10 +4208,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -4145,154 +4457,154 @@
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>608</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>610</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>611</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3">
         <v>2023</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D29" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="C30" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>220</v>
+      <c r="C31" s="3">
+        <v>2023</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C33" s="3">
         <v>2025</v>
@@ -4303,23 +4615,21 @@
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -4328,21 +4638,35 @@
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4806,7 +5130,7 @@
       <c r="H81" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
+  <sortState ref="A2:H35">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4815,1910 +5139,3468 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D3" s="19">
+        <v>45765</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1994</v>
+      </c>
+      <c r="F3" s="18">
+        <f ca="1">YEAR(TODAY())-E3</f>
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="D4" s="19">
+        <v>45983</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F4" s="18">
+        <f ca="1">YEAR(TODAY())-E4</f>
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="19">
+        <v>45783</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1980</v>
+      </c>
+      <c r="F7" s="18">
+        <f ca="1">YEAR(TODAY())-E7</f>
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="19">
+        <v>45940</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1969</v>
+      </c>
+      <c r="F8" s="18">
+        <f ca="1">YEAR(TODAY())-E8</f>
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="D9" s="19">
+        <v>45963</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1974</v>
+      </c>
+      <c r="F9" s="18">
+        <f ca="1">YEAR(TODAY())-E9</f>
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D11" s="19">
+        <v>45669</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="18">
+        <f ca="1">YEAR(TODAY())-E11</f>
+        <v>25</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D15" s="19">
+        <v>45882</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F15" s="18">
+        <f ca="1">YEAR(TODAY())-E15</f>
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="D16" s="19">
+        <v>45799</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1980</v>
+      </c>
+      <c r="F16" s="18">
+        <f ca="1">YEAR(TODAY())-E16</f>
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D18" s="19">
+        <v>45823</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F18" s="18">
+        <f ca="1">YEAR(TODAY())-E18</f>
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="D20" s="19">
+        <v>45927</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F20" s="18">
+        <f ca="1">YEAR(TODAY())-E20</f>
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="D21" s="19">
+        <v>45872</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F21" s="18">
+        <f ca="1">YEAR(TODAY())-E21</f>
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="D28" s="19">
+        <v>45875</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F28" s="18">
+        <f ca="1">YEAR(TODAY())-E28</f>
+        <v>35</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D32" s="19">
+        <v>45671</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F32" s="18">
+        <f ca="1">YEAR(TODAY())-E32</f>
+        <v>42</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D33" s="19">
+        <v>46013</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1956</v>
+      </c>
+      <c r="F33" s="18">
+        <f ca="1">YEAR(TODAY())-E33</f>
+        <v>69</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="D34" s="19">
+        <v>45797</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1967</v>
+      </c>
+      <c r="F34" s="18">
+        <f ca="1">YEAR(TODAY())-E34</f>
+        <v>58</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D38" s="19">
+        <v>45675</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1971</v>
+      </c>
+      <c r="F38" s="18">
+        <f ca="1">YEAR(TODAY())-E38</f>
+        <v>54</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="D40" s="19">
+        <v>45847</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1978</v>
+      </c>
+      <c r="F40" s="18">
+        <f ca="1">YEAR(TODAY())-E40</f>
+        <v>47</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D44" s="19">
+        <v>45861</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1984</v>
+      </c>
+      <c r="F44" s="18">
+        <f ca="1">YEAR(TODAY())-E44</f>
+        <v>41</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D45" s="19">
+        <v>45731</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1979</v>
+      </c>
+      <c r="F45" s="18">
+        <f ca="1">YEAR(TODAY())-E45</f>
+        <v>46</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="19">
+        <v>45928</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F48" s="18">
+        <f ca="1">YEAR(TODAY())-E48</f>
+        <v>27</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D49" s="19">
+        <v>45860</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1966</v>
+      </c>
+      <c r="F49" s="18">
+        <f ca="1">YEAR(TODAY())-E49</f>
+        <v>59</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D53" s="19">
+        <v>45709</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F53" s="18">
+        <f ca="1">YEAR(TODAY())-E53</f>
+        <v>48</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D55" s="19">
+        <v>45730</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F55" s="18">
+        <f ca="1">YEAR(TODAY())-E55</f>
+        <v>33</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="D57" s="19">
+        <v>45826</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1978</v>
+      </c>
+      <c r="F57" s="18">
+        <f ca="1">YEAR(TODAY())-E57</f>
+        <v>47</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D63" s="19">
+        <v>45745</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F63" s="18">
+        <f ca="1">YEAR(TODAY())-E63</f>
+        <v>42</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="19">
+        <v>45670</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F80" s="18">
+        <f ca="1">YEAR(TODAY())-E80</f>
+        <v>37</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D99" s="19">
+        <v>45942</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F99" s="18">
+        <f ca="1">YEAR(TODAY())-E99</f>
+        <v>37</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:O159">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1.68</v>
+      </c>
+      <c r="D2" s="19">
+        <v>45785</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1964</v>
+      </c>
+      <c r="F2" s="18">
+        <f ca="1">YEAR(TODAY())-E2</f>
+        <v>61</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1.75</v>
+      </c>
+      <c r="D3" s="19">
+        <v>45939</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1984</v>
+      </c>
+      <c r="F3" s="18">
+        <f ca="1">YEAR(TODAY())-E3</f>
+        <v>41</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1.75</v>
+      </c>
+      <c r="D4" s="19">
+        <v>45944</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1993</v>
+      </c>
+      <c r="F4" s="18">
+        <f ca="1">YEAR(TODAY())-E4</f>
+        <v>32</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="18" t="str">
-        <f>B4 &amp; " " &amp; C4</f>
-        <v>Аглая Тарасова</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="G4" s="19">
-        <v>45765</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1994</v>
-      </c>
-      <c r="I4" s="18">
-        <f ca="1">YEAR(TODAY())-H4</f>
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="18" t="str">
-        <f>B5 &amp; " " &amp; C5</f>
-        <v>Александра Ребенок</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="19">
-        <v>45783</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1980</v>
-      </c>
-      <c r="I5" s="18">
-        <f ca="1">YEAR(TODAY())-H5</f>
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="18" t="str">
-        <f>B6 &amp; " " &amp; C6</f>
-        <v>Алексей Кравченко</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G6" s="19">
-        <v>45940</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1969</v>
-      </c>
-      <c r="I6" s="18">
-        <f ca="1">YEAR(TODAY())-H6</f>
-        <v>56</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="18" t="str">
-        <f>B7 &amp; " " &amp; C7</f>
-        <v>Алексей Шевченков</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="G7" s="19">
-        <v>45963</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1974</v>
-      </c>
-      <c r="I7" s="18">
-        <f ca="1">YEAR(TODAY())-H7</f>
-        <v>51</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="18" t="str">
-        <f>B8 &amp; " " &amp; C8</f>
-        <v>Алина Колесникова</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G8" s="19">
-        <v>45669</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="18">
-        <f ca="1">YEAR(TODAY())-H8</f>
-        <v>25</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="18" t="str">
-        <f>B9 &amp; " " &amp; C9</f>
-        <v>Андрей Федорцов</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G9" s="19">
-        <v>45882</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1968</v>
-      </c>
-      <c r="I9" s="18">
-        <f ca="1">YEAR(TODAY())-H9</f>
-        <v>57</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="18" t="str">
-        <f>B10 &amp; " " &amp; C10</f>
-        <v>Андрей Чадов</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="G10" s="19">
-        <v>45799</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1980</v>
-      </c>
-      <c r="I10" s="18">
-        <f ca="1">YEAR(TODAY())-H10</f>
-        <v>45</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" s="18" t="str">
-        <f>B11 &amp; " " &amp; C11</f>
-        <v>Анна Ковальчук</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G11" s="19">
-        <v>45823</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1977</v>
-      </c>
-      <c r="I11" s="18">
-        <f ca="1">YEAR(TODAY())-H11</f>
-        <v>48</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" s="18" t="str">
-        <f>B12 &amp; " " &amp; C12</f>
-        <v>Виктория Заболотная</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="G12" s="19">
-        <v>45875</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1990</v>
-      </c>
-      <c r="I12" s="18">
-        <f ca="1">YEAR(TODAY())-H12</f>
-        <v>35</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" s="18" t="str">
-        <f>B13 &amp; " " &amp; C13</f>
-        <v>Владимир Яглыч</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="G13" s="19">
-        <v>45671</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1983</v>
-      </c>
-      <c r="I13" s="18">
-        <f ca="1">YEAR(TODAY())-H13</f>
-        <v>42</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="D14" s="18" t="str">
-        <f>B14 &amp; " " &amp; C14</f>
-        <v>Галина Петрова</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G14" s="19">
-        <v>46013</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1956</v>
-      </c>
-      <c r="I14" s="18">
-        <f ca="1">YEAR(TODAY())-H14</f>
-        <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D15" s="18" t="str">
-        <f>B15 &amp; " " &amp; C15</f>
-        <v>Гоша Куценко</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.84</v>
-      </c>
-      <c r="G15" s="19">
-        <v>45797</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1967</v>
-      </c>
-      <c r="I15" s="18">
-        <f ca="1">YEAR(TODAY())-H15</f>
-        <v>58</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="18" t="str">
-        <f>B16 &amp; " " &amp; C16</f>
-        <v>Джефф Монсон</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G16" s="19">
-        <v>45675</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1971</v>
-      </c>
-      <c r="I16" s="18">
-        <f ca="1">YEAR(TODAY())-H16</f>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="18" t="str">
-        <f>B17 &amp; " " &amp; C17</f>
-        <v>Дмитрий Дюжев</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="G17" s="19">
-        <v>45847</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1978</v>
-      </c>
-      <c r="I17" s="18">
-        <f ca="1">YEAR(TODAY())-H17</f>
-        <v>47</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="D18" s="18" t="str">
-        <f>B18 &amp; " " &amp; C18</f>
-        <v>Евгений Ткачук</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="G18" s="19">
-        <v>45861</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1984</v>
-      </c>
-      <c r="I18" s="18">
-        <f ca="1">YEAR(TODAY())-H18</f>
-        <v>41</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="18" t="str">
-        <f>B19 &amp; " " &amp; C19</f>
-        <v>Евгений Цыганов</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G19" s="19">
-        <v>45731</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1979</v>
-      </c>
-      <c r="I19" s="18">
-        <f ca="1">YEAR(TODAY())-H19</f>
-        <v>46</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" s="18" t="str">
-        <f>B20 &amp; " " &amp; C20</f>
-        <v>Иван Злобин</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="19">
-        <v>45928</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1998</v>
-      </c>
-      <c r="I20" s="18">
-        <f ca="1">YEAR(TODAY())-H20</f>
-        <v>27</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="18" t="str">
-        <f>B21 &amp; " " &amp; C21</f>
-        <v>Иван Охлобыстин</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G21" s="19">
-        <v>45860</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1966</v>
-      </c>
-      <c r="I21" s="18">
-        <f ca="1">YEAR(TODAY())-H21</f>
-        <v>59</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="18" t="str">
-        <f>B22 &amp; " " &amp; C22</f>
-        <v>Илья Любимов</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="G22" s="19">
-        <v>45709</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1977</v>
-      </c>
-      <c r="I22" s="18">
-        <f ca="1">YEAR(TODAY())-H22</f>
-        <v>48</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="18" t="str">
-        <f>B23 &amp; " " &amp; C23</f>
-        <v>Ингрид Олеринская</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="G23" s="19">
-        <v>45730</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1992</v>
-      </c>
-      <c r="I23" s="18">
-        <f ca="1">YEAR(TODAY())-H23</f>
-        <v>33</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" s="18" t="str">
-        <f>B24 &amp; " " &amp; C24</f>
-        <v>Константин Хабенский</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D26" s="18" t="str">
-        <f>B26 &amp; " " &amp; C26</f>
-        <v>Любовь Аксёнова</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="18" t="str">
-        <f>B30 &amp; " " &amp; C30</f>
-        <v>Милош Бикович</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="19">
-        <v>45670</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1988</v>
-      </c>
-      <c r="I30" s="18">
-        <f ca="1">YEAR(TODAY())-H30</f>
-        <v>37</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D31" s="18" t="str">
-        <f>B31 &amp; " " &amp; C31</f>
-        <v>Михаил Пореченков</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D33" s="18" t="str">
-        <f>B33 &amp; " " &amp; C33</f>
-        <v>Никита Кологривый</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D36" s="18" t="str">
-        <f>B36 &amp; " " &amp; C36</f>
-        <v>Оксана Акиньшина</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="18" t="str">
-        <f>B39 &amp; " " &amp; C39</f>
-        <v>Паулина Андреева</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="G39" s="19">
-        <v>45942</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1988</v>
-      </c>
-      <c r="I39" s="18">
-        <f ca="1">YEAR(TODAY())-H39</f>
-        <v>37</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
-    <sortCondition ref="A1:A46"/>
+  <sortState ref="A2:L49">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="3"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
     <sheet name="Сериалы" sheetId="3" r:id="rId2"/>
     <sheet name="Актеры" sheetId="2" r:id="rId3"/>
     <sheet name="Режиссеры" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="664">
   <si>
     <t>Фильм</t>
   </si>
@@ -1838,9 +1839,6 @@
     <t>Александра Власова</t>
   </si>
   <si>
-    <t>Анастасия Панина,</t>
-  </si>
-  <si>
     <t>Карина Мишулина</t>
   </si>
   <si>
@@ -1972,6 +1970,169 @@
   </si>
   <si>
     <t>Людмила Артемьева, Фёдор Добронравов, Татьяна Кравченко, Анатолий Васильев</t>
+  </si>
+  <si>
+    <t>Анастасия Панина</t>
+  </si>
+  <si>
+    <t>Северо-Задонск, Тульская область, СССР</t>
+  </si>
+  <si>
+    <t>мелодрама, драма, детектив</t>
+  </si>
+  <si>
+    <t>Владимир Жеребцов один ребенок</t>
+  </si>
+  <si>
+    <t>78, 2002 — 2025</t>
+  </si>
+  <si>
+    <t>Психологини; Отмена всех ограничений; Доктор Надежда; Физрук;
+Надежда как свидетельство жизни</t>
+  </si>
+  <si>
+    <t>Пятигорск, Россия</t>
+  </si>
+  <si>
+    <t>Антон Зенкович (развод)</t>
+  </si>
+  <si>
+    <t>42, 2012 — 2025</t>
+  </si>
+  <si>
+    <t>Сокровища гномов; По любви; 
+Громкая связь; Все хорошо;
+Капитан Волконогов бежал</t>
+  </si>
+  <si>
+    <t>Пассажиры; СССР;
+Цыпленок жареный; Комбинация; Триггер</t>
+  </si>
+  <si>
+    <t>Сергей Ливнев (развод)
+Григорий Беджамов (развод)</t>
+  </si>
+  <si>
+    <t>82, 1974 — 2025</t>
+  </si>
+  <si>
+    <t>Домовенок Кузя; Женщина дня; Тонкая штучка; Курьер; Любовь с привилегиями</t>
+  </si>
+  <si>
+    <t>Лондонград. Знай наших; Презумпция невиновности; Закон; Третье сентября; Пан или пропал</t>
+  </si>
+  <si>
+    <t>Калининград, СССР</t>
+  </si>
+  <si>
+    <t>Равшана Куркова (развод)
+Евгения Храповицкая (развод)один ребенок
+Екатерина Стеблинаодин ребенок</t>
+  </si>
+  <si>
+    <t>144, 2004 — 2027</t>
+  </si>
+  <si>
+    <t>Командир; Баба Яга спасает Новый год; Южные ночи; Один вдох; Бендер: Последняя афера</t>
+  </si>
+  <si>
+    <t>Начальник разведки; Вампиры средней полосы; Красная королева; Струны; Сёстры</t>
+  </si>
+  <si>
+    <t>Красная королева</t>
+  </si>
+  <si>
+    <t>биография, драма</t>
+  </si>
+  <si>
+    <t>Егор Корешков</t>
+  </si>
+  <si>
+    <t>Елена Валюшкина</t>
+  </si>
+  <si>
+    <t>Ефим Петрунин</t>
+  </si>
+  <si>
+    <t>Роман Курцын</t>
+  </si>
+  <si>
+    <t>Софья Райзман</t>
+  </si>
+  <si>
+    <t>Адам Драйвер</t>
+  </si>
+  <si>
+    <t>Дейзи Ридли</t>
+  </si>
+  <si>
+    <t>Харрисон Форд</t>
+  </si>
+  <si>
+    <t>Тихон Жизневский</t>
+  </si>
+  <si>
+    <t>Валентина Ляпина</t>
+  </si>
+  <si>
+    <t>Михаил Галустян</t>
+  </si>
+  <si>
+    <t>Роман Мадянов</t>
+  </si>
+  <si>
+    <t>Юлия Такшина</t>
+  </si>
+  <si>
+    <t>Анна Глаубэ</t>
+  </si>
+  <si>
+    <t>Павел Воля</t>
+  </si>
+  <si>
+    <t>Роман Евдокимов</t>
+  </si>
+  <si>
+    <t>Киллиан Мерфи</t>
+  </si>
+  <si>
+    <t>Мэтт Дэймон</t>
+  </si>
+  <si>
+    <t>Роберт Дауни мл.</t>
+  </si>
+  <si>
+    <t>Леонардо ДиКаприо</t>
+  </si>
+  <si>
+    <t>Джек Николсон</t>
+  </si>
+  <si>
+    <t>Марк Уолберг</t>
+  </si>
+  <si>
+    <t>Фёдор Бондарчук</t>
+  </si>
+  <si>
+    <t>Хаким Джемили</t>
+  </si>
+  <si>
+    <t>Аня Чиповская</t>
+  </si>
+  <si>
+    <t>Актер, Режиссер, Продюсер, Оператор</t>
+  </si>
+  <si>
+    <t>55, 2004 — 2025</t>
+  </si>
+  <si>
+    <t>Мой папа — медведь; Голосовой помощник; Тайный Санта; Огонь; Аритмия</t>
+  </si>
+  <si>
+    <t>Праздники; Остаться друзьями; Семейка; #СидЯдома; Короче</t>
+  </si>
+  <si>
+    <t>Саратов, СССР</t>
   </si>
 </sst>
 </file>
@@ -2416,11 +2577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,10 +3972,10 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,63 +4328,53 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2015</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>460</v>
+        <v>172</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>461</v>
+        <v>173</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="C17" s="3">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -4232,19 +4383,19 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>460</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>461</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3">
         <v>2022</v>
@@ -4256,22 +4407,22 @@
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="C19" s="3">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -4280,142 +4431,142 @@
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>219</v>
+      <c r="C20" s="3">
+        <v>2025</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="C22" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C25" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -4424,16 +4575,16 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -4448,185 +4599,187 @@
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>608</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>609</v>
+      <c r="C27" s="3">
+        <v>2025</v>
       </c>
       <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>611</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>612</v>
+        <v>188</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>607</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>609</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>610</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>57</v>
+        <v>611</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="3">
         <v>2023</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D30" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="C31" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D31" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>220</v>
+      <c r="C32" s="3">
+        <v>2023</v>
       </c>
       <c r="D32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3">
         <v>2025</v>
@@ -4637,23 +4790,21 @@
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4662,21 +4813,35 @@
         <v>7</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5130,7 +5295,7 @@
       <c r="H81" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H35">
+  <sortState ref="A2:H36">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5140,13 +5305,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,7 +5324,7 @@
     <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="11" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="15" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="11" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" style="11" customWidth="1"/>
     <col min="12" max="12" width="28.42578125" style="11" customWidth="1"/>
@@ -5205,7 +5370,7 @@
     </row>
     <row r="2" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5256,64 +5421,64 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="D5" s="19">
+        <v>45983</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F5" s="18">
+        <f ca="1">YEAR(TODAY())-E5</f>
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.92</v>
-      </c>
-      <c r="D4" s="19">
-        <v>45983</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1983</v>
-      </c>
-      <c r="F4" s="18">
-        <f ca="1">YEAR(TODAY())-E4</f>
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J5" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5327,187 +5492,210 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>349</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="19">
-        <v>45783</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1980</v>
-      </c>
-      <c r="F7" s="18">
-        <f ca="1">YEAR(TODAY())-E7</f>
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.8</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="19">
-        <v>45940</v>
+        <v>45783</v>
       </c>
       <c r="E8" s="2">
-        <v>1969</v>
+        <v>1980</v>
       </c>
       <c r="F8" s="18">
         <f ca="1">YEAR(TODAY())-E8</f>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C9" s="2">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="D9" s="19">
-        <v>45963</v>
+        <v>45940</v>
       </c>
       <c r="E9" s="2">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="F9" s="18">
         <f ca="1">YEAR(TODAY())-E9</f>
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="D10" s="19">
+        <v>45963</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1974</v>
+      </c>
+      <c r="F10" s="18">
+        <f ca="1">YEAR(TODAY())-E10</f>
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>326</v>
+        <v>531</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="C11" s="2">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="19">
-        <v>45669</v>
+        <v>45743</v>
       </c>
       <c r="E11" s="2">
-        <v>2000</v>
+        <v>1968</v>
       </c>
       <c r="F11" s="18">
         <f ca="1">YEAR(TODAY())-E11</f>
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D12" s="19">
+        <v>45669</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="18">
+        <f ca="1">YEAR(TODAY())-E12</f>
         <v>25</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="20" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="2" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>522</v>
+        <v>326</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5521,99 +5709,101 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+        <v>612</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D14" s="19">
+        <v>45672</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F14" s="18">
+        <f ca="1">YEAR(TODAY())-E14</f>
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>181</v>
+        <v>522</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="C15" s="2">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="D15" s="19">
-        <v>45882</v>
+        <v>45799</v>
       </c>
       <c r="E15" s="2">
-        <v>1968</v>
+        <v>1994</v>
       </c>
       <c r="F15" s="18">
         <f ca="1">YEAR(TODAY())-E15</f>
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>277</v>
+        <v>618</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I15" s="20"/>
+        <v>345</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>619</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>304</v>
+        <v>620</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>305</v>
+        <v>621</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="D16" s="19">
-        <v>45799</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1980</v>
-      </c>
-      <c r="F16" s="18">
-        <f ca="1">YEAR(TODAY())-E16</f>
-        <v>45</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>367</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5627,154 +5817,154 @@
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="C18" s="2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="D18" s="19">
-        <v>45823</v>
+        <v>45882</v>
       </c>
       <c r="E18" s="2">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="F18" s="18">
         <f ca="1">YEAR(TODAY())-E18</f>
+        <v>57</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="D19" s="19">
+        <v>45799</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1980</v>
+      </c>
+      <c r="F19" s="18">
+        <f ca="1">YEAR(TODAY())-E19</f>
+        <v>45</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D22" s="19">
+        <v>45823</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F22" s="18">
+        <f ca="1">YEAR(TODAY())-E22</f>
         <v>48</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H22" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I22" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J22" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:12" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="D20" s="19">
-        <v>45927</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1999</v>
-      </c>
-      <c r="F20" s="18">
-        <f ca="1">YEAR(TODAY())-E20</f>
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.83</v>
-      </c>
-      <c r="D21" s="19">
-        <v>45872</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1992</v>
-      </c>
-      <c r="F21" s="18">
-        <f ca="1">YEAR(TODAY())-E21</f>
-        <v>33</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5788,25 +5978,46 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+        <v>471</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="D24" s="19">
+        <v>45927</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F24" s="18">
+        <f ca="1">YEAR(TODAY())-E24</f>
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>556</v>
+        <v>658</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5820,76 +6031,122 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="D26" s="19">
+        <v>45872</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F26" s="18">
+        <f ca="1">YEAR(TODAY())-E26</f>
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+        <v>543</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D27" s="19">
+        <v>45777</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1982</v>
+      </c>
+      <c r="F27" s="18">
+        <f ca="1">YEAR(TODAY())-E27</f>
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>340</v>
+        <v>558</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>343</v>
+        <v>659</v>
       </c>
       <c r="C28" s="2">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="D28" s="19">
-        <v>45875</v>
+        <v>45760</v>
       </c>
       <c r="E28" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F28" s="18">
         <f ca="1">YEAR(TODAY())-E28</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>390</v>
+        <v>663</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="L28" s="2" t="s">
-        <v>393</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -5905,154 +6162,106 @@
     </row>
     <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>470</v>
+        <v>643</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D32" s="19">
-        <v>45671</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1983</v>
-      </c>
-      <c r="F32" s="18">
-        <f ca="1">YEAR(TODAY())-E32</f>
-        <v>42</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D33" s="19">
-        <v>46013</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1956</v>
-      </c>
-      <c r="F33" s="18">
-        <f ca="1">YEAR(TODAY())-E33</f>
-        <v>69</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C34" s="2">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="D34" s="19">
-        <v>45797</v>
+        <v>45875</v>
       </c>
       <c r="E34" s="2">
-        <v>1967</v>
+        <v>1990</v>
       </c>
       <c r="F34" s="18">
         <f ca="1">YEAR(TODAY())-E34</f>
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>406</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="I34" s="20"/>
       <c r="J34" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6068,7 +6277,7 @@
     </row>
     <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6084,111 +6293,138 @@
     </row>
     <row r="37" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="1:12" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="C38" s="2">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="D38" s="19">
-        <v>45675</v>
+        <v>45671</v>
       </c>
       <c r="E38" s="2">
-        <v>1971</v>
+        <v>1983</v>
       </c>
       <c r="F38" s="18">
         <f ca="1">YEAR(TODAY())-E38</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="I38" s="20"/>
+        <v>303</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>396</v>
+      </c>
       <c r="J38" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+        <v>342</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D39" s="19">
+        <v>46013</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1956</v>
+      </c>
+      <c r="F39" s="18">
+        <f ca="1">YEAR(TODAY())-E39</f>
+        <v>69</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="40" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="D40" s="19">
-        <v>45847</v>
+        <v>45797</v>
       </c>
       <c r="E40" s="2">
-        <v>1978</v>
+        <v>1967</v>
       </c>
       <c r="F40" s="18">
         <f ca="1">YEAR(TODAY())-E40</f>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>313</v>
+        <v>407</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6204,7 +6440,7 @@
     </row>
     <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>526</v>
+        <v>640</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -6220,101 +6456,55 @@
     </row>
     <row r="43" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="D44" s="19">
-        <v>45861</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1984</v>
-      </c>
-      <c r="F44" s="18">
-        <f ca="1">YEAR(TODAY())-E44</f>
-        <v>41</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D45" s="19">
-        <v>45731</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1979</v>
-      </c>
-      <c r="F45" s="18">
-        <f ca="1">YEAR(TODAY())-E45</f>
-        <v>46</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>524</v>
+        <v>654</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -6328,99 +6518,97 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
     </row>
-    <row r="47" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-    </row>
-    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D47" s="19">
+        <v>45675</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1971</v>
+      </c>
+      <c r="F47" s="18">
+        <f ca="1">YEAR(TODAY())-E47</f>
+        <v>54</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="19">
-        <v>45928</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1998</v>
-      </c>
-      <c r="F48" s="18">
-        <f ca="1">YEAR(TODAY())-E48</f>
-        <v>27</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="C49" s="2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="D49" s="19">
-        <v>45860</v>
+        <v>45847</v>
       </c>
       <c r="E49" s="2">
-        <v>1966</v>
+        <v>1978</v>
       </c>
       <c r="F49" s="18">
         <f ca="1">YEAR(TODAY())-E49</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>560</v>
+        <v>293</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6436,7 +6624,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6452,7 +6640,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -6466,156 +6654,135 @@
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
     </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D53" s="19">
-        <v>45709</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1977</v>
-      </c>
-      <c r="F53" s="18">
-        <f ca="1">YEAR(TODAY())-E53</f>
-        <v>48</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-    </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D54" s="19">
+        <v>45861</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1984</v>
+      </c>
+      <c r="F54" s="18">
+        <f ca="1">YEAR(TODAY())-E54</f>
+        <v>41</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="D55" s="19">
-        <v>45730</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1992</v>
-      </c>
-      <c r="F55" s="18">
-        <f ca="1">YEAR(TODAY())-E55</f>
-        <v>33</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-    </row>
-    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D56" s="19">
+        <v>45731</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1979</v>
+      </c>
+      <c r="F56" s="18">
+        <f ca="1">YEAR(TODAY())-E56</f>
+        <v>46</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="D57" s="19">
-        <v>45826</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1978</v>
-      </c>
-      <c r="F57" s="18">
-        <f ca="1">YEAR(TODAY())-E57</f>
-        <v>47</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>483</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>548</v>
+        <v>635</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6631,7 +6798,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6647,7 +6814,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6663,7 +6830,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6677,64 +6844,83 @@
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-    </row>
-    <row r="63" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D62" s="19">
+        <v>45928</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F62" s="18">
+        <f ca="1">YEAR(TODAY())-E62</f>
+        <v>27</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="20"/>
+      <c r="J62" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>476</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="D63" s="19">
-        <v>45745</v>
+        <v>45860</v>
       </c>
       <c r="E63" s="2">
-        <v>1983</v>
+        <v>1966</v>
       </c>
       <c r="F63" s="18">
         <f ca="1">YEAR(TODAY())-E63</f>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>486</v>
+        <v>303</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>487</v>
+        <v>386</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6750,23 +6936,23 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>68</v>
+        <v>544</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6780,25 +6966,48 @@
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D67" s="19">
+        <v>45709</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F67" s="18">
+        <f ca="1">YEAR(TODAY())-E67</f>
+        <v>48</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>564</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6814,7 +7023,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6828,25 +7037,46 @@
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="20"/>
+        <v>289</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D70" s="19">
+        <v>45730</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F70" s="18">
+        <f ca="1">YEAR(TODAY())-E70</f>
+        <v>33</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="I70" s="20"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6860,41 +7090,64 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="D72" s="19">
+        <v>45826</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1978</v>
+      </c>
+      <c r="F72" s="18">
+        <f ca="1">YEAR(TODAY())-E72</f>
+        <v>47</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6910,7 +7163,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6926,23 +7179,23 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6958,7 +7211,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6972,50 +7225,64 @@
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D79" s="19">
+        <v>45745</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F79" s="18">
+        <f ca="1">YEAR(TODAY())-E79</f>
+        <v>42</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="19">
-        <v>45670</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F80" s="18">
-        <f ca="1">YEAR(TODAY())-E80</f>
-        <v>37</v>
-      </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7031,23 +7298,23 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7063,7 +7330,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>474</v>
+        <v>332</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7079,7 +7346,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7095,7 +7362,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7111,55 +7378,55 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>296</v>
+        <v>545</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>530</v>
+        <v>291</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>375</v>
+        <v>551</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7175,7 +7442,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7191,7 +7458,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7207,7 +7474,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7223,71 +7490,71 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>324</v>
+        <v>573</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>473</v>
+        <v>655</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7301,18 +7568,16 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1.71</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" s="19">
-        <v>45942</v>
+        <v>45670</v>
       </c>
       <c r="E99" s="2">
         <v>1988</v>
@@ -7321,92 +7586,80 @@
         <f ca="1">YEAR(TODAY())-E99</f>
         <v>37</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="I99" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>468</v>
+        <v>644</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>542</v>
+        <v>295</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>469</v>
+        <v>651</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>521</v>
+        <v>333</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7422,23 +7675,23 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>562</v>
+        <v>474</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7454,55 +7707,55 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>520</v>
+        <v>296</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>325</v>
+        <v>530</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7518,23 +7771,23 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7550,39 +7803,39 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>377</v>
+        <v>569</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7598,23 +7851,23 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>577</v>
+        <v>467</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>549</v>
+        <v>648</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7630,7 +7883,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7646,23 +7899,23 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>576</v>
+        <v>473</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>478</v>
+        <v>327</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7676,24 +7929,607 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D121" s="19">
+        <v>45942</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F121" s="18">
+        <f ca="1">YEAR(TODAY())-E121</f>
+        <v>37</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O159">
+  <sortState ref="A2:L183">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7705,11 +8541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,7 +8608,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2" s="27">
         <v>1.68</v>
@@ -7795,13 +8631,13 @@
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>581</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -7809,7 +8645,7 @@
         <v>509</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C3" s="27">
         <v>1.75</v>
@@ -7825,22 +8661,22 @@
         <v>41</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>279</v>
       </c>
       <c r="I3" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>586</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -7848,7 +8684,7 @@
         <v>512</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" s="27">
         <v>1.75</v>
@@ -7864,18 +8700,18 @@
         <v>32</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>360</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8605,4 +9441,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <sortState ref="A1:A97">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="699">
   <si>
     <t>Фильм</t>
   </si>
@@ -2133,6 +2133,123 @@
   </si>
   <si>
     <t>Саратов, СССР</t>
+  </si>
+  <si>
+    <t>Стрежевой, Россия</t>
+  </si>
+  <si>
+    <t>Илья Малаков</t>
+  </si>
+  <si>
+    <t>52, 2016 — 2025</t>
+  </si>
+  <si>
+    <t>Мистер Нокаут; Волшебник; 
+Любовь Советского Союза; По любви; Лев Яшин. Вратарь моей мечты</t>
+  </si>
+  <si>
+    <t>Любовь Советского Союза</t>
+  </si>
+  <si>
+    <t>Волшебник</t>
+  </si>
+  <si>
+    <t>Лев Яшин. Вратарь моей мечты</t>
+  </si>
+  <si>
+    <t>Мистер Нокаут</t>
+  </si>
+  <si>
+    <t>Триггер; Сёстры; Екатерина. Самозванцы; Пищеблок: Экстра; Тысяча «нет» и одно «да»</t>
+  </si>
+  <si>
+    <t>Актриса, Актриса дубляжа, Продюсер</t>
+  </si>
+  <si>
+    <t>Ленинград, СССР</t>
+  </si>
+  <si>
+    <t>драма, криминал, детектив</t>
+  </si>
+  <si>
+    <t>Максим Леонидов (развод)
+Всеволод Шахановтрое детей</t>
+  </si>
+  <si>
+    <t>113, 1993 — 2025</t>
+  </si>
+  <si>
+    <t>Ты у меня одна; Всё будет хорошо; Жажда</t>
+  </si>
+  <si>
+    <t>За полчаса до весны; Ищейка; Жуков; Цветы жизни; Химкинские ведьмы</t>
+  </si>
+  <si>
+    <t>Павел Лёвкин 
+один ребенок</t>
+  </si>
+  <si>
+    <t>50, 2010 — 2025</t>
+  </si>
+  <si>
+    <t>Неадекватные люди
+Сокровища гномов</t>
+  </si>
+  <si>
+    <t>Артист с большой дороги; Вторая семья; Второй брак; Бывшие; Политех</t>
+  </si>
+  <si>
+    <t>Сборный, Самарская область, СССР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Сергей Пугачев
+один ребенок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+146, 2001 — 2026</t>
+  </si>
+  <si>
+    <t>Двое в одной жизни, не считая собаки; Ивановы-Ивановы. Новогодние каникулы; Календарь ма(й)я; Жить; Земля Эльзы</t>
+  </si>
+  <si>
+    <t>Плевако; Первокурсницы; Домашний арест; Юг; Ивановы-Ивановы</t>
+  </si>
+  <si>
+    <t>Актер, Сценарист</t>
+  </si>
+  <si>
+    <t>Нарва, СССР</t>
+  </si>
+  <si>
+    <t>комедия, драма, детектив</t>
+  </si>
+  <si>
+    <t>Вероника Демчогодин ребенок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+56, 1990 — 2024</t>
+  </si>
+  <si>
+    <t>Тайны любви
+Жена Сталина</t>
+  </si>
+  <si>
+    <t>Величайшее шоу на Земле!
+Семейка; Грач; Интерны;
+Жена Сталина</t>
+  </si>
+  <si>
+    <t>81, 2009 — 2026</t>
+  </si>
+  <si>
+    <t>Мир! Дружба! Жвачка!; Юность; Чужая дочь; «Везёт»; Жиза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Право выбора; Царевна-лягушка; Бременские музыканты; Молодой человек;
+Руки Вверх! </t>
   </si>
 </sst>
 </file>
@@ -2577,16 +2694,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
@@ -2766,138 +2883,126 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3">
         <v>2013</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>81</v>
@@ -2906,696 +3011,716 @@
         <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>2019</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2010</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C27" s="3">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
         <v>2024</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
         <v>2022</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2006</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C34" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C35" s="3">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3">
         <v>2025</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C40" s="3">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3959,7 +4084,7 @@
       <c r="H80" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A1:I1">
+  <sortState ref="A2:H44">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3972,10 +4097,10 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5305,13 +5430,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,278 +5818,391 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D13" s="19">
+        <v>45672</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F13" s="18">
+        <f ca="1">YEAR(TODAY())-E13</f>
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C14" s="2">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="D14" s="19">
-        <v>45672</v>
+        <v>45799</v>
       </c>
       <c r="E14" s="2">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="F14" s="18">
         <f ca="1">YEAR(TODAY())-E14</f>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>614</v>
+        <v>345</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>621</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C15" s="2">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="D15" s="19">
-        <v>45799</v>
+        <v>45708</v>
       </c>
       <c r="E15" s="2">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="F15" s="18">
         <f ca="1">YEAR(TODAY())-E15</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="19">
+        <v>45882</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F16" s="18">
+        <f ca="1">YEAR(TODAY())-E16</f>
+        <v>57</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="D17" s="19">
+        <v>45799</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1980</v>
+      </c>
+      <c r="F17" s="18">
+        <f ca="1">YEAR(TODAY())-E17</f>
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>181</v>
+        <v>574</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>297</v>
+        <v>673</v>
       </c>
       <c r="C18" s="2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D18" s="19">
-        <v>45882</v>
+        <v>45681</v>
       </c>
       <c r="E18" s="2">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="F18" s="18">
         <f ca="1">YEAR(TODAY())-E18</f>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>277</v>
+        <v>674</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I18" s="20"/>
+        <v>675</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>676</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>304</v>
+        <v>677</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>305</v>
+        <v>678</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>306</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>341</v>
+        <v>647</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="C19" s="2">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="D19" s="19">
-        <v>45799</v>
+        <v>46000</v>
       </c>
       <c r="E19" s="2">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="F19" s="18">
         <f ca="1">YEAR(TODAY())-E19</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>350</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I19" s="20"/>
+        <v>303</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>680</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>366</v>
+        <v>682</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D20" s="19">
+        <v>45823</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F20" s="18">
+        <f ca="1">YEAR(TODAY())-E20</f>
+        <v>48</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="D21" s="19">
+        <v>45703</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1978</v>
+      </c>
+      <c r="F21" s="18">
+        <f ca="1">YEAR(TODAY())-E21</f>
+        <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>331</v>
+        <v>471</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C22" s="2">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="D22" s="19">
-        <v>45823</v>
+        <v>45927</v>
       </c>
       <c r="E22" s="2">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="F22" s="18">
         <f ca="1">YEAR(TODAY())-E22</f>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>369</v>
+        <v>591</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>368</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="I22" s="20"/>
       <c r="J22" s="2" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>371</v>
+        <v>593</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>372</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5978,175 +6216,198 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>471</v>
+        <v>568</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="C24" s="2">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="D24" s="19">
-        <v>45927</v>
+        <v>45872</v>
       </c>
       <c r="E24" s="2">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="F24" s="18">
         <f ca="1">YEAR(TODAY())-E24</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="I24" s="20"/>
+        <v>602</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>603</v>
+      </c>
       <c r="J24" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>593</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D25" s="19">
+        <v>45777</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1982</v>
+      </c>
+      <c r="F25" s="18">
+        <f ca="1">YEAR(TODAY())-E25</f>
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>297</v>
+        <v>659</v>
       </c>
       <c r="C26" s="2">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="D26" s="19">
-        <v>45872</v>
+        <v>45760</v>
       </c>
       <c r="E26" s="2">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F26" s="18">
         <f ca="1">YEAR(TODAY())-E26</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>603</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="I26" s="20"/>
       <c r="J26" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="L26" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>297</v>
+        <v>689</v>
       </c>
       <c r="C27" s="2">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="D27" s="19">
-        <v>45777</v>
+        <v>45729</v>
       </c>
       <c r="E27" s="2">
-        <v>1982</v>
+        <v>1963</v>
       </c>
       <c r="F27" s="18">
         <f ca="1">YEAR(TODAY())-E27</f>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>627</v>
+        <v>690</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>312</v>
+        <v>691</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>628</v>
+        <v>692</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>659</v>
+        <v>454</v>
       </c>
       <c r="C28" s="2">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="D28" s="19">
-        <v>45760</v>
+        <v>45822</v>
       </c>
       <c r="E28" s="2">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F28" s="18">
         <f ca="1">YEAR(TODAY())-E28</f>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>663</v>
+        <v>591</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="2" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6162,7 +6423,7 @@
     </row>
     <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>643</v>
+        <v>550</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6178,7 +6439,7 @@
     </row>
     <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6192,25 +6453,44 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+        <v>340</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="D32" s="19">
+        <v>45875</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F32" s="18">
+        <f ca="1">YEAR(TODAY())-E32</f>
+        <v>35</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6224,223 +6504,204 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="D34" s="19">
-        <v>45875</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1990</v>
-      </c>
-      <c r="F34" s="18">
-        <f ca="1">YEAR(TODAY())-E34</f>
-        <v>35</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>391</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>567</v>
+        <v>475</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D36" s="19">
+        <v>45671</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F36" s="18">
+        <f ca="1">YEAR(TODAY())-E36</f>
+        <v>42</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="20"/>
+        <v>342</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D37" s="19">
+        <v>46013</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1956</v>
+      </c>
+      <c r="F37" s="18">
+        <f ca="1">YEAR(TODAY())-E37</f>
+        <v>69</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>345</v>
+      </c>
       <c r="I37" s="20"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="38" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C38" s="2">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="D38" s="19">
-        <v>45671</v>
+        <v>45797</v>
       </c>
       <c r="E38" s="2">
-        <v>1983</v>
+        <v>1967</v>
       </c>
       <c r="F38" s="18">
         <f ca="1">YEAR(TODAY())-E38</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D39" s="19">
-        <v>46013</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1956</v>
-      </c>
-      <c r="F39" s="18">
-        <f ca="1">YEAR(TODAY())-E39</f>
-        <v>69</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1.84</v>
-      </c>
-      <c r="D40" s="19">
-        <v>45797</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1967</v>
-      </c>
-      <c r="F40" s="18">
-        <f ca="1">YEAR(TODAY())-E40</f>
-        <v>58</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>640</v>
+        <v>555</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -6456,23 +6717,23 @@
     </row>
     <row r="43" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>472</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -6486,25 +6747,42 @@
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
     </row>
-    <row r="45" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+        <v>294</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D45" s="19">
+        <v>45675</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1971</v>
+      </c>
+      <c r="F45" s="18">
+        <f ca="1">YEAR(TODAY())-E45</f>
+        <v>54</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>654</v>
+        <v>539</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -6518,42 +6796,48 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="D47" s="19">
-        <v>45675</v>
+        <v>45847</v>
       </c>
       <c r="E47" s="2">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="F47" s="18">
         <f ca="1">YEAR(TODAY())-E47</f>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="I47" s="20"/>
+        <v>312</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>337</v>
+      </c>
       <c r="J47" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>539</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -6567,48 +6851,25 @@
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
     </row>
-    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="D49" s="19">
-        <v>45847</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1978</v>
-      </c>
-      <c r="F49" s="18">
-        <f ca="1">YEAR(TODAY())-E49</f>
-        <v>47</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>293</v>
+        <v>526</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6624,7 +6885,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6638,25 +6899,48 @@
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
+        <v>373</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D52" s="19">
+        <v>45861</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1984</v>
+      </c>
+      <c r="F52" s="18">
+        <f ca="1">YEAR(TODAY())-E52</f>
+        <v>41</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>523</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6672,46 +6956,46 @@
     </row>
     <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>443</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D54" s="19">
-        <v>45861</v>
+        <v>45731</v>
       </c>
       <c r="E54" s="2">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="F54" s="18">
         <f ca="1">YEAR(TODAY())-E54</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>444</v>
+        <v>298</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>446</v>
+        <v>321</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>447</v>
+        <v>317</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>449</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>373</v>
+        <v>634</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6725,48 +7009,25 @@
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
     </row>
-    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D56" s="19">
-        <v>45731</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1979</v>
-      </c>
-      <c r="F56" s="18">
-        <f ca="1">YEAR(TODAY())-E56</f>
-        <v>46</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>634</v>
+        <v>524</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6782,7 +7043,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>635</v>
+        <v>537</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6798,7 +7059,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>524</v>
+        <v>636</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6812,115 +7073,115 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D60" s="19">
+        <v>45928</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F60" s="18">
+        <f ca="1">YEAR(TODAY())-E60</f>
+        <v>27</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-    </row>
-    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D61" s="19">
+        <v>45860</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1966</v>
+      </c>
+      <c r="F61" s="18">
+        <f ca="1">YEAR(TODAY())-E61</f>
+        <v>59</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="19">
-        <v>45928</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1998</v>
-      </c>
-      <c r="F62" s="18">
-        <f ca="1">YEAR(TODAY())-E62</f>
-        <v>27</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D63" s="19">
-        <v>45860</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1966</v>
-      </c>
-      <c r="F63" s="18">
-        <f ca="1">YEAR(TODAY())-E63</f>
-        <v>59</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6934,25 +7195,48 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
+        <v>288</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D65" s="19">
+        <v>45709</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F65" s="18">
+        <f ca="1">YEAR(TODAY())-E65</f>
+        <v>48</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>516</v>
+        <v>288</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6966,64 +7250,62 @@
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
     </row>
-    <row r="67" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D67" s="19">
-        <v>45709</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1977</v>
-      </c>
-      <c r="F67" s="18">
-        <f ca="1">YEAR(TODAY())-E67</f>
-        <v>48</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+    </row>
+    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
+        <v>289</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D68" s="19">
+        <v>45730</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F68" s="18">
+        <f ca="1">YEAR(TODAY())-E68</f>
+        <v>33</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I68" s="20"/>
+      <c r="J68" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7039,44 +7321,46 @@
     </row>
     <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>289</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>454</v>
       </c>
       <c r="C70" s="2">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="D70" s="19">
-        <v>45730</v>
+        <v>45826</v>
       </c>
       <c r="E70" s="2">
-        <v>1992</v>
+        <v>1978</v>
       </c>
       <c r="F70" s="18">
         <f ca="1">YEAR(TODAY())-E70</f>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="H70" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="I70" s="20"/>
+      <c r="I70" s="20" t="s">
+        <v>480</v>
+      </c>
       <c r="J70" s="2" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7090,48 +7374,25 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
     </row>
-    <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="D72" s="19">
-        <v>45826</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1978</v>
-      </c>
-      <c r="F72" s="18">
-        <f ca="1">YEAR(TODAY())-E72</f>
-        <v>47</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>483</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7147,7 +7408,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7163,7 +7424,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7179,7 +7440,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7193,25 +7454,48 @@
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
+        <v>476</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D77" s="19">
+        <v>45745</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F77" s="18">
+        <f ca="1">YEAR(TODAY())-E77</f>
+        <v>42</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7225,48 +7509,25 @@
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
     </row>
-    <row r="79" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D79" s="19">
-        <v>45745</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1983</v>
-      </c>
-      <c r="F79" s="18">
-        <f ca="1">YEAR(TODAY())-E79</f>
-        <v>42</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>490</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>577</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7282,39 +7543,39 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>68</v>
+        <v>517</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7330,23 +7591,23 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>332</v>
+        <v>653</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7362,23 +7623,23 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>653</v>
+        <v>291</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7394,7 +7655,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7410,71 +7671,71 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>329</v>
+        <v>559</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>559</v>
+        <v>465</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7490,23 +7751,23 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>465</v>
+        <v>573</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7522,71 +7783,71 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>573</v>
+        <v>466</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="B97" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="D97" s="19">
+        <v>45670</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F97" s="18">
+        <f ca="1">YEAR(TODAY())-E97</f>
+        <v>37</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>466</v>
+        <v>644</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="19">
-        <v>45670</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F99" s="18">
-        <f ca="1">YEAR(TODAY())-E99</f>
-        <v>37</v>
-      </c>
-      <c r="G99" s="22"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
       <c r="J99" s="2"/>
@@ -7595,7 +7856,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7611,7 +7872,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7627,7 +7888,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>651</v>
+        <v>553</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7643,7 +7904,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>333</v>
+        <v>474</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7659,7 +7920,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7675,39 +7936,39 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>566</v>
+        <v>296</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7723,7 +7984,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7739,23 +8000,23 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>530</v>
+        <v>330</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7771,39 +8032,39 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>330</v>
+        <v>538</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>286</v>
+        <v>569</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7819,23 +8080,23 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="24"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7851,7 +8112,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>467</v>
+        <v>324</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7867,23 +8128,23 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>648</v>
+        <v>473</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7897,25 +8158,48 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D119" s="19">
+        <v>45942</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F119" s="18">
+        <f ca="1">YEAR(TODAY())-E119</f>
+        <v>37</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7929,64 +8213,41 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C121" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="D121" s="19">
-        <v>45942</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F121" s="18">
-        <f ca="1">YEAR(TODAY())-E121</f>
-        <v>37</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H121" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="I121" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>285</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>468</v>
+        <v>652</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>542</v>
+        <v>649</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8002,7 +8263,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8018,7 +8279,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8034,23 +8295,23 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>637</v>
+        <v>469</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>645</v>
+        <v>22</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8066,23 +8327,23 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8098,7 +8359,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8114,7 +8375,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8130,23 +8391,23 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>562</v>
+        <v>462</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8162,7 +8423,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>462</v>
+        <v>325</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8178,7 +8439,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>520</v>
+        <v>638</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8194,7 +8455,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8210,7 +8471,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>638</v>
+        <v>40</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8226,7 +8487,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8242,71 +8503,71 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="24"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>378</v>
+        <v>642</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>463</v>
+        <v>656</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>642</v>
+        <v>377</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="24"/>
-      <c r="L142" s="24"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8322,23 +8583,23 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>377</v>
+        <v>641</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>657</v>
+        <v>541</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8354,7 +8615,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8370,7 +8631,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8386,7 +8647,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8402,23 +8663,23 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>549</v>
+        <v>374</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="24"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>646</v>
+        <v>575</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8434,39 +8695,39 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>374</v>
+        <v>575</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>575</v>
+        <v>478</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="24"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="24"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8482,51 +8743,19 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>478</v>
+        <v>73</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="24"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="24"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="24"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A2:L183">
@@ -8541,11 +8770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="3"/>
+    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="716">
   <si>
     <t>Фильм</t>
   </si>
@@ -1298,10 +1298,6 @@
     <t>Актер, Актер дубляжа</t>
   </si>
   <si>
-    <t xml:space="preserve">
-комедия, драма, мелодрама</t>
-  </si>
-  <si>
     <t>Светлана Ходченкова (развод)</t>
   </si>
   <si>
@@ -2250,6 +2246,61 @@
   <si>
     <t xml:space="preserve">Право выбора; Царевна-лягушка; Бременские музыканты; Молодой человек;
 Руки Вверх! </t>
+  </si>
+  <si>
+    <t>Дмитрий Ендальцев</t>
+  </si>
+  <si>
+    <t>79, 2004 — 2025</t>
+  </si>
+  <si>
+    <t>Хоккейные папы; Я тебя люблю — Je t’aime;  Пророк. История Александра Пушкина;
+Ёлки 2</t>
+  </si>
+  <si>
+    <t>Пассажиры; Оттепель; Псих; Пассажиры. Последняя любовь на Земле; Победители</t>
+  </si>
+  <si>
+    <t>Миша Семичев</t>
+  </si>
+  <si>
+    <t>Роман Ким</t>
+  </si>
+  <si>
+    <t>Андрей Таратухин</t>
+  </si>
+  <si>
+    <t>Елена Вернер</t>
+  </si>
+  <si>
+    <t>Сценарист, Режиссер, Продюсер, Монтажер</t>
+  </si>
+  <si>
+    <t>Северодвинск, СССР</t>
+  </si>
+  <si>
+    <t>драма, боевик, приключения</t>
+  </si>
+  <si>
+    <t>19, 2000 — 2026</t>
+  </si>
+  <si>
+    <t>Чемпион мира; Слушая тишину; Кракен</t>
+  </si>
+  <si>
+    <t>Бригада; Операция «Мухаббат»; Седьмая руна</t>
+  </si>
+  <si>
+    <t>Баку, СССР</t>
+  </si>
+  <si>
+    <t>37, 2005 — 2025</t>
+  </si>
+  <si>
+    <t>Мое любимое привидение</t>
+  </si>
+  <si>
+    <t>Анна-детективъ; Последний аксель; Можете звать меня папой; Призрак; Тонкие материи</t>
   </si>
 </sst>
 </file>
@@ -2695,10 +2746,10 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -2750,7 +2801,7 @@
         <v>2025</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -2774,7 +2825,7 @@
         <v>2025</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -2798,7 +2849,7 @@
         <v>2025</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -2822,7 +2873,7 @@
         <v>2025</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -2846,7 +2897,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -2870,7 +2921,7 @@
         <v>2025</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -2885,7 +2936,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2906,7 +2957,7 @@
         <v>2013</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -2930,7 +2981,7 @@
         <v>2013</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -2954,7 +3005,7 @@
         <v>2016</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -2978,7 +3029,7 @@
         <v>2017</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>89</v>
@@ -3002,7 +3053,7 @@
         <v>2015</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>81</v>
@@ -3026,7 +3077,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>81</v>
@@ -3050,7 +3101,7 @@
         <v>2024</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -3074,7 +3125,7 @@
         <v>2019</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>127</v>
@@ -3098,7 +3149,7 @@
         <v>2023</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -3113,7 +3164,7 @@
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -3125,7 +3176,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -3146,7 +3197,7 @@
         <v>2021</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -3170,7 +3221,7 @@
         <v>2024</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -3194,7 +3245,7 @@
         <v>2025</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>28</v>
@@ -3209,7 +3260,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -3230,7 +3281,7 @@
         <v>2022</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -3254,7 +3305,7 @@
         <v>2022</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -3278,7 +3329,7 @@
         <v>2010</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -3302,7 +3353,7 @@
         <v>2010</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -3326,7 +3377,7 @@
         <v>2024</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -3350,7 +3401,7 @@
         <v>2025</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
@@ -3374,7 +3425,7 @@
         <v>2024</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>130</v>
@@ -3398,7 +3449,7 @@
         <v>2022</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>121</v>
@@ -3422,7 +3473,7 @@
         <v>2024</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -3446,7 +3497,7 @@
         <v>2022</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>28</v>
@@ -3470,7 +3521,7 @@
         <v>2023</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -3494,7 +3545,7 @@
         <v>2006</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>152</v>
@@ -3518,7 +3569,7 @@
         <v>2023</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3542,7 +3593,7 @@
         <v>2025</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>127</v>
@@ -3566,7 +3617,7 @@
         <v>2025</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -3590,7 +3641,7 @@
         <v>2025</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
@@ -3614,7 +3665,7 @@
         <v>2016</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -3638,7 +3689,7 @@
         <v>2018</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
@@ -3662,7 +3713,7 @@
         <v>2021</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -3686,7 +3737,7 @@
         <v>2025</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
@@ -3710,7 +3761,7 @@
         <v>2025</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -4096,11 +4147,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,10 +4506,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4493,7 +4544,7 @@
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>230</v>
@@ -4508,10 +4559,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -4757,25 +4808,25 @@
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D28" s="3">
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -5433,10 +5484,10 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5546,7 @@
     </row>
     <row r="2" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5548,7 +5599,7 @@
     </row>
     <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5564,10 +5615,10 @@
     </row>
     <row r="5" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C5" s="2">
         <v>1.92</v>
@@ -5586,24 +5637,24 @@
         <v>298</v>
       </c>
       <c r="H5" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5619,7 +5670,7 @@
     </row>
     <row r="7" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5648,7 +5699,7 @@
         <v>1980</v>
       </c>
       <c r="F8" s="18">
-        <f ca="1">YEAR(TODAY())-E8</f>
+        <f t="shared" ref="F8:F23" ca="1" si="0">YEAR(TODAY())-E8</f>
         <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5685,7 +5736,7 @@
         <v>1969</v>
       </c>
       <c r="F9" s="18">
-        <f ca="1">YEAR(TODAY())-E9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -5724,7 +5775,7 @@
         <v>1974</v>
       </c>
       <c r="F10" s="18">
-        <f ca="1">YEAR(TODAY())-E10</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -5748,10 +5799,10 @@
     </row>
     <row r="11" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C11" s="2">
         <v>1.7</v>
@@ -5763,7 +5814,7 @@
         <v>1968</v>
       </c>
       <c r="F11" s="18">
-        <f ca="1">YEAR(TODAY())-E11</f>
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5773,16 +5824,16 @@
         <v>345</v>
       </c>
       <c r="I11" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5802,7 +5853,7 @@
         <v>2000</v>
       </c>
       <c r="F12" s="18">
-        <f ca="1">YEAR(TODAY())-E12</f>
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
@@ -5820,7 +5871,7 @@
     </row>
     <row r="13" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>343</v>
@@ -5835,29 +5886,29 @@
         <v>1983</v>
       </c>
       <c r="F13" s="18">
-        <f ca="1">YEAR(TODAY())-E13</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>343</v>
@@ -5872,31 +5923,31 @@
         <v>1994</v>
       </c>
       <c r="F14" s="18">
-        <f ca="1">YEAR(TODAY())-E14</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>345</v>
       </c>
       <c r="I14" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>343</v>
@@ -5911,26 +5962,26 @@
         <v>1996</v>
       </c>
       <c r="F15" s="18">
-        <f ca="1">YEAR(TODAY())-E15</f>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>312</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>667</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5950,7 +6001,7 @@
         <v>1968</v>
       </c>
       <c r="F16" s="18">
-        <f ca="1">YEAR(TODAY())-E16</f>
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -5987,7 +6038,7 @@
         <v>1980</v>
       </c>
       <c r="F17" s="18">
-        <f ca="1">YEAR(TODAY())-E17</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -6009,10 +6060,10 @@
     </row>
     <row r="18" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C18" s="2">
         <v>1.7</v>
@@ -6024,34 +6075,34 @@
         <v>1975</v>
       </c>
       <c r="F18" s="18">
-        <f ca="1">YEAR(TODAY())-E18</f>
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C19" s="2">
         <v>1.62</v>
@@ -6063,7 +6114,7 @@
         <v>1990</v>
       </c>
       <c r="F19" s="18">
-        <f ca="1">YEAR(TODAY())-E19</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -6073,16 +6124,16 @@
         <v>303</v>
       </c>
       <c r="I19" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -6102,7 +6153,7 @@
         <v>1977</v>
       </c>
       <c r="F20" s="18">
-        <f ca="1">YEAR(TODAY())-E20</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -6115,7 +6166,7 @@
         <v>368</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>371</v>
@@ -6126,7 +6177,7 @@
     </row>
     <row r="21" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>343</v>
@@ -6141,31 +6192,31 @@
         <v>1978</v>
       </c>
       <c r="F21" s="18">
-        <f ca="1">YEAR(TODAY())-E21</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>312</v>
       </c>
       <c r="I21" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>343</v>
@@ -6180,45 +6231,68 @@
         <v>1999</v>
       </c>
       <c r="F22" s="18">
-        <f ca="1">YEAR(TODAY())-E22</f>
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>345</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+        <v>657</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="D23" s="19">
+        <v>45824</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1987</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>297</v>
@@ -6237,25 +6311,25 @@
         <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="I24" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>603</v>
-      </c>
       <c r="J24" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>297</v>
@@ -6274,30 +6348,30 @@
         <v>43</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>312</v>
       </c>
       <c r="I25" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C26" s="2">
         <v>1.75</v>
@@ -6313,28 +6387,28 @@
         <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>345</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C27" s="2">
         <v>1.69</v>
@@ -6350,30 +6424,30 @@
         <v>62</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="I27" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="J27" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" s="2">
         <v>1.63</v>
@@ -6389,25 +6463,25 @@
         <v>23</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>312</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6423,7 +6497,7 @@
     </row>
     <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6439,7 +6513,7 @@
     </row>
     <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6490,7 +6564,7 @@
     </row>
     <row r="33" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6506,7 +6580,7 @@
     </row>
     <row r="34" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6522,7 +6596,7 @@
     </row>
     <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6563,16 +6637,16 @@
         <v>303</v>
       </c>
       <c r="I36" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -6596,20 +6670,20 @@
         <v>69</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>345</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -6617,7 +6691,7 @@
         <v>376</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C38" s="2">
         <v>1.84</v>
@@ -6633,27 +6707,27 @@
         <v>58</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I38" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="I38" s="20" t="s">
+      <c r="J38" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -6669,7 +6743,7 @@
     </row>
     <row r="40" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -6685,7 +6759,7 @@
     </row>
     <row r="41" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6701,7 +6775,7 @@
     </row>
     <row r="42" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -6733,7 +6807,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -6782,7 +6856,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -6853,7 +6927,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -6869,7 +6943,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6885,7 +6959,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6904,7 +6978,7 @@
         <v>373</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C52" s="2">
         <v>1.7</v>
@@ -6920,22 +6994,22 @@
         <v>41</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="I52" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="J52" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -6995,7 +7069,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7011,7 +7085,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7027,7 +7101,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7043,7 +7117,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -7059,7 +7133,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -7149,7 +7223,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -7165,7 +7239,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -7181,7 +7255,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7222,16 +7296,16 @@
         <v>364</v>
       </c>
       <c r="I65" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -7252,7 +7326,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7271,7 +7345,7 @@
         <v>289</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2">
         <v>1.7</v>
@@ -7287,25 +7361,25 @@
         <v>33</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H68" s="20" t="s">
         <v>303</v>
       </c>
       <c r="I68" s="20"/>
       <c r="J68" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7321,10 +7395,10 @@
     </row>
     <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2">
         <v>1.55</v>
@@ -7340,27 +7414,27 @@
         <v>47</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H70" s="20" t="s">
         <v>303</v>
       </c>
       <c r="I70" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7376,7 +7450,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7392,7 +7466,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7408,7 +7482,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7424,7 +7498,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7440,7 +7514,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7456,10 +7530,10 @@
     </row>
     <row r="77" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C77" s="2">
         <v>1.85</v>
@@ -7475,27 +7549,27 @@
         <v>42</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H77" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="H77" s="20" t="s">
+      <c r="I77" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="J77" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7543,7 +7617,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7575,7 +7649,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7591,7 +7665,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7607,7 +7681,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7639,7 +7713,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7671,7 +7745,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7687,7 +7761,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7703,7 +7777,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7719,7 +7793,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7735,7 +7809,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7751,7 +7825,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7767,7 +7841,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7783,7 +7857,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7824,7 +7898,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7856,7 +7930,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7888,7 +7962,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7904,7 +7978,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7920,7 +7994,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7936,7 +8010,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7968,7 +8042,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8032,7 +8106,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8048,7 +8122,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8064,7 +8138,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8080,7 +8154,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8096,7 +8170,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8128,7 +8202,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8199,7 +8273,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8215,7 +8289,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8231,7 +8305,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8247,7 +8321,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8263,7 +8337,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8279,7 +8353,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8295,7 +8369,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8327,7 +8401,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8343,7 +8417,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8359,7 +8433,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8375,7 +8449,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8391,7 +8465,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8407,7 +8481,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8439,7 +8513,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8503,7 +8577,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8519,7 +8593,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8535,7 +8609,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8567,7 +8641,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8583,7 +8657,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8599,7 +8673,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8615,7 +8689,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8631,7 +8705,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8647,7 +8721,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8679,7 +8753,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8695,7 +8769,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8711,7 +8785,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8727,7 +8801,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8768,13 +8842,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8832,120 +8906,78 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="B4" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="27">
         <v>1.68</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D4" s="19">
         <v>45785</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E4" s="27">
         <v>1964</v>
-      </c>
-      <c r="F2" s="18">
-        <f ca="1">YEAR(TODAY())-E2</f>
-        <v>61</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="C3" s="27">
-        <v>1.75</v>
-      </c>
-      <c r="D3" s="19">
-        <v>45939</v>
-      </c>
-      <c r="E3" s="27">
-        <v>1984</v>
-      </c>
-      <c r="F3" s="18">
-        <f ca="1">YEAR(TODAY())-E3</f>
-        <v>41</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" s="27">
-        <v>1.75</v>
-      </c>
-      <c r="D4" s="19">
-        <v>45944</v>
-      </c>
-      <c r="E4" s="27">
-        <v>1993</v>
       </c>
       <c r="F4" s="18">
         <f ca="1">YEAR(TODAY())-E4</f>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>588</v>
+        <v>298</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="K4" s="27"/>
+        <v>578</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>579</v>
+      </c>
       <c r="L4" s="27" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -8959,73 +8991,153 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1.75</v>
+      </c>
+      <c r="D6" s="19">
+        <v>45939</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="18">
+        <f ca="1">YEAR(TODAY())-E6</f>
+        <v>41</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+        <v>511</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1.75</v>
+      </c>
+      <c r="D7" s="19">
+        <v>45944</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1993</v>
+      </c>
+      <c r="F7" s="18">
+        <f ca="1">YEAR(TODAY())-E7</f>
+        <v>32</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="27" t="s">
+        <v>588</v>
+      </c>
       <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="27" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="B8" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>706</v>
+      </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="D8" s="19">
+        <v>45891</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1968</v>
+      </c>
+      <c r="F8" s="18">
+        <f ca="1">YEAR(TODAY())-E8</f>
+        <v>57</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>708</v>
+      </c>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>586</v>
+      </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="19">
+        <v>45707</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1978</v>
+      </c>
+      <c r="F9" s="27">
+        <f ca="1">YEAR(TODAY())-E9</f>
+        <v>47</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>345</v>
+      </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="J9" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -9041,7 +9153,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>492</v>
+        <v>704</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -9057,7 +9169,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -9073,7 +9185,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -9089,7 +9201,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -9105,7 +9217,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>513</v>
+        <v>132</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -9121,7 +9233,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>500</v>
+        <v>37</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -9137,7 +9249,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>169</v>
+        <v>490</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -9153,7 +9265,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -9169,7 +9281,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -9201,7 +9313,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>186</v>
+        <v>506</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -9217,7 +9329,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>166</v>
+        <v>512</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -9233,7 +9345,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -9249,7 +9361,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -9265,7 +9377,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>495</v>
+        <v>223</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -9281,7 +9393,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -9297,7 +9409,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>503</v>
+        <v>169</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -9313,7 +9425,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -9329,7 +9441,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>511</v>
+        <v>111</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -9345,7 +9457,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>248</v>
+        <v>497</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -9361,7 +9473,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -9377,7 +9489,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>505</v>
+        <v>35</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -9393,7 +9505,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>494</v>
+        <v>186</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -9409,7 +9521,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -9425,7 +9537,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>496</v>
+        <v>67</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -9441,7 +9553,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -9457,7 +9569,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>180</v>
+        <v>705</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -9473,7 +9585,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -9489,7 +9601,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>510</v>
+        <v>8</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -9505,7 +9617,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -9521,7 +9633,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -9537,7 +9649,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -9553,7 +9665,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>54</v>
+        <v>502</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -9569,7 +9681,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -9585,7 +9697,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -9601,7 +9713,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -9617,7 +9729,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -9633,7 +9745,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -9649,7 +9761,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -9663,8 +9775,456 @@
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:L49">
+  <sortState ref="A2:L82">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9677,7 +10237,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9685,7 +10245,7 @@
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <sortState ref="A1:A97">
+  <sortState ref="A1:A43">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="804">
   <si>
     <t>Фильм</t>
   </si>
@@ -2476,6 +2476,114 @@
   </si>
   <si>
     <t>Про это самое; Порт; Кибердеревня; Склифосовский; Шторм</t>
+  </si>
+  <si>
+    <t>Актер, Продюсер, Режиссер, Сценарист</t>
+  </si>
+  <si>
+    <t>Дарья Авратинская</t>
+  </si>
+  <si>
+    <t>83, 2006 — 2026</t>
+  </si>
+  <si>
+    <t>Все хорошо; Чемпионы: Быстрее. Выше. Сильнее; Тайны любви; Волшебник Изумрудного города. Дорога из жёлтого кирпича; 
+Зимний путь</t>
+  </si>
+  <si>
+    <t>Титаник; Психологини; Химера; 
+257 причин, чтобы жить; Филатов</t>
+  </si>
+  <si>
+    <t>Потсдам, ГДР</t>
+  </si>
+  <si>
+    <t>Леонид Фомин
+Александр Яцко (развод) двое детей</t>
+  </si>
+  <si>
+    <t>152, 1974 — 2025</t>
+  </si>
+  <si>
+    <t>Формула любви; Последний богатырь: Посланник Тьмы; Не хочу быть взрослым; Старые шишки; Вызов</t>
+  </si>
+  <si>
+    <t>Цирк!; ИП Пирогова; Мужики и бабы; Корни; Семья</t>
+  </si>
+  <si>
+    <t>Минусинск, СССР</t>
+  </si>
+  <si>
+    <t>комедия, драма, приключения</t>
+  </si>
+  <si>
+    <t>59, 2008 — 2025</t>
+  </si>
+  <si>
+    <t>Поехавшая; Мистер Нокаут; Последний богатырь: Корень зла; Всё, что тебя касается; Последний богатырь</t>
+  </si>
+  <si>
+    <t>Последний богатырь. Наследие; Кухня; Молодая гвардия; Офицерские жены;
+Родком</t>
+  </si>
+  <si>
+    <t>спорт, драма</t>
+  </si>
+  <si>
+    <t>1 ч 57 мин</t>
+  </si>
+  <si>
+    <t>Артём Михалков</t>
+  </si>
+  <si>
+    <t>Виктор Хориняк, Сергей Безруков, Ангелина Стречина, Инга Оболдина, Евгения Дмитриева</t>
+  </si>
+  <si>
+    <t>Мария Зимина
+двое детей</t>
+  </si>
+  <si>
+    <t>94, 2000 — 2025</t>
+  </si>
+  <si>
+    <t>Иваново счастье. Новые истории; Придел Ангела; Поехавшая; Серебряные коньки; Мужу привет</t>
+  </si>
+  <si>
+    <t>Последний богатырь. Наследие; Вампиры средней полосы; Телохранители; Большая секунда; 13 клиническая</t>
+  </si>
+  <si>
+    <t>Алиса Шер (развод)
+один ребенок</t>
+  </si>
+  <si>
+    <t>157, 1974 — 2025</t>
+  </si>
+  <si>
+    <t>Чистилище; Гудбай, Америка; Убийство в «Гнезде фазана»; Непрощенный; Палач</t>
+  </si>
+  <si>
+    <t>Кухня; Каменская; Катя: Военная история; О чём говорят мужчины. Простые удовольствия; Физрук</t>
+  </si>
+  <si>
+    <t>Гудбай, Америка</t>
+  </si>
+  <si>
+    <t>мелодрама, комедия</t>
+  </si>
+  <si>
+    <t>1 ч 41 мин</t>
+  </si>
+  <si>
+    <t>Дмитрий Нагиев, Владимир Яглыч, Лиза Моряк, Юрий Стоянов, Лянка Грыу, Надежда Михалкова, Грант Тохатян</t>
+  </si>
+  <si>
+    <t>2 ч 28 мин</t>
+  </si>
+  <si>
+    <t>Никита Высоцкий, Илья Лебедев, Дмитрий Иосифов</t>
+  </si>
+  <si>
+    <t>Ангелина Стречина, Роман Мадянов, Игорь Петренко, Алёна Бабенко</t>
   </si>
 </sst>
 </file>
@@ -2900,15 +3008,15 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
@@ -3100,16 +3208,28 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3162,88 +3282,88 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>797</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>798</v>
       </c>
       <c r="C12" s="3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>416</v>
+        <v>799</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>208</v>
+        <v>800</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>81</v>
@@ -3252,97 +3372,109 @@
         <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>2019</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -3352,237 +3484,225 @@
       <c r="G20" s="2"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>2021</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>2025</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>669</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>785</v>
       </c>
       <c r="C26" s="3">
         <v>2022</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>425</v>
+        <v>786</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>258</v>
+        <v>787</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>259</v>
+        <v>788</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C30" s="3">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -3591,373 +3711,401 @@
         <v>2024</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3">
         <v>2024</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3">
         <v>2022</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3">
         <v>2023</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3">
         <v>2025</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C43" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,7 +4439,7 @@
       <c r="H80" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H45">
+  <sortState ref="A2:H47">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,10 +4452,10 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5665,13 +5813,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5685,8 +5833,8 @@
     <col min="8" max="8" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="22" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5867,7 +6015,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>334</v>
       </c>
@@ -5902,7 +6050,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>287</v>
       </c>
@@ -5974,7 +6122,7 @@
         <v>1974</v>
       </c>
       <c r="F11" s="14">
-        <f ca="1">YEAR(TODAY())-E11</f>
+        <f t="shared" ref="F11:F16" ca="1" si="0">YEAR(TODAY())-E11</f>
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5996,7 +6144,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>529</v>
       </c>
@@ -6013,7 +6161,7 @@
         <v>1968</v>
       </c>
       <c r="F12" s="14">
-        <f ca="1">YEAR(TODAY())-E12</f>
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -6035,7 +6183,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>326</v>
       </c>
@@ -6052,7 +6200,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="14">
-        <f ca="1">YEAR(TODAY())-E13</f>
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="G13" s="2"/>
@@ -6068,7 +6216,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>610</v>
       </c>
@@ -6085,7 +6233,7 @@
         <v>1983</v>
       </c>
       <c r="F14" s="14">
-        <f ca="1">YEAR(TODAY())-E14</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -6105,7 +6253,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>520</v>
       </c>
@@ -6122,7 +6270,7 @@
         <v>1994</v>
       </c>
       <c r="F15" s="14">
-        <f ca="1">YEAR(TODAY())-E15</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -6161,7 +6309,7 @@
         <v>1996</v>
       </c>
       <c r="F16" s="14">
-        <f ca="1">YEAR(TODAY())-E16</f>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -6306,7 +6454,7 @@
         <v>1975</v>
       </c>
       <c r="F21" s="14">
-        <f ca="1">YEAR(TODAY())-E21</f>
+        <f t="shared" ref="F21:F34" ca="1" si="1">YEAR(TODAY())-E21</f>
         <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -6345,7 +6493,7 @@
         <v>1990</v>
       </c>
       <c r="F22" s="14">
-        <f ca="1">YEAR(TODAY())-E22</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -6367,7 +6515,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>331</v>
       </c>
@@ -6384,7 +6532,7 @@
         <v>1977</v>
       </c>
       <c r="F23" s="14">
-        <f ca="1">YEAR(TODAY())-E23</f>
+        <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -6423,7 +6571,7 @@
         <v>1978</v>
       </c>
       <c r="F24" s="14">
-        <f ca="1">YEAR(TODAY())-E24</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -6462,7 +6610,7 @@
         <v>1999</v>
       </c>
       <c r="F25" s="14">
-        <f ca="1">YEAR(TODAY())-E25</f>
+        <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -6482,7 +6630,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>656</v>
       </c>
@@ -6499,7 +6647,7 @@
         <v>1987</v>
       </c>
       <c r="F26" s="14">
-        <f ca="1">YEAR(TODAY())-E26</f>
+        <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -6538,7 +6686,7 @@
         <v>1992</v>
       </c>
       <c r="F27" s="14">
-        <f ca="1">YEAR(TODAY())-E27</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -6575,7 +6723,7 @@
         <v>1982</v>
       </c>
       <c r="F28" s="14">
-        <f ca="1">YEAR(TODAY())-E28</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6597,7 +6745,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>556</v>
       </c>
@@ -6614,7 +6762,7 @@
         <v>1991</v>
       </c>
       <c r="F29" s="14">
-        <f ca="1">YEAR(TODAY())-E29</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -6651,7 +6799,7 @@
         <v>1963</v>
       </c>
       <c r="F30" s="14">
-        <f ca="1">YEAR(TODAY())-E30</f>
+        <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -6673,7 +6821,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>641</v>
       </c>
@@ -6690,7 +6838,7 @@
         <v>2002</v>
       </c>
       <c r="F31" s="14">
-        <f ca="1">YEAR(TODAY())-E31</f>
+        <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -6727,7 +6875,7 @@
         <v>1996</v>
       </c>
       <c r="F32" s="14">
-        <f ca="1">YEAR(TODAY())-E32</f>
+        <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -6761,23 +6909,44 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="16"/>
+      <c r="B34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="D34" s="15">
+        <v>45738</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>781</v>
+      </c>
       <c r="I34" s="16"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>339</v>
       </c>
@@ -6904,7 +7073,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>335</v>
       </c>
@@ -6921,7 +7090,7 @@
         <v>1983</v>
       </c>
       <c r="F39" s="14">
-        <f ca="1">YEAR(TODAY())-E39</f>
+        <f t="shared" ref="F39:F45" ca="1" si="2">YEAR(TODAY())-E39</f>
         <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -6943,7 +7112,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>341</v>
       </c>
@@ -6960,7 +7129,7 @@
         <v>1956</v>
       </c>
       <c r="F40" s="14">
-        <f ca="1">YEAR(TODAY())-E40</f>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -6980,7 +7149,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>375</v>
       </c>
@@ -6997,7 +7166,7 @@
         <v>1967</v>
       </c>
       <c r="F41" s="14">
-        <f ca="1">YEAR(TODAY())-E41</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -7019,7 +7188,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>532</v>
       </c>
@@ -7036,7 +7205,7 @@
         <v>1985</v>
       </c>
       <c r="F42" s="14">
-        <f ca="1">YEAR(TODAY())-E42</f>
+        <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -7058,7 +7227,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>638</v>
       </c>
@@ -7075,7 +7244,7 @@
         <v>1992</v>
       </c>
       <c r="F43" s="14">
-        <f ca="1">YEAR(TODAY())-E43</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -7114,7 +7283,7 @@
         <v>1982</v>
       </c>
       <c r="F44" s="14">
-        <f ca="1">YEAR(TODAY())-E44</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -7136,7 +7305,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>553</v>
       </c>
@@ -7153,7 +7322,7 @@
         <v>1997</v>
       </c>
       <c r="F45" s="14">
-        <f ca="1">YEAR(TODAY())-E45</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -7254,7 +7423,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>293</v>
       </c>
@@ -7293,41 +7462,87 @@
         <v>315</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D51" s="15">
+        <v>45844</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1982</v>
+      </c>
+      <c r="F51" s="14">
+        <f ca="1">YEAR(TODAY())-E51</f>
+        <v>43</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="D52" s="15">
+        <v>45751</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1967</v>
+      </c>
+      <c r="F52" s="14">
+        <f ca="1">YEAR(TODAY())-E52</f>
+        <v>58</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7341,119 +7556,165 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D54" s="15">
+        <v>45861</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1984</v>
+      </c>
+      <c r="F54" s="14">
+        <f ca="1">YEAR(TODAY())-E54</f>
+        <v>41</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="C55" s="2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D55" s="15">
-        <v>45861</v>
+        <v>45731</v>
       </c>
       <c r="E55" s="2">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="F55" s="14">
         <f ca="1">YEAR(TODAY())-E55</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>442</v>
+        <v>298</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>443</v>
+        <v>312</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>290</v>
+        <v>632</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>316</v>
+        <v>770</v>
       </c>
       <c r="C56" s="2">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="D56" s="15">
-        <v>45731</v>
+        <v>45747</v>
       </c>
       <c r="E56" s="2">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="F56" s="14">
         <f ca="1">YEAR(TODAY())-E56</f>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>312</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>321</v>
+        <v>771</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>317</v>
+        <v>772</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>318</v>
+        <v>773</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="D57" s="15">
+        <v>46000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1962</v>
+      </c>
+      <c r="F57" s="14">
+        <f ca="1">YEAR(TODAY())-E57</f>
+        <v>63</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>633</v>
+        <v>522</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -7469,7 +7730,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -7485,7 +7746,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -7499,99 +7760,99 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="16"/>
+      <c r="D61" s="15">
+        <v>45928</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F61" s="14">
+        <f ca="1">YEAR(TODAY())-E61</f>
+        <v>27</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>379</v>
+      </c>
       <c r="I61" s="16"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1.8</v>
+      </c>
       <c r="D62" s="15">
-        <v>45928</v>
+        <v>45860</v>
       </c>
       <c r="E62" s="2">
-        <v>1998</v>
+        <v>1966</v>
       </c>
       <c r="F62" s="14">
         <f ca="1">YEAR(TODAY())-E62</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="I62" s="16"/>
+        <v>303</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="J62" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D63" s="15">
-        <v>45860</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1966</v>
-      </c>
-      <c r="F63" s="14">
-        <f ca="1">YEAR(TODAY())-E63</f>
-        <v>59</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>388</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7607,7 +7868,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -7621,172 +7882,172 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D66" s="15">
+        <v>45709</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F66" s="14">
+        <f ca="1">YEAR(TODAY())-E66</f>
+        <v>48</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D67" s="15">
-        <v>45709</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1977</v>
-      </c>
-      <c r="F67" s="14">
-        <f ca="1">YEAR(TODAY())-E67</f>
-        <v>48</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="16"/>
+        <v>289</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D68" s="15">
+        <v>45730</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F68" s="14">
+        <f ca="1">YEAR(TODAY())-E68</f>
+        <v>33</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="I68" s="16"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="J68" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B69" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C69" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="D69" s="15">
-        <v>45730</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1992</v>
-      </c>
-      <c r="F69" s="14">
-        <f ca="1">YEAR(TODAY())-E69</f>
-        <v>33</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H69" s="16" t="s">
+      <c r="C70" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="D70" s="15">
+        <v>45826</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1978</v>
+      </c>
+      <c r="F70" s="14">
+        <f ca="1">YEAR(TODAY())-E70</f>
+        <v>47</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I70" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="D71" s="15">
-        <v>45826</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1978</v>
-      </c>
-      <c r="F71" s="14">
-        <f ca="1">YEAR(TODAY())-E71</f>
-        <v>47</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>481</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7802,7 +8063,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7818,7 +8079,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7834,7 +8095,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7850,7 +8111,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>544</v>
+        <v>648</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7864,64 +8125,64 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D77" s="15">
+        <v>45745</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1983</v>
+      </c>
+      <c r="F77" s="14">
+        <f ca="1">YEAR(TODAY())-E77</f>
+        <v>42</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D78" s="15">
-        <v>45745</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1983</v>
-      </c>
-      <c r="F78" s="14">
-        <f ca="1">YEAR(TODAY())-E78</f>
-        <v>42</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7937,7 +8198,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>575</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7953,7 +8214,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7969,7 +8230,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7985,7 +8246,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>515</v>
+        <v>332</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8001,7 +8262,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>332</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8017,7 +8278,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>562</v>
+        <v>651</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8033,7 +8294,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>651</v>
+        <v>543</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8049,7 +8310,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>543</v>
+        <v>291</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8065,7 +8326,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>291</v>
+        <v>549</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8081,7 +8342,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>549</v>
+        <v>329</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8097,7 +8358,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -8113,7 +8374,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>462</v>
+        <v>557</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8129,7 +8390,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8145,7 +8406,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>538</v>
+        <v>463</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8161,7 +8422,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8177,7 +8438,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8193,7 +8454,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8209,7 +8470,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>653</v>
+        <v>464</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8223,41 +8484,41 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B98" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="2"/>
+      <c r="D98" s="15">
+        <v>45670</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F98" s="14">
+        <f ca="1">YEAR(TODAY())-E98</f>
+        <v>37</v>
+      </c>
+      <c r="G98" s="18"/>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="15">
-        <v>45670</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F99" s="14">
-        <f ca="1">YEAR(TODAY())-E99</f>
-        <v>37</v>
-      </c>
-      <c r="G99" s="18"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="2"/>
@@ -8266,7 +8527,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>642</v>
+        <v>766</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8282,7 +8543,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>766</v>
+        <v>295</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8298,7 +8559,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>295</v>
+        <v>649</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8314,7 +8575,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>649</v>
+        <v>333</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8330,7 +8591,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>333</v>
+        <v>551</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8346,7 +8607,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>551</v>
+        <v>472</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8362,7 +8623,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>472</v>
+        <v>564</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8378,7 +8639,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8394,7 +8655,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>526</v>
+        <v>296</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8410,7 +8671,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>296</v>
+        <v>528</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8426,7 +8687,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>528</v>
+        <v>374</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8442,7 +8703,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8458,7 +8719,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8474,7 +8735,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>286</v>
+        <v>536</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8490,7 +8751,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8506,7 +8767,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8522,7 +8783,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>563</v>
+        <v>465</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8538,7 +8799,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>465</v>
+        <v>646</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8554,7 +8815,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>646</v>
+        <v>324</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8570,7 +8831,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>324</v>
+        <v>471</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8586,7 +8847,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>471</v>
+        <v>327</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8600,64 +8861,64 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D121" s="15">
+        <v>45942</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F121" s="14">
+        <f ca="1">YEAR(TODAY())-E121</f>
+        <v>37</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="D122" s="15">
-        <v>45942</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F122" s="14">
-        <f ca="1">YEAR(TODAY())-E122</f>
-        <v>37</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H122" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="I122" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>285</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>466</v>
+        <v>540</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8673,7 +8934,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8689,7 +8950,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8705,7 +8966,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8721,7 +8982,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8737,7 +8998,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>643</v>
+        <v>467</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8753,7 +9014,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>467</v>
+        <v>22</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8769,7 +9030,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>22</v>
+        <v>519</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8785,7 +9046,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8801,7 +9062,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8817,7 +9078,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8833,7 +9094,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8849,7 +9110,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8865,7 +9126,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>518</v>
+        <v>325</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8881,7 +9142,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>325</v>
+        <v>636</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8897,7 +9158,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>636</v>
+        <v>336</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8913,7 +9174,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8929,7 +9190,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8945,7 +9206,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>377</v>
+        <v>765</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8961,7 +9222,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>765</v>
+        <v>461</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8977,7 +9238,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>461</v>
+        <v>640</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8993,7 +9254,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -9009,7 +9270,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>654</v>
+        <v>376</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9025,7 +9286,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>376</v>
+        <v>655</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9041,7 +9302,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9057,7 +9318,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>639</v>
+        <v>539</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9073,7 +9334,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9089,7 +9350,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9105,7 +9366,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9121,7 +9382,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>644</v>
+        <v>373</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9137,7 +9398,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9153,7 +9414,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>573</v>
+        <v>476</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9169,7 +9430,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9185,7 +9446,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>561</v>
+        <v>73</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9200,9 +9461,7 @@
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="A157" s="14"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -9214,20 +9473,6 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="16"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:L163">

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="833">
   <si>
     <t>Фильм</t>
   </si>
@@ -2584,6 +2584,96 @@
   </si>
   <si>
     <t>Ангелина Стречина, Роман Мадянов, Игорь Петренко, Алёна Бабенко</t>
+  </si>
+  <si>
+    <t>73, 2002 — 2025</t>
+  </si>
+  <si>
+    <t>Красный шелк; Буду помнить; О чём говорят мужчины; О чём говорят мужчины. Продолжение; 
+Манюня в кино</t>
+  </si>
+  <si>
+    <t>Кухня; Наследники. Дар крови; Последний аксель; Виноделы;
+ИП Пирогова</t>
+  </si>
+  <si>
+    <t>Красный шелк</t>
+  </si>
+  <si>
+    <t>О чём говорят мужчины</t>
+  </si>
+  <si>
+    <t>О чём говорят мужчины. Продолжение</t>
+  </si>
+  <si>
+    <t>1 ч 39 мин</t>
+  </si>
+  <si>
+    <t>Флюза Фархшатова</t>
+  </si>
+  <si>
+    <t>Леонид Барац, Александр Демидов, Камиль Ларин, Ростислав Хаит, Алексей Барабаш, Алексей Колубков, Леонид Каневский, Ольга Волкова, Елена Подкаминская, Татьяна Догилева</t>
+  </si>
+  <si>
+    <t>детектив, боевик</t>
+  </si>
+  <si>
+    <t>2 ч 26 мин</t>
+  </si>
+  <si>
+    <t>Андрей Волгин</t>
+  </si>
+  <si>
+    <t>Милош Бикович, Глеб Калюжный, Елена Подкаминская, Чжэн Ханьи, Гоша Куценко, Ирина Алферова, Дмитрий Куличков</t>
+  </si>
+  <si>
+    <t>Леонид Барац, Александр Демидов, Камиль Ларин, Ростислав Хаит, Нонна Гришаева, Нина Русланова, Жанна Фриске, Сергей Никоненко, Фёдор Добронравов, Андрей Макаревич</t>
+  </si>
+  <si>
+    <t>Сызрань, Россия</t>
+  </si>
+  <si>
+    <t>11, 2022 — 2025</t>
+  </si>
+  <si>
+    <t>Комбинация; Надвое; Слово пацана. Кровь на асфальте; ГДР</t>
+  </si>
+  <si>
+    <t>Новосибирск, СССР</t>
+  </si>
+  <si>
+    <t>49, 2007 — 2026</t>
+  </si>
+  <si>
+    <t>Стрельцов; Балканский рубеж; Новогодний шеф; Август; Призрак</t>
+  </si>
+  <si>
+    <t>Мафия — дело семейное; Охота на крылатого льва; Между нами, девочками; Склифосовский; 
+Возвращение домой</t>
+  </si>
+  <si>
+    <t>Балканский рубеж</t>
+  </si>
+  <si>
+    <t>боевик, военный, драма, история</t>
+  </si>
+  <si>
+    <t>оссия, Сербия</t>
+  </si>
+  <si>
+    <t>Антон Пампушный, Гоша Куценко, Милош Бикович, Милена Радулович, Гойко Митич, Равшана Куркова</t>
+  </si>
+  <si>
+    <t>биография, спорт, драма</t>
+  </si>
+  <si>
+    <t>Василий Чигинский</t>
+  </si>
+  <si>
+    <t>Александр Фокин, Юлия Хлынина, Алексей Гуськов, Алексей Кравченко, Евгений Дятлов, Виталий Хаев, Михаил Елисеев, Ян Цапник, Александр Самойленко, Владимир Андреев</t>
+  </si>
+  <si>
+    <t>Ангелина Стречина, Роман Васильев, Кирилл Кузнецов, Роман Мадянов, Александр Устюгов, Игорь Петренко, Алёна Бабенко</t>
   </si>
 </sst>
 </file>
@@ -3005,24 +3095,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3100,294 +3190,294 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C5" s="3">
         <v>2025</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>2000</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>803</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>727</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C10" s="3">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>414</v>
+        <v>801</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>802</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>803</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3">
         <v>2013</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>797</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>798</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>799</v>
+        <v>415</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>800</v>
+        <v>206</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>797</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>798</v>
       </c>
       <c r="C13" s="3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>416</v>
+        <v>799</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>81</v>
@@ -3396,746 +3486,824 @@
         <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>2019</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>829</v>
       </c>
       <c r="C22" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>830</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>831</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>666</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C23" s="3">
         <v>2024</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>414</v>
+        <v>801</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
+        <v>802</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>832</v>
       </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>669</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>785</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>786</v>
+        <v>409</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>787</v>
+        <v>35</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>788</v>
+        <v>30</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>669</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>160</v>
+        <v>785</v>
       </c>
       <c r="C27" s="3">
         <v>2022</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>424</v>
+        <v>786</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>787</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>161</v>
+        <v>788</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3">
         <v>2022</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3">
         <v>2010</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C31" s="3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>817</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>809</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>431</v>
+        <v>810</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>148</v>
+        <v>811</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>149</v>
+        <v>812</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3">
-        <v>2006</v>
+        <v>2024</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="3">
         <v>2023</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2025</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="C46" s="3">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C47" s="3">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4428,18 +4596,8 @@
       <c r="G79" s="2"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="8"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:H47">
+  <sortState ref="A2:H51">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,21 +4610,21 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4990,7 +5148,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>162</v>
       </c>
@@ -5816,10 +5974,10 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5833,8 +5991,8 @@
     <col min="8" max="8" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="22" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6122,7 +6280,7 @@
         <v>1974</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" ref="F11:F16" ca="1" si="0">YEAR(TODAY())-E11</f>
+        <f ca="1">YEAR(TODAY())-E11</f>
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6161,7 +6319,7 @@
         <v>1968</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E12</f>
         <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -6200,7 +6358,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E13</f>
         <v>25</v>
       </c>
       <c r="G13" s="2"/>
@@ -6233,7 +6391,7 @@
         <v>1983</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E14</f>
         <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -6270,7 +6428,7 @@
         <v>1994</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E15</f>
         <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -6309,7 +6467,7 @@
         <v>1996</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E16</f>
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -6454,7 +6612,7 @@
         <v>1975</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" ref="F21:F34" ca="1" si="1">YEAR(TODAY())-E21</f>
+        <f ca="1">YEAR(TODAY())-E21</f>
         <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -6493,7 +6651,7 @@
         <v>1990</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E22</f>
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -6532,7 +6690,7 @@
         <v>1977</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E23</f>
         <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -6571,7 +6729,7 @@
         <v>1978</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E24</f>
         <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -6610,7 +6768,7 @@
         <v>1999</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E25</f>
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -6647,7 +6805,7 @@
         <v>1987</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E26</f>
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -6686,7 +6844,7 @@
         <v>1992</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E27</f>
         <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -6723,7 +6881,7 @@
         <v>1982</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E28</f>
         <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6762,7 +6920,7 @@
         <v>1991</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E29</f>
         <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -6799,7 +6957,7 @@
         <v>1963</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E30</f>
         <v>62</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -6838,7 +6996,7 @@
         <v>2002</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E31</f>
         <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -6875,7 +7033,7 @@
         <v>1996</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E32</f>
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -6926,7 +7084,7 @@
         <v>1990</v>
       </c>
       <c r="F34" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E34</f>
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -7090,7 +7248,7 @@
         <v>1983</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" ref="F39:F45" ca="1" si="2">YEAR(TODAY())-E39</f>
+        <f ca="1">YEAR(TODAY())-E39</f>
         <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -7129,7 +7287,7 @@
         <v>1956</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E40</f>
         <v>69</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -7166,7 +7324,7 @@
         <v>1967</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E41</f>
         <v>58</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -7205,7 +7363,7 @@
         <v>1985</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E42</f>
         <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -7244,7 +7402,7 @@
         <v>1992</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E43</f>
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -7283,7 +7441,7 @@
         <v>1982</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E44</f>
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -7322,7 +7480,7 @@
         <v>1997</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E45</f>
         <v>28</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -7712,53 +7870,114 @@
         <v>779</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="16"/>
+      <c r="B58" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D58" s="15">
+        <v>45757</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1979</v>
+      </c>
+      <c r="F58" s="14">
+        <f ca="1">YEAR(TODAY())-E58</f>
+        <v>46</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="I58" s="16"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J58" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="16"/>
+      <c r="B59" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="D59" s="15">
+        <v>45777</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="14">
+        <f ca="1">YEAR(TODAY())-E59</f>
+        <v>25</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>312</v>
+      </c>
       <c r="I59" s="16"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>819</v>
+      </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="16"/>
+      <c r="B60" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="D60" s="15">
+        <v>45809</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F60" s="14">
+        <f ca="1">YEAR(TODAY())-E60</f>
+        <v>35</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="I60" s="16"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -9475,7 +9694,7 @@
       <c r="L157" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L163">
+  <sortState ref="A2:L156">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9488,10 +9707,10 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F4875-693B-4641-B243-90B3BD1810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1695" windowWidth="23520" windowHeight="16485" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="3585" windowWidth="22545" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Режиссеры" sheetId="4" r:id="rId4"/>
     <sheet name="Лист1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="851">
   <si>
     <t>Фильм</t>
   </si>
@@ -2675,11 +2676,66 @@
   <si>
     <t>Ангелина Стречина, Роман Васильев, Кирилл Кузнецов, Роман Мадянов, Александр Устюгов, Игорь Петренко, Алёна Бабенко</t>
   </si>
+  <si>
+    <t>Аладдин</t>
+  </si>
+  <si>
+    <t>мюзикл, фэнтези, мелодрама, комедия, приключения, семейный</t>
+  </si>
+  <si>
+    <t>2 ч 8 мин</t>
+  </si>
+  <si>
+    <t>США, Великобритания, Австралия</t>
+  </si>
+  <si>
+    <t>Мена Массуд, Наоми Скотт, Уилл Смит</t>
+  </si>
+  <si>
+    <t>Рыбка по имени Ванда</t>
+  </si>
+  <si>
+    <t>Чарльз Крайтон, Джон Клиз</t>
+  </si>
+  <si>
+    <t>Джон Клиз, Джейми Ли Кёртис, Кевин Клайн, Майкл Пэйлин, Мария Аиткен, Том Джорджсон, Патриция Хейс</t>
+  </si>
+  <si>
+    <t>Французский поцелуй</t>
+  </si>
+  <si>
+    <t>драма, мелодрама, комедия</t>
+  </si>
+  <si>
+    <t>1 ч 51 мин</t>
+  </si>
+  <si>
+    <t>Великобритания, США, Франция</t>
+  </si>
+  <si>
+    <t>Лоуренс Кэздан</t>
+  </si>
+  <si>
+    <t>Мег Райан, Кевин Клайн, Тимоти Хаттон, Жан Рено, Франсуа Клюзе, 
+Сюзан Анбех, Рене Хамфри</t>
+  </si>
+  <si>
+    <t>Когда Гарри встретил Салли</t>
+  </si>
+  <si>
+    <t>комедия, мелодрама</t>
+  </si>
+  <si>
+    <t>Роб Райнер</t>
+  </si>
+  <si>
+    <t>Билли Кристал, Мег Райан, Кэрри Фишер</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3094,14 +3150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,342 +3222,342 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>2025</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>2019</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3">
         <v>2025</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>2000</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>803</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>727</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C11" s="3">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>414</v>
+        <v>801</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>802</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>803</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3">
         <v>2013</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>797</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>798</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>799</v>
+        <v>415</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>800</v>
+        <v>206</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>797</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>798</v>
       </c>
       <c r="C14" s="3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>416</v>
+        <v>799</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>81</v>
@@ -3510,397 +3566,397 @@
         <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>2019</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>807</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>813</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>814</v>
+        <v>422</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>815</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>816</v>
+        <v>49</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>668</v>
+        <v>847</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="C22" s="3">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>666</v>
+        <v>807</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>230</v>
+        <v>813</v>
       </c>
       <c r="C23" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>668</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>829</v>
       </c>
       <c r="C24" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>830</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>831</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>666</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C25" s="3">
         <v>2024</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>414</v>
+        <v>801</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>802</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>832</v>
       </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>669</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>785</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>786</v>
+        <v>414</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>787</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>788</v>
+        <v>22</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>257</v>
+        <v>669</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>785</v>
       </c>
       <c r="C29" s="3">
         <v>2022</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>425</v>
+        <v>786</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>258</v>
+        <v>787</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>259</v>
+        <v>788</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C33" s="3">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -3909,441 +3965,497 @@
         <v>2024</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="3">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>808</v>
+        <v>120</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="3">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>817</v>
+        <v>123</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>809</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>810</v>
+        <v>412</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>811</v>
+        <v>125</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>812</v>
+        <v>123</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>808</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C38" s="3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>62</v>
+        <v>817</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>809</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>430</v>
+        <v>810</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>811</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>812</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C42" s="3">
         <v>2023</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3">
         <v>2025</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>117</v>
+        <v>838</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C47" s="3">
-        <v>2018</v>
+        <v>1988</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>111</v>
+        <v>839</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>119</v>
+        <v>840</v>
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="C49" s="3">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C50" s="3">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,8 +4709,8 @@
       <c r="H79" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H51">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4606,14 +4718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,7 +4862,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -5172,7 +5284,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>237</v>
       </c>
@@ -5412,7 +5524,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>191</v>
       </c>
@@ -5482,7 +5594,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
@@ -5961,7 +6073,7 @@
       <c r="H81" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5970,14 +6082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6161,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>328</v>
       </c>
@@ -6280,7 +6392,7 @@
         <v>1974</v>
       </c>
       <c r="F11" s="14">
-        <f ca="1">YEAR(TODAY())-E11</f>
+        <f t="shared" ref="F11:F16" ca="1" si="0">YEAR(TODAY())-E11</f>
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6319,7 +6431,7 @@
         <v>1968</v>
       </c>
       <c r="F12" s="14">
-        <f ca="1">YEAR(TODAY())-E12</f>
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -6358,7 +6470,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="14">
-        <f ca="1">YEAR(TODAY())-E13</f>
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="G13" s="2"/>
@@ -6391,7 +6503,7 @@
         <v>1983</v>
       </c>
       <c r="F14" s="14">
-        <f ca="1">YEAR(TODAY())-E14</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -6428,7 +6540,7 @@
         <v>1994</v>
       </c>
       <c r="F15" s="14">
-        <f ca="1">YEAR(TODAY())-E15</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -6467,7 +6579,7 @@
         <v>1996</v>
       </c>
       <c r="F16" s="14">
-        <f ca="1">YEAR(TODAY())-E16</f>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -6505,7 +6617,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>181</v>
       </c>
@@ -6612,7 +6724,7 @@
         <v>1975</v>
       </c>
       <c r="F21" s="14">
-        <f ca="1">YEAR(TODAY())-E21</f>
+        <f t="shared" ref="F21:F32" ca="1" si="1">YEAR(TODAY())-E21</f>
         <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -6634,7 +6746,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>645</v>
       </c>
@@ -6651,7 +6763,7 @@
         <v>1990</v>
       </c>
       <c r="F22" s="14">
-        <f ca="1">YEAR(TODAY())-E22</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -6690,7 +6802,7 @@
         <v>1977</v>
       </c>
       <c r="F23" s="14">
-        <f ca="1">YEAR(TODAY())-E23</f>
+        <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -6712,7 +6824,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>550</v>
       </c>
@@ -6729,7 +6841,7 @@
         <v>1978</v>
       </c>
       <c r="F24" s="14">
-        <f ca="1">YEAR(TODAY())-E24</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -6751,7 +6863,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>469</v>
       </c>
@@ -6768,7 +6880,7 @@
         <v>1999</v>
       </c>
       <c r="F25" s="14">
-        <f ca="1">YEAR(TODAY())-E25</f>
+        <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -6805,7 +6917,7 @@
         <v>1987</v>
       </c>
       <c r="F26" s="14">
-        <f ca="1">YEAR(TODAY())-E26</f>
+        <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -6844,7 +6956,7 @@
         <v>1992</v>
       </c>
       <c r="F27" s="14">
-        <f ca="1">YEAR(TODAY())-E27</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -6881,7 +6993,7 @@
         <v>1982</v>
       </c>
       <c r="F28" s="14">
-        <f ca="1">YEAR(TODAY())-E28</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6920,7 +7032,7 @@
         <v>1991</v>
       </c>
       <c r="F29" s="14">
-        <f ca="1">YEAR(TODAY())-E29</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -6957,7 +7069,7 @@
         <v>1963</v>
       </c>
       <c r="F30" s="14">
-        <f ca="1">YEAR(TODAY())-E30</f>
+        <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -6996,7 +7108,7 @@
         <v>2002</v>
       </c>
       <c r="F31" s="14">
-        <f ca="1">YEAR(TODAY())-E31</f>
+        <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -7016,7 +7128,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>554</v>
       </c>
@@ -7033,7 +7145,7 @@
         <v>1996</v>
       </c>
       <c r="F32" s="14">
-        <f ca="1">YEAR(TODAY())-E32</f>
+        <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -7248,7 +7360,7 @@
         <v>1983</v>
       </c>
       <c r="F39" s="14">
-        <f ca="1">YEAR(TODAY())-E39</f>
+        <f t="shared" ref="F39:F45" ca="1" si="2">YEAR(TODAY())-E39</f>
         <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -7287,7 +7399,7 @@
         <v>1956</v>
       </c>
       <c r="F40" s="14">
-        <f ca="1">YEAR(TODAY())-E40</f>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -7324,7 +7436,7 @@
         <v>1967</v>
       </c>
       <c r="F41" s="14">
-        <f ca="1">YEAR(TODAY())-E41</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -7363,7 +7475,7 @@
         <v>1985</v>
       </c>
       <c r="F42" s="14">
-        <f ca="1">YEAR(TODAY())-E42</f>
+        <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -7402,7 +7514,7 @@
         <v>1992</v>
       </c>
       <c r="F43" s="14">
-        <f ca="1">YEAR(TODAY())-E43</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -7441,7 +7553,7 @@
         <v>1982</v>
       </c>
       <c r="F44" s="14">
-        <f ca="1">YEAR(TODAY())-E44</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -7480,7 +7592,7 @@
         <v>1997</v>
       </c>
       <c r="F45" s="14">
-        <f ca="1">YEAR(TODAY())-E45</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -7581,7 +7693,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>293</v>
       </c>
@@ -7731,7 +7843,7 @@
         <v>1984</v>
       </c>
       <c r="F54" s="14">
-        <f ca="1">YEAR(TODAY())-E54</f>
+        <f t="shared" ref="F54:F62" ca="1" si="3">YEAR(TODAY())-E54</f>
         <v>41</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -7770,7 +7882,7 @@
         <v>1979</v>
       </c>
       <c r="F55" s="14">
-        <f ca="1">YEAR(TODAY())-E55</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -7792,7 +7904,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>632</v>
       </c>
@@ -7809,7 +7921,7 @@
         <v>1986</v>
       </c>
       <c r="F56" s="14">
-        <f ca="1">YEAR(TODAY())-E56</f>
+        <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -7848,7 +7960,7 @@
         <v>1962</v>
       </c>
       <c r="F57" s="14">
-        <f ca="1">YEAR(TODAY())-E57</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -7870,7 +7982,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>522</v>
       </c>
@@ -7887,7 +7999,7 @@
         <v>1979</v>
       </c>
       <c r="F58" s="14">
-        <f ca="1">YEAR(TODAY())-E58</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -7924,7 +8036,7 @@
         <v>2000</v>
       </c>
       <c r="F59" s="14">
-        <f ca="1">YEAR(TODAY())-E59</f>
+        <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -7959,7 +8071,7 @@
         <v>1990</v>
       </c>
       <c r="F60" s="14">
-        <f ca="1">YEAR(TODAY())-E60</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -7994,7 +8106,7 @@
         <v>1998</v>
       </c>
       <c r="F61" s="14">
-        <f ca="1">YEAR(TODAY())-E61</f>
+        <f t="shared" ca="1" si="3"/>
         <v>27</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -8031,7 +8143,7 @@
         <v>1966</v>
       </c>
       <c r="F62" s="14">
-        <f ca="1">YEAR(TODAY())-E62</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -8101,7 +8213,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>288</v>
       </c>
@@ -8156,7 +8268,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>289</v>
       </c>
@@ -8344,7 +8456,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>474</v>
       </c>
@@ -9694,7 +9806,7 @@
       <c r="L157" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L156">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L156">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9703,14 +9815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11086,7 +11198,7 @@
       <c r="L77" s="19"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L82">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11095,7 +11207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11107,7 +11219,7 @@
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <sortState ref="A1:A43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A43">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F4875-693B-4641-B243-90B3BD1810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F5D67-13B5-442D-9C53-C72EAA331572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="3585" windowWidth="22545" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="285" windowWidth="28965" windowHeight="16485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="851">
   <si>
     <t>Фильм</t>
   </si>
@@ -899,9 +899,6 @@
     <t>Данила Козловский, Александр Петров, Ирина Старшенбаум, Елизавета Базыкина</t>
   </si>
   <si>
-    <t>Примечания</t>
-  </si>
-  <si>
     <t>Михаил Пореченков, Иван Охлобыстин, Катерина Шпица, Карина Зверева, Ян Цапник, Владимир Епифанцев</t>
   </si>
   <si>
@@ -2730,6 +2727,9 @@
   </si>
   <si>
     <t>Билли Кристал, Мег Райан, Кэрри Фишер</t>
+  </si>
+  <si>
+    <t>Дата записи</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2870,6 +2870,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3153,11 +3159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -3195,7 +3201,7 @@
         <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>264</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3209,7 +3215,7 @@
         <v>2025</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -3220,31 +3226,35 @@
       <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="C3" s="3">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>836</v>
+      </c>
+      <c r="H3" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3257,7 +3267,7 @@
         <v>2025</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -3268,31 +3278,35 @@
       <c r="G4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="C5" s="3">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3305,7 +3319,7 @@
         <v>2025</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -3316,7 +3330,9 @@
       <c r="G6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3329,7 +3345,7 @@
         <v>2025</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -3340,7 +3356,9 @@
       <c r="G7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3353,7 +3371,7 @@
         <v>2000</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -3364,7 +3382,9 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3377,7 +3397,7 @@
         <v>2025</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -3388,11 +3408,13 @@
       <c r="G9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -3404,7 +3426,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>230</v>
@@ -3413,18 +3435,20 @@
         <v>2024</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3437,7 +3461,7 @@
         <v>2013</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3448,7 +3472,9 @@
       <c r="G12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3461,7 +3487,7 @@
         <v>2013</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3472,20 +3498,22 @@
       <c r="G13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="C14" s="3">
         <v>2020</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3494,9 +3522,11 @@
         <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>799</v>
+      </c>
+      <c r="H14" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3509,7 +3539,7 @@
         <v>2016</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -3520,7 +3550,9 @@
       <c r="G15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3533,7 +3565,7 @@
         <v>2017</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>89</v>
@@ -3544,7 +3576,9 @@
       <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -3557,7 +3591,7 @@
         <v>2015</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>81</v>
@@ -3568,7 +3602,9 @@
       <c r="G17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -3581,7 +3617,7 @@
         <v>2019</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>81</v>
@@ -3592,7 +3628,9 @@
       <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3605,7 +3643,7 @@
         <v>2024</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -3616,7 +3654,9 @@
       <c r="G19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3629,7 +3669,7 @@
         <v>2019</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>127</v>
@@ -3640,7 +3680,9 @@
       <c r="G20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3653,7 +3695,7 @@
         <v>2023</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -3664,83 +3706,91 @@
       <c r="G21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="C22" s="3">
         <v>1989</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C23" s="3">
         <v>2025</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C24" s="3">
         <v>2019</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>230</v>
@@ -3749,18 +3799,20 @@
         <v>2024</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>831</v>
+      </c>
+      <c r="H25" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3773,7 +3825,7 @@
         <v>2021</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -3784,7 +3836,9 @@
       <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3797,7 +3851,7 @@
         <v>2024</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -3808,7 +3862,9 @@
       <c r="G27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3821,7 +3877,7 @@
         <v>2025</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>28</v>
@@ -3832,31 +3888,35 @@
       <c r="G28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C29" s="3">
         <v>2022</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3869,7 +3929,7 @@
         <v>2022</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
@@ -3880,7 +3940,9 @@
       <c r="G30" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3893,7 +3955,7 @@
         <v>2022</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -3904,7 +3966,9 @@
       <c r="G31" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3917,7 +3981,7 @@
         <v>2010</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -3928,7 +3992,9 @@
       <c r="G32" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3941,7 +4007,7 @@
         <v>2010</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
@@ -3952,7 +4018,9 @@
       <c r="G33" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3965,7 +4033,7 @@
         <v>2024</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -3976,7 +4044,9 @@
       <c r="G34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3989,7 +4059,7 @@
         <v>2025</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -4000,7 +4070,9 @@
       <c r="G35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -4013,7 +4085,7 @@
         <v>2024</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>130</v>
@@ -4024,7 +4096,9 @@
       <c r="G36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -4037,7 +4111,7 @@
         <v>2022</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>121</v>
@@ -4048,11 +4122,13 @@
       <c r="G37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -4061,7 +4137,7 @@
         <v>2010</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -4070,13 +4146,15 @@
         <v>111</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="H38" s="8"/>
+        <v>816</v>
+      </c>
+      <c r="H38" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -4085,18 +4163,20 @@
         <v>2018</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -4109,7 +4189,7 @@
         <v>2024</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -4120,7 +4200,9 @@
       <c r="G40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -4133,7 +4215,7 @@
         <v>2022</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>28</v>
@@ -4144,7 +4226,9 @@
       <c r="G41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4157,7 +4241,7 @@
         <v>2023</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>81</v>
@@ -4168,7 +4252,9 @@
       <c r="G42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -4181,7 +4267,7 @@
         <v>2006</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>152</v>
@@ -4192,7 +4278,9 @@
       <c r="G43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -4205,7 +4293,7 @@
         <v>2023</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -4216,7 +4304,9 @@
       <c r="G44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -4229,7 +4319,7 @@
         <v>2025</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>127</v>
@@ -4240,7 +4330,9 @@
       <c r="G45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -4253,7 +4345,7 @@
         <v>2025</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
@@ -4264,11 +4356,13 @@
       <c r="G46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>134</v>
@@ -4277,18 +4371,20 @@
         <v>1988</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4301,7 +4397,7 @@
         <v>2025</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -4312,7 +4408,9 @@
       <c r="G48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4325,7 +4423,7 @@
         <v>2016</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -4336,7 +4434,9 @@
       <c r="G49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4349,7 +4449,7 @@
         <v>2018</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -4360,31 +4460,35 @@
       <c r="G50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="C51" s="3">
         <v>1995</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4397,7 +4501,7 @@
         <v>2021</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
@@ -4408,7 +4512,9 @@
       <c r="G52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4421,7 +4527,7 @@
         <v>2025</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -4432,7 +4538,9 @@
       <c r="G53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4445,7 +4553,7 @@
         <v>2025</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
@@ -4456,7 +4564,9 @@
       <c r="G54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -4721,11 +4831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4737,12 +4847,12 @@
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="7" width="60.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -4763,7 +4873,7 @@
         <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>264</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4788,14 +4898,16 @@
       <c r="G2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C3" s="3">
         <v>2023</v>
@@ -4807,12 +4919,14 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4836,7 +4950,9 @@
       <c r="G4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4860,7 +4976,9 @@
       <c r="G5" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4884,7 +5002,9 @@
       <c r="G6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4908,7 +5028,9 @@
       <c r="G7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4932,7 +5054,9 @@
       <c r="G8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4956,7 +5080,9 @@
       <c r="G9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4980,7 +5106,9 @@
       <c r="G10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -5004,7 +5132,9 @@
       <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -5028,14 +5158,16 @@
       <c r="G12" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="C13" s="3">
         <v>2022</v>
@@ -5047,12 +5179,14 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5076,7 +5210,9 @@
       <c r="G14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -5100,7 +5236,9 @@
       <c r="G15" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5124,21 +5262,25 @@
       <c r="G16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -5162,11 +5304,13 @@
       <c r="G18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>230</v>
@@ -5181,12 +5325,14 @@
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -5210,7 +5356,9 @@
       <c r="G20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -5234,7 +5382,9 @@
       <c r="G21" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -5258,7 +5408,9 @@
       <c r="G22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -5282,7 +5434,9 @@
       <c r="G23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -5306,7 +5460,9 @@
       <c r="G24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -5330,7 +5486,9 @@
       <c r="G25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5352,9 +5510,11 @@
         <v>135</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="H26" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -5378,7 +5538,9 @@
       <c r="G27" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -5402,7 +5564,9 @@
       <c r="G28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -5426,31 +5590,35 @@
       <c r="G29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -5474,7 +5642,9 @@
       <c r="G31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -5498,7 +5668,9 @@
       <c r="G32" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -5522,7 +5694,9 @@
       <c r="G33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -5546,7 +5720,9 @@
       <c r="G34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -5570,7 +5746,9 @@
       <c r="G35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -5592,7 +5770,9 @@
       <c r="G36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -5616,7 +5796,9 @@
       <c r="G37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -5640,7 +5822,9 @@
       <c r="G38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -6083,13 +6267,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,49 +6289,53 @@
     <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="36" style="1" customWidth="1"/>
     <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>272</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6160,13 +6348,14 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2">
         <v>1.71</v>
@@ -6182,25 +6371,28 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6213,13 +6405,14 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" s="2">
         <v>1.92</v>
@@ -6235,27 +6428,30 @@
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6268,10 +6464,11 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6284,13 +6481,14 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="15">
@@ -6304,28 +6502,31 @@
         <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="M8" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="2">
         <v>1.8</v>
@@ -6341,27 +6542,30 @@
         <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6374,13 +6578,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="2">
         <v>1.82</v>
@@ -6392,34 +6597,37 @@
         <v>1974</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" ref="F11:F16" ca="1" si="0">YEAR(TODAY())-E11</f>
+        <f ca="1">YEAR(TODAY())-E11</f>
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M11" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="2">
         <v>1.7</v>
@@ -6431,34 +6639,37 @@
         <v>1968</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E12</f>
         <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M12" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C13" s="2">
         <v>1.75</v>
@@ -6470,28 +6681,31 @@
         <v>2000</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E13</f>
         <v>25</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="M13" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2">
         <v>1.6</v>
@@ -6503,32 +6717,35 @@
         <v>1983</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E14</f>
         <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="M14" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2">
         <v>1.72</v>
@@ -6540,34 +6757,37 @@
         <v>1994</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E15</f>
         <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M15" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="2">
         <v>1.69</v>
@@ -6579,31 +6799,34 @@
         <v>1996</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-E16</f>
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="M16" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6616,13 +6839,14 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="2">
         <v>1.6</v>
@@ -6638,28 +6862,31 @@
         <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M18" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C19" s="2">
         <v>1.76</v>
@@ -6675,25 +6902,28 @@
         <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6706,13 +6936,14 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" s="2">
         <v>1.7</v>
@@ -6724,34 +6955,37 @@
         <v>1975</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" ref="F21:F32" ca="1" si="1">YEAR(TODAY())-E21</f>
+        <f ca="1">YEAR(TODAY())-E21</f>
         <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="J21" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M21" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C22" s="2">
         <v>1.62</v>
@@ -6763,34 +6997,37 @@
         <v>1990</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E22</f>
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I22" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M22" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="2">
         <v>1.75</v>
@@ -6802,34 +7039,37 @@
         <v>1977</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E23</f>
         <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M23" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C24" s="2">
         <v>1.81</v>
@@ -6841,34 +7081,37 @@
         <v>1978</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E24</f>
         <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="M24" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" s="2">
         <v>1.56</v>
@@ -6880,32 +7123,35 @@
         <v>1999</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E25</f>
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M25" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C26" s="2">
         <v>1.68</v>
@@ -6917,34 +7163,37 @@
         <v>1987</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E26</f>
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I26" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M26" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2">
         <v>1.83</v>
@@ -6956,32 +7205,35 @@
         <v>1992</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E27</f>
         <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>601</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="M27" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2">
         <v>1.75</v>
@@ -6993,34 +7245,37 @@
         <v>1982</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E28</f>
         <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I28" s="16" t="s">
+      <c r="J28" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M28" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C29" s="2">
         <v>1.75</v>
@@ -7032,32 +7287,35 @@
         <v>1991</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E29</f>
         <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M29" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C30" s="2">
         <v>1.69</v>
@@ -7069,34 +7327,37 @@
         <v>1963</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E30</f>
         <v>62</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="J30" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M30" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C31" s="2">
         <v>1.63</v>
@@ -7108,32 +7369,35 @@
         <v>2002</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E31</f>
         <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M31" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="2">
         <v>1.73</v>
@@ -7145,27 +7409,30 @@
         <v>1996</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">YEAR(TODAY())-E32</f>
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="M32" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7178,13 +7445,14 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C34" s="2">
         <v>1.84</v>
@@ -7200,28 +7468,31 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>780</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>781</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M34" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2">
         <v>1.65</v>
@@ -7237,26 +7508,29 @@
         <v>35</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>390</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="M35" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C36" s="2">
         <v>1.81</v>
@@ -7272,28 +7546,31 @@
         <v>29</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="C37" s="2">
         <v>1.82</v>
@@ -7309,27 +7586,30 @@
         <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="J37" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -7342,13 +7622,14 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2">
         <v>1.85</v>
@@ -7360,34 +7641,37 @@
         <v>1983</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" ref="F39:F45" ca="1" si="2">YEAR(TODAY())-E39</f>
+        <f ca="1">YEAR(TODAY())-E39</f>
         <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I39" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M39" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="C40" s="2">
         <v>1.75</v>
@@ -7399,32 +7683,35 @@
         <v>1956</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E40</f>
         <v>69</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C41" s="2">
         <v>1.84</v>
@@ -7436,34 +7723,37 @@
         <v>1967</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E41</f>
         <v>58</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I41" s="16" t="s">
+      <c r="J41" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M41" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C42" s="2">
         <v>1.84</v>
@@ -7475,34 +7765,37 @@
         <v>1985</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E42</f>
         <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I42" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M42" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C43" s="2">
         <v>1.7</v>
@@ -7514,34 +7807,37 @@
         <v>1992</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E43</f>
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="I43" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="J43" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="C44" s="2">
         <v>1.68</v>
@@ -7553,34 +7849,37 @@
         <v>1982</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E44</f>
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="J44" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M44" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="2">
         <v>1.76</v>
@@ -7592,27 +7891,30 @@
         <v>1997</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">YEAR(TODAY())-E45</f>
         <v>28</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>753</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>754</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>30</v>
       </c>
@@ -7627,10 +7929,11 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -7643,13 +7946,14 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2">
         <v>1.75</v>
@@ -7665,21 +7969,24 @@
         <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7692,13 +7999,14 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2">
         <v>1.95</v>
@@ -7714,30 +8022,33 @@
         <v>47</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="I50" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M50" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2">
         <v>1.8</v>
@@ -7753,30 +8064,33 @@
         <v>43</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I51" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M51" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2">
         <v>1.73</v>
@@ -7792,27 +8106,30 @@
         <v>58</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I52" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7825,13 +8142,14 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2">
         <v>1.7</v>
@@ -7843,34 +8161,37 @@
         <v>1984</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" ref="F54:F62" ca="1" si="3">YEAR(TODAY())-E54</f>
+        <f ca="1">YEAR(TODAY())-E54</f>
         <v>41</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="I54" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="J54" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M54" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2">
         <v>1.8</v>
@@ -7882,34 +8203,37 @@
         <v>1979</v>
       </c>
       <c r="F55" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E55</f>
         <v>46</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M55" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C56" s="2">
         <v>1.81</v>
@@ -7921,34 +8245,37 @@
         <v>1986</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E56</f>
         <v>39</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I56" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M56" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C57" s="2">
         <v>1.58</v>
@@ -7960,34 +8287,37 @@
         <v>1962</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E57</f>
         <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I57" s="16" t="s">
+      <c r="J57" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M57" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2">
         <v>1.7</v>
@@ -7999,32 +8329,35 @@
         <v>1979</v>
       </c>
       <c r="F58" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E58</f>
         <v>46</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M58" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C59" s="2">
         <v>1.73</v>
@@ -8036,30 +8369,33 @@
         <v>2000</v>
       </c>
       <c r="F59" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E59</f>
         <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I59" s="16"/>
       <c r="J59" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="M59" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C60" s="2">
         <v>1.77</v>
@@ -8071,32 +8407,35 @@
         <v>1990</v>
       </c>
       <c r="F60" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E60</f>
         <v>35</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M60" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="15">
@@ -8106,32 +8445,35 @@
         <v>1998</v>
       </c>
       <c r="F61" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E61</f>
         <v>27</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>378</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>379</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C62" s="2">
         <v>1.8</v>
@@ -8143,31 +8485,34 @@
         <v>1966</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">YEAR(TODAY())-E62</f>
         <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I62" s="16" t="s">
+      <c r="J62" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8180,10 +8525,11 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8196,10 +8542,11 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8212,13 +8559,14 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C66" s="2">
         <v>1.85</v>
@@ -8234,27 +8582,30 @@
         <v>48</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I66" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8267,13 +8618,14 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2">
         <v>1.7</v>
@@ -8289,25 +8641,28 @@
         <v>33</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I68" s="16"/>
       <c r="J68" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -8320,13 +8675,14 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2">
         <v>1.55</v>
@@ -8342,27 +8698,30 @@
         <v>47</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I70" s="16" t="s">
+      <c r="J70" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -8375,10 +8734,11 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -8391,10 +8751,11 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -8407,10 +8768,11 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -8423,10 +8785,11 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -8439,10 +8802,11 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8455,13 +8819,14 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2">
         <v>1.85</v>
@@ -8477,27 +8842,30 @@
         <v>42</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H77" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="I77" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="I77" s="16" t="s">
+      <c r="J77" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -8510,10 +8878,11 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -8526,8 +8895,9 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>68</v>
       </c>
@@ -8542,8 +8912,9 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>123</v>
       </c>
@@ -8558,10 +8929,11 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -8574,10 +8946,11 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="8"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8590,10 +8963,11 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8606,10 +8980,11 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="8"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8622,10 +8997,11 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="8"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8638,10 +9014,11 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="8"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8654,10 +9031,11 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="8"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8670,10 +9048,11 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8686,10 +9065,11 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="8"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -8702,10 +9082,11 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="8"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8718,10 +9099,11 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="8"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8734,10 +9116,11 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="8"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8750,10 +9133,11 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="8"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8766,10 +9150,11 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="8"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8782,10 +9167,11 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8798,10 +9184,11 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="8"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8814,13 +9201,14 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M97" s="8"/>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="15">
@@ -8839,10 +9227,11 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="8"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8855,10 +9244,11 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8871,10 +9261,11 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="8"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8887,10 +9278,11 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="8"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8903,10 +9295,11 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="8"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8919,10 +9312,11 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="8"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8935,10 +9329,11 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8951,10 +9346,11 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8967,10 +9363,11 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="8"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8983,10 +9380,11 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="8"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8999,10 +9397,11 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="8"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9015,10 +9414,11 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9031,10 +9431,11 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="8"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9047,10 +9448,11 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="8"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9063,10 +9465,11 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9079,10 +9482,11 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9095,10 +9499,11 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="8"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9111,10 +9516,11 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="8"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9127,10 +9533,11 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="8"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9143,10 +9550,11 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="8"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9159,10 +9567,11 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="8"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9175,10 +9584,11 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="8"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9191,13 +9601,14 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M120" s="8"/>
+    </row>
+    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C121" s="2">
         <v>1.71</v>
@@ -9213,27 +9624,30 @@
         <v>37</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="M121" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9246,10 +9660,11 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="8"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9262,10 +9677,11 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="8"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9278,10 +9694,11 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="8"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9294,10 +9711,11 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="8"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9310,10 +9728,11 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="8"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -9326,10 +9745,11 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="8"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -9342,8 +9762,9 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="8"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>22</v>
       </c>
@@ -9358,10 +9779,11 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="8"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9374,10 +9796,11 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="8"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -9390,10 +9813,11 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="8"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -9406,10 +9830,11 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -9422,10 +9847,11 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="8"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -9438,10 +9864,11 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="8"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -9454,10 +9881,11 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="8"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -9470,10 +9898,11 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="8"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -9486,10 +9915,11 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="8"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -9502,8 +9932,9 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>40</v>
       </c>
@@ -9518,10 +9949,11 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="8"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -9534,10 +9966,11 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="8"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -9550,10 +9983,11 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="8"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -9566,10 +10000,11 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="8"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -9582,10 +10017,11 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="8"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -9598,10 +10034,11 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="8"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9614,10 +10051,11 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="8"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9630,10 +10068,11 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="8"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9646,10 +10085,11 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="8"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9662,10 +10102,11 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="8"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9678,10 +10119,11 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="8"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9694,10 +10136,11 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="8"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9710,10 +10153,11 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="8"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9726,10 +10170,11 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="8"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9742,10 +10187,11 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="8"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9758,10 +10204,11 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="8"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9774,8 +10221,9 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="8"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>73</v>
       </c>
@@ -9790,8 +10238,9 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="8"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9804,10 +10253,11 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
+      <c r="M157" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L156">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M156">
+    <sortCondition ref="A1:A156"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9816,13 +10266,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9839,48 +10289,52 @@
     <col min="10" max="10" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="17"/>
+    <col min="13" max="13" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>272</v>
-      </c>
       <c r="G1" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>104</v>
       </c>
@@ -9895,8 +10349,9 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
@@ -9911,13 +10366,14 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C4" s="19">
         <v>1.68</v>
@@ -9933,23 +10389,26 @@
         <v>61</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>258</v>
       </c>
@@ -9964,13 +10423,14 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="19">
         <v>1.75</v>
@@ -9986,30 +10446,33 @@
         <v>41</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>585</v>
       </c>
       <c r="C7" s="19">
         <v>1.75</v>
@@ -10025,26 +10488,29 @@
         <v>32</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="M7" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="15">
@@ -10058,28 +10524,31 @@
         <v>57</v>
       </c>
       <c r="G8" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>706</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>707</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M8" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="15">
@@ -10093,23 +10562,26 @@
         <v>47</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="L9" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>79</v>
       </c>
@@ -10124,10 +10596,11 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -10140,8 +10613,9 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
@@ -10156,10 +10630,11 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -10172,10 +10647,11 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -10188,8 +10664,9 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>132</v>
       </c>
@@ -10204,8 +10681,9 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>37</v>
       </c>
@@ -10220,10 +10698,11 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -10236,10 +10715,11 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -10252,8 +10732,9 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>262</v>
       </c>
@@ -10268,10 +10749,11 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -10284,10 +10766,11 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -10300,10 +10783,11 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -10316,10 +10800,11 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -10332,8 +10817,9 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>29</v>
       </c>
@@ -10348,8 +10834,9 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>223</v>
       </c>
@@ -10364,8 +10851,9 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>82</v>
       </c>
@@ -10380,8 +10868,9 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>169</v>
       </c>
@@ -10396,10 +10885,11 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -10412,8 +10902,9 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>111</v>
       </c>
@@ -10428,10 +10919,11 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -10444,8 +10936,9 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>235</v>
       </c>
@@ -10460,8 +10953,9 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>35</v>
       </c>
@@ -10476,8 +10970,9 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>186</v>
       </c>
@@ -10492,8 +10987,9 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>166</v>
       </c>
@@ -10508,8 +11004,9 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
@@ -10524,10 +11021,11 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -10540,10 +11038,11 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -10556,8 +11055,9 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>125</v>
       </c>
@@ -10572,8 +11072,9 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -10588,8 +11089,9 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>122</v>
       </c>
@@ -10604,10 +11106,11 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -10620,8 +11123,9 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>242</v>
       </c>
@@ -10636,10 +11140,11 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -10652,8 +11157,9 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>75</v>
       </c>
@@ -10668,10 +11174,11 @@
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -10684,10 +11191,11 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -10700,8 +11208,9 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>248</v>
       </c>
@@ -10716,8 +11225,9 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>98</v>
       </c>
@@ -10732,10 +11242,11 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -10748,8 +11259,9 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>148</v>
       </c>
@@ -10764,10 +11276,11 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -10780,8 +11293,9 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>15</v>
       </c>
@@ -10796,8 +11310,9 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>153</v>
       </c>
@@ -10812,10 +11327,11 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -10828,10 +11344,11 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -10844,8 +11361,9 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>180</v>
       </c>
@@ -10860,10 +11378,11 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -10876,8 +11395,9 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>227</v>
       </c>
@@ -10892,10 +11412,11 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -10908,8 +11429,9 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>70</v>
       </c>
@@ -10924,8 +11446,9 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>72</v>
       </c>
@@ -10940,8 +11463,9 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>90</v>
       </c>
@@ -10956,8 +11480,9 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>137</v>
       </c>
@@ -10972,8 +11497,9 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>101</v>
       </c>
@@ -10988,10 +11514,11 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -11004,8 +11531,9 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>245</v>
       </c>
@@ -11020,10 +11548,11 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -11036,8 +11565,9 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="14"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>231</v>
       </c>
@@ -11052,8 +11582,9 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
       <c r="L68" s="19"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>54</v>
       </c>
@@ -11068,8 +11599,9 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
       <c r="L69" s="19"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>196</v>
       </c>
@@ -11084,10 +11616,11 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
       <c r="L70" s="19"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -11100,8 +11633,9 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
       <c r="L71" s="19"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>255</v>
       </c>
@@ -11116,8 +11650,9 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>108</v>
       </c>
@@ -11132,8 +11667,9 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>40</v>
       </c>
@@ -11148,10 +11684,11 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -11164,8 +11701,9 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>25</v>
       </c>
@@ -11180,8 +11718,9 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>128</v>
       </c>
@@ -11196,10 +11735,11 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
+      <c r="M77" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L82">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Анализ/Кино/Кинофильмы.xlsx
+++ b/Анализ/Кино/Кинофильмы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F4875-693B-4641-B243-90B3BD1810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2627A2C4-5741-47D3-8CEF-ACDCD48D14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="3585" windowWidth="22545" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="1590" windowWidth="25950" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="866">
   <si>
     <t>Фильм</t>
   </si>
@@ -899,9 +899,6 @@
     <t>Данила Козловский, Александр Петров, Ирина Старшенбаум, Елизавета Базыкина</t>
   </si>
   <si>
-    <t>Примечания</t>
-  </si>
-  <si>
     <t>Михаил Пореченков, Иван Охлобыстин, Катерина Шпица, Карина Зверева, Ян Цапник, Владимир Епифанцев</t>
   </si>
   <si>
@@ -2730,6 +2727,55 @@
   </si>
   <si>
     <t>Билли Кристал, Мег Райан, Кэрри Фишер</t>
+  </si>
+  <si>
+    <t>Дата записи</t>
+  </si>
+  <si>
+    <t>Алеся Великанова 
+двое детей</t>
+  </si>
+  <si>
+    <t>133, 1974 — 2026</t>
+  </si>
+  <si>
+    <t>Сокровища гномов; Добро пожаловать в семью; Любовь зла; ДМБ; Любка</t>
+  </si>
+  <si>
+    <t>Патриот; Корни; Физрук; Ералаш; Мендельсон</t>
+  </si>
+  <si>
+    <t>Ширбрук, Дербишир, Англия, Великобритания</t>
+  </si>
+  <si>
+    <t>боевик, триллер, криминал</t>
+  </si>
+  <si>
+    <t>Роузи Хантингтон-Уайтли двое детей</t>
+  </si>
+  <si>
+    <t>120, 1993 — 2027</t>
+  </si>
+  <si>
+    <t>Карты, деньги, два ствола; Большой куш; Гнев человеческий; Ограбление по-итальянски; Перевозчик</t>
+  </si>
+  <si>
+    <t>Актер, Продюсер, Сценарист, Режиссер</t>
+  </si>
+  <si>
+    <t>Нептун, Нью-Джерси, США</t>
+  </si>
+  <si>
+    <t>Сандра Найт (развод)один ребенок</t>
+  </si>
+  <si>
+    <t>220, 1952 — 2025</t>
+  </si>
+  <si>
+    <t>Пролетая над гнездом кукушки; Отступники;  Пока не сыграл в ящик; Лучше не бывает; Несколько хороших парней</t>
+  </si>
+  <si>
+    <t>Биография</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2870,6 +2916,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3153,11 +3205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -3195,7 +3247,7 @@
         <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>264</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3209,7 +3261,7 @@
         <v>2025</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -3220,31 +3272,35 @@
       <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="C3" s="3">
         <v>2019</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>836</v>
+      </c>
+      <c r="H3" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3257,7 +3313,7 @@
         <v>2025</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -3268,31 +3324,35 @@
       <c r="G4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="C5" s="3">
         <v>2019</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3305,7 +3365,7 @@
         <v>2025</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -3316,7 +3376,9 @@
       <c r="G6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3329,7 +3391,7 @@
         <v>2025</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -3340,7 +3402,9 @@
       <c r="G7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3353,7 +3417,7 @@
         <v>2000</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -3364,7 +3428,9 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3377,7 +3443,7 @@
         <v>2025</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -3388,11 +3454,13 @@
       <c r="G9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -3404,7 +3472,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>230</v>
@@ -3413,18 +3481,20 @@
         <v>2024</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3437,7 +3507,7 @@
         <v>2013</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3448,7 +3518,9 @@
       <c r="G12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3461,7 +3533,7 @@
         <v>2013</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3472,20 +3544,22 @@
       <c r="G13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="C14" s="3">
         <v>2020</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3494,9 +3568,11 @@
         <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>799</v>
+      </c>
+      <c r="H14" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3509,7 +3585,7 @@
         <v>2016</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -3520,7 +3596,9 @@
       <c r="G15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3533,7 +3611,7 @@
         <v>2017</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>89</v>
@@ -3544,7 +3622,9 @@
       <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -3557,7 +3637,7 @@
         <v>2015</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>81</v>
@@ -3568,7 +3648,9 @@
       <c r="G17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -3581,7 +3663,7 @@
         <v>2019</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>81</v>
@@ -3592,7 +3674,9 @@
       <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3605,7 +3689,7 @@
         <v>2024</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -3616,7 +3700,9 @@
       <c r="G19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3629,7 +3715,7 @@
         <v>2019</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>127</v>
@@ -3640,7 +3726,9 @@
       <c r="G20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3653,7 +3741,7 @@
         <v>2023</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -3664,83 +3752,91 @@
       <c r="G21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="C22" s="3">
         <v>1989</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C23" s="3">
         <v>2025</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C24" s="3">
         <v>2019</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>230</v>
@@ -3749,18 +3845,20 @@
         <v>2024</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>831</v>
+      </c>
+      <c r="H25" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3773,7 +3871,7 @@
         <v>2021</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -3784,7 +3882,9 @@
       <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3797,7 +3897,7 @@
         <v>2024</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -3808,7 +3908,9 @@
       <c r="G27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3821,7 +3923,7 @@
         <v>2025</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>28</v>
@@ -3832,31 +3934,35 @@
       <c r="G28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C29" s="3">
         <v>2022</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3869,7 +3975,7 @@
         <v>2022</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
@@ -3880,7 +3986,9 @@
       <c r="G30" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3893,7 +4001,7 @@
         <v>2022</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -3904,7 +4012,9 @@
       <c r="G31" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3917,7 +4027,7 @@
         <v>2010</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -3928,7 +4038,9 @@
       <c r="G32" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3941,7 +4053,7 @@
         <v>2010</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
@@ -3952,7 +4064,9 @@
       <c r="G33" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3965,7 +4079,7 @@
         <v>2024</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -3976,7 +4090,9 @@
       <c r="G34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3989,7 +4105,7 @@
         <v>2025</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -4000,7 +4116,9 @@
       <c r="G35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -4013,7 +4131,7 @@
         <v>2024</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>130</v>
@@ -4024,7 +4142,9 @@
       <c r="G36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -4037,7 +4157,7 @@
         <v>2022</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>121</v>
@@ -4048,11 +4168,13 @@
       <c r="G37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -4061,7 +4183,7 @@
         <v>2010</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -4070,13 +4192,15 @@
         <v>111</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="H38" s="8"/>
+        <v>816</v>
+      </c>
+      <c r="H38" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -4085,18 +4209,20 @@
         <v>2018</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -4109,7 +4235,7 @@
         <v>2024</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -4120,7 +4246,9 @@
       <c r="G40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -4133,7 +4261,7 @@
         <v>2022</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>28</v>
@@ -4144,7 +4272,9 @@
       <c r="G41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4157,7 +4287,7 @@
         <v>2023</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>81</v>
@@ -4168,7 +4298,9 @@
       <c r="G42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -4181,7 +4313,7 @@
         <v>2006</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>152</v>
@@ -4192,7 +4324,9 @@
       <c r="G43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -4205,7 +4339,7 @@
         <v>2023</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -4216,7 +4350,9 @@
       <c r="G44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -4229,7 +4365,7 @@
         <v>2025</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>127</v>
@@ -4240,7 +4376,9 @@
       <c r="G45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -4253,7 +4391,7 @@
         <v>2025</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
@@ -4264,11 +4402,13 @@
       <c r="G46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>134</v>
@@ -4277,18 +4417,20 @@
         <v>1988</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4301,7 +4443,7 @@
         <v>2025</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -4312,7 +4454,9 @@
       <c r="G48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4325,7 +4469,7 @@
         <v>2016</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -4336,7 +4480,9 @@
       <c r="G49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4349,7 +4495,7 @@
         <v>2018</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -4360,31 +4506,35 @@
       <c r="G50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="C51" s="3">
         <v>1995</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4397,7 +4547,7 @@
         <v>2021</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
@@ -4408,7 +4558,9 @@
       <c r="G52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4421,7 +4573,7 @@
         <v>2025</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -4432,7 +4584,9 @@
       <c r="G53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4445,7 +4599,7 @@
         <v>2025</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
@@ -4456,7 +4610,9 @@
       <c r="G54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -4722,10 +4878,10 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4737,12 +4893,12 @@
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="7" width="60.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -4763,7 +4919,7 @@
         <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>264</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4788,14 +4944,16 @@
       <c r="G2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C3" s="3">
         <v>2023</v>
@@ -4807,12 +4965,14 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4836,7 +4996,9 @@
       <c r="G4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4860,7 +5022,9 @@
       <c r="G5" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4884,7 +5048,9 @@
       <c r="G6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4908,7 +5074,9 @@
       <c r="G7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4932,7 +5100,9 @@
       <c r="G8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4956,7 +5126,9 @@
       <c r="G9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4980,7 +5152,9 @@
       <c r="G10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -5004,7 +5178,9 @@
       <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -5028,14 +5204,16 @@
       <c r="G12" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="C13" s="3">
         <v>2022</v>
@@ -5047,12 +5225,14 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5076,7 +5256,9 @@
       <c r="G14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -5100,7 +5282,9 @@
       <c r="G15" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5124,21 +5308,25 @@
       <c r="G16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -5162,11 +5350,13 @@
       <c r="G18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>230</v>
@@ -5181,12 +5371,14 @@
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -5210,7 +5402,9 @@
       <c r="G20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -5234,7 +5428,9 @@
       <c r="G21" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -5258,7 +5454,9 @@
       <c r="G22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -5282,7 +5480,9 @@
       <c r="G23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -5306,7 +5506,9 @@
       <c r="G24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -5330,7 +5532,9 @@
       <c r="G25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5352,9 +5556,11 @@
         <v>135</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="H26" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -5378,7 +5584,9 @@
       <c r="G27" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -5402,7 +5610,9 @@
       <c r="G28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -5426,31 +5636,35 @@
       <c r="G29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -5474,7 +5688,9 @@
       <c r="G31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -5498,7 +5714,9 @@
       <c r="G32" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -5522,7 +5740,9 @@
       <c r="G33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -5546,7 +5766,9 @@
       <c r="G34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -5570,7 +5792,9 @@
       <c r="G35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -5592,7 +5816,9 @@
       <c r="G36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -5616,7 +5842,9 @@
       <c r="G37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -5640,7 +5868,9 @@
       <c r="G38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="23">
+        <v>45996</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -6083,13 +6313,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,49 +6335,53 @@
     <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="36" style="1" customWidth="1"/>
     <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>272</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6160,13 +6394,14 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2">
         <v>1.71</v>
@@ -6182,25 +6417,28 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6213,13 +6451,14 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" s="2">
         <v>1.92</v>
@@ -6235,27 +6474,30 @@
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6268,10 +6510,11 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6284,13 +6527,14 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="15">
@@ -6304,28 +6548,31 @@
         <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="M8" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="2">
         <v>1.8</v>
@@ -6341,27 +6588,30 @@
         <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6374,13 +6624,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="2">
         <v>1.82</v>
@@ -6396,30 +6647,33 @@
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M11" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="2">
         <v>1.7</v>
@@ -6435,30 +6689,33 @@
         <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M12" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C13" s="2">
         <v>1.75</v>
@@ -6475,23 +6732,26 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="M13" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2">
         <v>1.6</v>
@@ -6507,28 +6767,31 @@
         <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="M14" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2">
         <v>1.72</v>
@@ -6544,30 +6807,33 @@
         <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M15" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="2">
         <v>1.69</v>
@@ -6583,27 +6849,30 @@
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="M16" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6616,13 +6885,14 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="2">
         <v>1.6</v>
@@ -6638,28 +6908,31 @@
         <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M18" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C19" s="2">
         <v>1.76</v>
@@ -6675,25 +6948,28 @@
         <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6706,13 +6982,14 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" s="2">
         <v>1.7</v>
@@ -6728,30 +7005,33 @@
         <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="J21" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M21" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C22" s="2">
         <v>1.62</v>
@@ -6767,30 +7047,33 @@
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I22" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M22" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="2">
         <v>1.75</v>
@@ -6806,30 +7089,33 @@
         <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M23" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C24" s="2">
         <v>1.81</v>
@@ -6845,30 +7131,33 @@
         <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="M24" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" s="2">
         <v>1.56</v>
@@ -6884,28 +7173,31 @@
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M25" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C26" s="2">
         <v>1.68</v>
@@ -6921,30 +7213,33 @@
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I26" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M26" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2">
         <v>1.83</v>
@@ -6960,28 +7255,31 @@
         <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>601</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="M27" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2">
         <v>1.75</v>
@@ -6997,30 +7295,33 @@
         <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I28" s="16" t="s">
+      <c r="J28" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M28" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C29" s="2">
         <v>1.75</v>
@@ -7036,28 +7337,31 @@
         <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M29" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C30" s="2">
         <v>1.69</v>
@@ -7073,30 +7377,33 @@
         <v>62</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="J30" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M30" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C31" s="2">
         <v>1.63</v>
@@ -7112,28 +7419,31 @@
         <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M31" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="2">
         <v>1.73</v>
@@ -7149,23 +7459,26 @@
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="M32" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7178,13 +7491,14 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C34" s="2">
         <v>1.84</v>
@@ -7200,28 +7514,31 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>780</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>781</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M34" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2">
         <v>1.65</v>
@@ -7237,26 +7554,29 @@
         <v>35</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>390</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="M35" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C36" s="2">
         <v>1.81</v>
@@ -7272,28 +7592,31 @@
         <v>29</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="C37" s="2">
         <v>1.82</v>
@@ -7309,46 +7632,73 @@
         <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="J37" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="D38" s="15">
+        <v>45814</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1971</v>
+      </c>
+      <c r="F38" s="14">
+        <f ca="1">YEAR(TODAY())-E38</f>
+        <v>54</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="M38" s="23">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2">
         <v>1.85</v>
@@ -7360,34 +7710,37 @@
         <v>1983</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" ref="F39:F45" ca="1" si="2">YEAR(TODAY())-E39</f>
+        <f t="shared" ref="F39:F47" ca="1" si="2">YEAR(TODAY())-E39</f>
         <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I39" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M39" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="C40" s="2">
         <v>1.75</v>
@@ -7403,28 +7756,31 @@
         <v>69</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C41" s="2">
         <v>1.84</v>
@@ -7440,30 +7796,33 @@
         <v>58</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I41" s="16" t="s">
+      <c r="J41" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="M41" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C42" s="2">
         <v>1.84</v>
@@ -7479,30 +7838,33 @@
         <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I42" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M42" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C43" s="2">
         <v>1.7</v>
@@ -7518,30 +7880,33 @@
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="I43" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="J43" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="C44" s="2">
         <v>1.68</v>
@@ -7557,30 +7922,33 @@
         <v>43</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="J44" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M44" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="2">
         <v>1.76</v>
@@ -7596,60 +7964,113 @@
         <v>28</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>753</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>754</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="D46" s="15">
+        <v>45864</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1967</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>859</v>
+      </c>
       <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="23">
+        <v>45997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="D47" s="15">
+        <v>45769</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1937</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="M47" s="23">
+        <v>45997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2">
         <v>1.75</v>
@@ -7665,21 +8086,24 @@
         <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7692,13 +8116,14 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2">
         <v>1.95</v>
@@ -7714,30 +8139,33 @@
         <v>47</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="I50" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M50" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2">
         <v>1.8</v>
@@ -7753,30 +8181,33 @@
         <v>43</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I51" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M51" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2">
         <v>1.73</v>
@@ -7792,27 +8223,30 @@
         <v>58</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I52" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7825,13 +8259,14 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2">
         <v>1.7</v>
@@ -7847,30 +8282,33 @@
         <v>41</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="I54" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="J54" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M54" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2">
         <v>1.8</v>
@@ -7886,30 +8324,33 @@
         <v>46</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M55" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C56" s="2">
         <v>1.81</v>
@@ -7925,30 +8366,33 @@
         <v>39</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I56" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M56" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C57" s="2">
         <v>1.58</v>
@@ -7964,30 +8408,33 @@
         <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I57" s="16" t="s">
+      <c r="J57" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M57" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2">
         <v>1.7</v>
@@ -8003,28 +8450,31 @@
         <v>46</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M58" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C59" s="2">
         <v>1.73</v>
@@ -8040,26 +8490,29 @@
         <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I59" s="16"/>
       <c r="J59" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="M59" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C60" s="2">
         <v>1.77</v>
@@ -8075,28 +8528,31 @@
         <v>35</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M60" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="15">
@@ -8110,28 +8566,31 @@
         <v>27</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>378</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>379</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C62" s="2">
         <v>1.8</v>
@@ -8147,27 +8606,30 @@
         <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I62" s="16" t="s">
+      <c r="J62" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8180,10 +8642,11 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8196,10 +8659,11 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8212,13 +8676,14 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C66" s="2">
         <v>1.85</v>
@@ -8234,27 +8699,30 @@
         <v>48</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I66" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8267,13 +8735,14 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2">
         <v>1.7</v>
@@ -8289,25 +8758,28 @@
         <v>33</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I68" s="16"/>
       <c r="J68" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -8320,13 +8792,14 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2">
         <v>1.55</v>
@@ -8342,27 +8815,30 @@
         <v>47</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I70" s="16" t="s">
+      <c r="J70" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -8375,10 +8851,11 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -8391,10 +8868,11 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -8407,10 +8885,11 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -8423,10 +8902,11 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -8439,10 +8919,11 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8455,13 +8936,14 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2">
         <v>1.85</v>
@@ -8477,27 +8959,30 @@
         <v>42</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H77" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="I77" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="I77" s="16" t="s">
+      <c r="J77" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -8510,10 +8995,11 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -8526,8 +9012,9 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>68</v>
       </c>
@@ -8542,8 +9029,9 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>123</v>
       </c>
@@ -8558,10 +9046,11 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -8574,10 +9063,11 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="8"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8590,10 +9080,11 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8606,10 +9097,11 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="8"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8622,10 +9114,11 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="8"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8638,10 +9131,11 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="8"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8654,10 +9148,11 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="8"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8670,10 +9165,11 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8686,10 +9182,11 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="8"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -8702,10 +9199,11 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="8"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8718,10 +9216,11 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="8"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8734,10 +9233,11 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="8"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8750,10 +9250,11 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="8"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8766,10 +9267,11 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="8"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8782,10 +9284,11 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8798,10 +9301,11 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="8"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8814,13 +9318,14 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M97" s="8"/>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="15">
@@ -8839,10 +9344,11 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="8"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8855,10 +9361,11 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8871,10 +9378,11 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="8"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8887,10 +9395,11 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="8"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8903,10 +9412,11 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="8"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8919,10 +9429,11 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="8"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8935,10 +9446,11 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8951,10 +9463,11 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8967,10 +9480,11 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="8"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8983,10 +9497,11 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="8"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8999,10 +9514,11 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="8"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9015,10 +9531,11 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9031,10 +9548,11 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="8"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9047,10 +9565,11 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="8"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9063,10 +9582,11 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9079,10 +9599,11 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9095,10 +9616,11 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="8"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9111,10 +9633,11 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="8"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9127,10 +9650,11 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="8"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9143,10 +9667,11 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="8"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9159,10 +9684,11 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="8"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9175,10 +9701,11 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="8"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9191,13 +9718,14 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M120" s="8"/>
+    </row>
+    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C121" s="2">
         <v>1.71</v>
@@ -9213,27 +9741,30 @@
         <v>37</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="M121" s="23">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9246,10 +9777,11 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="8"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9262,10 +9794,11 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="8"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9278,10 +9811,11 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="8"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9294,10 +9828,11 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="8"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9310,10 +9845,11 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="8"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -9326,10 +9862,11 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="8"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -9342,8 +9879,9 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="8"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>22</v>
       </c>
@@ -9358,10 +9896,11 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="8"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9374,10 +9913,11 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="8"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -9390,10 +9930,11 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="8"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -9406,10 +9947,11 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -9422,10 +9964,11 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="8"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -9438,10 +9981,11 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="8"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -9454,10 +9998,11 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="8"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -9470,10 +10015,11 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="8"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -9486,10 +10032,11 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="8"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -9502,8 +10049,9 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>40</v>
       </c>
@@ -9518,10 +10066,11 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="8"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -9534,10 +10083,11 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="8"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -9550,10 +10100,11 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="8"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -9566,10 +10117,11 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="8"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -9582,10 +10134,11 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="8"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -9598,10 +10151,11 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="8"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9614,10 +10168,11 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="8"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9630,10 +10185,11 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="8"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9646,10 +10202,11 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="8"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9662,10 +10219,11 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="8"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9678,10 +10236,11 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="8"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9694,10 +10253,11 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="8"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9710,10 +10270,11 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="8"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9726,10 +10287,11 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="8"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9742,10 +10304,11 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="8"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9758,10 +10321,11 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="8"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9774,8 +10338,9 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="8"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>73</v>
       </c>
@@ -9790,8 +10355,9 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="8"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9804,10 +10370,11 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
+      <c r="M157" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L156">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M156">
+    <sortCondition ref="A1:A156"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9816,13 +10383,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9839,48 +10406,52 @@
     <col min="10" max="10" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="17"/>
+    <col min="13" max="13" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>272</v>
-      </c>
       <c r="G1" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>104</v>
       </c>
@@ -9895,8 +10466,9 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
@@ -9911,13 +10483,14 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C4" s="19">
         <v>1.68</v>
@@ -9933,23 +10506,26 @@
         <v>61</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>258</v>
       </c>
@@ -9964,13 +10540,14 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="19">
         <v>1.75</v>
@@ -9986,30 +10563,33 @@
         <v>41</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>585</v>
       </c>
       <c r="C7" s="19">
         <v>1.75</v>
@@ -10025,26 +10605,29 @@
         <v>32</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="M7" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="15">
@@ -10058,28 +10641,31 @@
         <v>57</v>
       </c>
       <c r="G8" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>706</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>707</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M8" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="15">
@@ -10093,23 +10679,26 @@
         <v>47</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="L9" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="24">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>79</v>
       </c>
@@ -10124,10 +10713,11 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -10140,8 +10730,9 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
@@ -10156,10 +10747,11 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -10172,10 +10764,11 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -10188,8 +10781,9 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>132</v>
       </c>
@@ -10204,8 +10798,9 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>37</v>
       </c>
@@ -10220,10 +10815,11 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -10236,10 +10832,11 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -10252,8 +10849,9 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>262</v>
       </c>
@@ -10268,10 +10866,11 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -10284,10 +10883,11 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -10300,10 +10900,11 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -10316,10 +10917,11 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -10332,8 +10934,9 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>29</v>
       </c>
@@ -10348,8 +10951,9 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>223</v>
       </c>
@@ -10364,8 +10968,9 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>82</v>
       </c>
@@ -10380,8 +10985,9 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>169</v>
       </c>
@@ -10396,10 +11002,11 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -10412,8 +11019,9 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>111</v>
       </c>
@@ -10428,10 +11036,11 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -10444,8 +11053,9 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>235</v>
       </c>
@@ -10460,8 +11070,9 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>35</v>
       </c>
@@ -10476,8 +11087,9 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>186</v>
       </c>
@@ -10492,8 +11104,9 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>166</v>
       </c>
@@ -10508,8 +11121,9 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
@@ -10524,10 +11138,11 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -10540,10 +11155,11 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -10556,8 +11172,9 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>125</v>
       </c>
@@ -10572,8 +11189,9 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -10588,8 +11206,9 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>122</v>
       </c>
@@ -10604,10 +11223,11 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -10620,8 +11240,9 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>242</v>
       </c>
@@ -10636,10 +11257,11 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -10652,8 +11274,9 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>75</v>
       </c>
@@ -10668,10 +11291,11 @@
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -10684,10 +11308,11 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -10700,8 +11325,9 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>248</v>
       </c>
@@ -10716,8 +11342,9 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>98</v>
       </c>
@@ -10732,10 +11359,11 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -10748,8 +11376,9 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>148</v>
       </c>
@@ -10764,10 +11393,11 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -10780,8 +11410,9 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>15</v>
       </c>
@@ -10796,8 +11427,9 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>153</v>
       </c>
@@ -10812,10 +11444,11 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -10828,10 +11461,11 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -10844,8 +11478,9 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>180</v>
       </c>
@@ -10860,10 +11495,11 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -10876,8 +11512,9 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>227</v>
       </c>
@@ -10892,10 +11529,11 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -10908,8 +11546,9 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>70</v>
       </c>
@@ -10924,8 +11563,9 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>72</v>
       </c>
@@ -10940,8 +11580,9 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>90</v>
       </c>
@@ -10956,8 +11597,9 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>137</v>
       </c>
@@ -10972,8 +11614,9 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>101</v>
       </c>
@@ -10988,10 +11631,11 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -11004,8 +11648,9 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>245</v>
       </c>
@@ -11020,10 +11665,11 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -11036,8 +11682,9 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="14"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>231</v>
       </c>
@@ -11052,8 +11699,9 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
       <c r="L68" s="19"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>54</v>
       </c>
@@ -11068,8 +11716,9 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
       <c r="L69" s="19"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>196</v>
       </c>
@@ -11084,10 +11733,11 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
       <c r="L70" s="19"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -11100,8 +11750,9 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
       <c r="L71" s="19"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>255</v>
       </c>
@@ -11116,8 +11767,9 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>108</v>
       </c>
@@ -11132,8 +11784,9 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>40</v>
       </c>
@@ -11148,10 +11801,11 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -11164,8 +11818,9 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>25</v>
       </c>
@@ -11180,8 +11835,9 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>128</v>
       </c>
@@ -11196,10 +11852,11 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
+      <c r="M77" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L82">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
